--- a/name_space.xlsx
+++ b/name_space.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="M01单元体" sheetId="15" r:id="rId1"/>
@@ -4196,7 +4196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C147" sqref="C147"/>
     </sheetView>
@@ -12865,9 +12865,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y164"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12893,7 +12893,7 @@
     <col min="20" max="20" width="14" style="31" customWidth="1"/>
     <col min="21" max="21" width="6.5" style="29" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8.875" style="29" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.25" style="29" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.375" style="29" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="22.75" style="33" bestFit="1" customWidth="1"/>
     <col min="26" max="16384" width="9" style="20"/>

--- a/name_space.xlsx
+++ b/name_space.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
-  <workbookPr filterPrivacy="1"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="M01单元体" sheetId="15" r:id="rId1"/>
@@ -12,10 +12,10 @@
     <sheet name="0" sheetId="2" r:id="rId3"/>
     <sheet name="综述" sheetId="3" r:id="rId4"/>
     <sheet name="发动机类型" sheetId="4" r:id="rId5"/>
-    <sheet name="级别" sheetId="5" r:id="rId6"/>
-    <sheet name="部件" sheetId="6" r:id="rId7"/>
-    <sheet name="零件类型" sheetId="7" r:id="rId8"/>
-    <sheet name="零件图纸号" sheetId="9" r:id="rId9"/>
+    <sheet name="发动机级别" sheetId="5" r:id="rId6"/>
+    <sheet name="部件分组" sheetId="6" r:id="rId7"/>
+    <sheet name="零件分组" sheetId="7" r:id="rId8"/>
+    <sheet name="零件号" sheetId="9" r:id="rId9"/>
     <sheet name="页号" sheetId="10" r:id="rId10"/>
     <sheet name="版本号" sheetId="12" r:id="rId11"/>
     <sheet name="产品序号" sheetId="13" r:id="rId12"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="767">
   <si>
     <t>版本号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -3356,6 +3356,14 @@
   </si>
   <si>
     <t>零件分组统计</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>发动机类型编号</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>零件号</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3582,7 +3590,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3755,6 +3763,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4101,9 +4121,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA146" sqref="AA146"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4114,11 +4134,11 @@
     <col min="4" max="4" width="14.75" style="25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="25" customWidth="1"/>
     <col min="8" max="8" width="11.875" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.125" style="20" customWidth="1"/>
     <col min="10" max="10" width="14.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.25" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.625" style="25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.25" style="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.875" style="25" bestFit="1" customWidth="1"/>
@@ -4155,7 +4175,7 @@
       <c r="F1" s="43" t="s">
         <v>689</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="61" t="s">
         <v>442</v>
       </c>
       <c r="H1" s="59" t="s">
@@ -4168,7 +4188,7 @@
         <v>628</v>
       </c>
       <c r="K1" s="45" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="L1" s="45" t="s">
         <v>752</v>
@@ -4192,7 +4212,7 @@
         <v>764</v>
       </c>
       <c r="S1" s="45" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="T1" s="47" t="s">
         <v>757</v>
@@ -4226,7 +4246,7 @@
       <c r="D2" s="52"/>
       <c r="E2" s="52"/>
       <c r="F2" s="52"/>
-      <c r="G2" s="28">
+      <c r="G2" s="63">
         <v>5</v>
       </c>
       <c r="H2" s="28" t="s">
@@ -4234,7 +4254,7 @@
       </c>
       <c r="I2" s="31"/>
       <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="32"/>
       <c r="M2" s="32"/>
       <c r="N2" s="32"/>
@@ -4263,7 +4283,7 @@
       <c r="D3" s="53"/>
       <c r="E3" s="53"/>
       <c r="F3" s="53"/>
-      <c r="G3" s="21">
+      <c r="G3" s="54">
         <v>1</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -4271,7 +4291,7 @@
       </c>
       <c r="I3" s="35"/>
       <c r="J3" s="36"/>
-      <c r="K3" s="37"/>
+      <c r="K3" s="36"/>
       <c r="L3" s="36"/>
       <c r="M3" s="36"/>
       <c r="N3" s="36"/>
@@ -4300,7 +4320,7 @@
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
       <c r="F4" s="53"/>
-      <c r="G4" s="21">
+      <c r="G4" s="54">
         <v>1</v>
       </c>
       <c r="H4" s="21" t="s">
@@ -4308,7 +4328,7 @@
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="36"/>
-      <c r="K4" s="37"/>
+      <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36"/>
@@ -4337,7 +4357,7 @@
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="53"/>
-      <c r="G5" s="21">
+      <c r="G5" s="54">
         <v>1</v>
       </c>
       <c r="H5" s="21" t="s">
@@ -4345,7 +4365,7 @@
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
+      <c r="K5" s="36"/>
       <c r="L5" s="36"/>
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
@@ -4374,7 +4394,7 @@
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
       <c r="F6" s="53"/>
-      <c r="G6" s="21">
+      <c r="G6" s="54">
         <v>1</v>
       </c>
       <c r="H6" s="21" t="s">
@@ -4382,7 +4402,7 @@
       </c>
       <c r="I6" s="35"/>
       <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
+      <c r="K6" s="36"/>
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
       <c r="N6" s="36"/>
@@ -4411,7 +4431,7 @@
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
       <c r="F7" s="53"/>
-      <c r="G7" s="21">
+      <c r="G7" s="54">
         <v>1</v>
       </c>
       <c r="H7" s="21" t="s">
@@ -4419,7 +4439,7 @@
       </c>
       <c r="I7" s="35"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
+      <c r="K7" s="36"/>
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
@@ -4448,7 +4468,7 @@
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
       <c r="F8" s="53"/>
-      <c r="G8" s="21">
+      <c r="G8" s="54">
         <v>2</v>
       </c>
       <c r="H8" s="21" t="s">
@@ -4456,7 +4476,7 @@
       </c>
       <c r="I8" s="35"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
+      <c r="K8" s="36"/>
       <c r="L8" s="36"/>
       <c r="M8" s="36"/>
       <c r="N8" s="36"/>
@@ -4485,7 +4505,7 @@
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
       <c r="F9" s="53"/>
-      <c r="G9" s="21">
+      <c r="G9" s="54">
         <v>1</v>
       </c>
       <c r="H9" s="21" t="s">
@@ -4493,7 +4513,7 @@
       </c>
       <c r="I9" s="35"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="37"/>
+      <c r="K9" s="36"/>
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
       <c r="N9" s="36"/>
@@ -4522,7 +4542,7 @@
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
       <c r="F10" s="53"/>
-      <c r="G10" s="21">
+      <c r="G10" s="54">
         <v>1</v>
       </c>
       <c r="H10" s="21" t="s">
@@ -4532,7 +4552,7 @@
         <v>463</v>
       </c>
       <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
+      <c r="K10" s="36"/>
       <c r="L10" s="36"/>
       <c r="M10" s="36"/>
       <c r="N10" s="36"/>
@@ -4561,7 +4581,7 @@
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
-      <c r="G11" s="21">
+      <c r="G11" s="54">
         <v>1</v>
       </c>
       <c r="H11" s="21" t="s">
@@ -4571,7 +4591,7 @@
         <v>463</v>
       </c>
       <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
+      <c r="K11" s="36"/>
       <c r="L11" s="36"/>
       <c r="M11" s="36"/>
       <c r="N11" s="36"/>
@@ -4600,7 +4620,7 @@
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
       <c r="F12" s="53"/>
-      <c r="G12" s="21">
+      <c r="G12" s="54">
         <v>1</v>
       </c>
       <c r="H12" s="21" t="s">
@@ -4610,7 +4630,7 @@
         <v>463</v>
       </c>
       <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
+      <c r="K12" s="36"/>
       <c r="L12" s="36"/>
       <c r="M12" s="36"/>
       <c r="N12" s="36"/>
@@ -4639,7 +4659,7 @@
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
-      <c r="G13" s="21">
+      <c r="G13" s="54">
         <v>1</v>
       </c>
       <c r="H13" s="21" t="s">
@@ -4649,7 +4669,7 @@
         <v>463</v>
       </c>
       <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
+      <c r="K13" s="36"/>
       <c r="L13" s="36"/>
       <c r="M13" s="36"/>
       <c r="N13" s="36"/>
@@ -4678,7 +4698,7 @@
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
       <c r="F14" s="53"/>
-      <c r="G14" s="21">
+      <c r="G14" s="54">
         <v>1</v>
       </c>
       <c r="H14" s="21" t="s">
@@ -4688,7 +4708,7 @@
         <v>463</v>
       </c>
       <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
+      <c r="K14" s="36"/>
       <c r="L14" s="36"/>
       <c r="M14" s="36"/>
       <c r="N14" s="36"/>
@@ -4717,7 +4737,7 @@
       <c r="D15" s="53"/>
       <c r="E15" s="53"/>
       <c r="F15" s="53"/>
-      <c r="G15" s="21">
+      <c r="G15" s="54">
         <v>1</v>
       </c>
       <c r="H15" s="21" t="s">
@@ -4727,7 +4747,7 @@
         <v>463</v>
       </c>
       <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
+      <c r="K15" s="36"/>
       <c r="L15" s="36"/>
       <c r="M15" s="36"/>
       <c r="N15" s="36"/>
@@ -4756,7 +4776,7 @@
       <c r="D16" s="53"/>
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
-      <c r="G16" s="21">
+      <c r="G16" s="54">
         <v>1</v>
       </c>
       <c r="H16" s="21" t="s">
@@ -4766,7 +4786,7 @@
         <v>463</v>
       </c>
       <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
+      <c r="K16" s="36"/>
       <c r="L16" s="36"/>
       <c r="M16" s="36"/>
       <c r="N16" s="36"/>
@@ -4795,7 +4815,7 @@
       <c r="D17" s="53"/>
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
-      <c r="G17" s="21">
+      <c r="G17" s="54">
         <v>1</v>
       </c>
       <c r="H17" s="21" t="s">
@@ -4805,7 +4825,7 @@
         <v>463</v>
       </c>
       <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
+      <c r="K17" s="36"/>
       <c r="L17" s="36"/>
       <c r="M17" s="36"/>
       <c r="N17" s="36"/>
@@ -4834,7 +4854,7 @@
       <c r="D18" s="53"/>
       <c r="E18" s="53"/>
       <c r="F18" s="53"/>
-      <c r="G18" s="21">
+      <c r="G18" s="54">
         <v>1</v>
       </c>
       <c r="H18" s="21" t="s">
@@ -4844,7 +4864,7 @@
         <v>463</v>
       </c>
       <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
+      <c r="K18" s="36"/>
       <c r="L18" s="36"/>
       <c r="M18" s="36"/>
       <c r="N18" s="36"/>
@@ -4873,7 +4893,7 @@
       <c r="D19" s="53"/>
       <c r="E19" s="53"/>
       <c r="F19" s="53"/>
-      <c r="G19" s="21">
+      <c r="G19" s="54">
         <v>1</v>
       </c>
       <c r="H19" s="21" t="s">
@@ -4883,7 +4903,7 @@
         <v>463</v>
       </c>
       <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
+      <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
@@ -4912,7 +4932,7 @@
       <c r="D20" s="53"/>
       <c r="E20" s="53"/>
       <c r="F20" s="53"/>
-      <c r="G20" s="21">
+      <c r="G20" s="54">
         <v>1</v>
       </c>
       <c r="H20" s="21" t="s">
@@ -4922,7 +4942,7 @@
         <v>463</v>
       </c>
       <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
+      <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
       <c r="N20" s="36"/>
@@ -4951,7 +4971,7 @@
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
       <c r="F21" s="53"/>
-      <c r="G21" s="21">
+      <c r="G21" s="54">
         <v>1</v>
       </c>
       <c r="H21" s="21" t="s">
@@ -4961,7 +4981,7 @@
         <v>463</v>
       </c>
       <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
+      <c r="K21" s="36"/>
       <c r="L21" s="36"/>
       <c r="M21" s="36"/>
       <c r="N21" s="36"/>
@@ -4990,7 +5010,7 @@
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
       <c r="F22" s="53"/>
-      <c r="G22" s="21">
+      <c r="G22" s="54">
         <v>1</v>
       </c>
       <c r="H22" s="21" t="s">
@@ -5000,7 +5020,7 @@
         <v>463</v>
       </c>
       <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
+      <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="36"/>
       <c r="N22" s="36"/>
@@ -5029,7 +5049,7 @@
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="54"/>
-      <c r="G23" s="21">
+      <c r="G23" s="54">
         <v>1</v>
       </c>
       <c r="H23" s="21" t="s">
@@ -5039,7 +5059,7 @@
         <v>463</v>
       </c>
       <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="36"/>
       <c r="N23" s="36"/>
@@ -5068,7 +5088,7 @@
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
       <c r="F24" s="54"/>
-      <c r="G24" s="21">
+      <c r="G24" s="54">
         <v>1</v>
       </c>
       <c r="H24" s="21" t="s">
@@ -5078,7 +5098,7 @@
         <v>463</v>
       </c>
       <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
+      <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="36"/>
       <c r="N24" s="36"/>
@@ -5107,7 +5127,7 @@
       <c r="D25" s="53"/>
       <c r="E25" s="53"/>
       <c r="F25" s="53"/>
-      <c r="G25" s="21">
+      <c r="G25" s="54">
         <v>1</v>
       </c>
       <c r="H25" s="21" t="s">
@@ -5117,7 +5137,7 @@
         <v>463</v>
       </c>
       <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
+      <c r="K25" s="36"/>
       <c r="L25" s="36"/>
       <c r="M25" s="36"/>
       <c r="N25" s="36"/>
@@ -5146,7 +5166,7 @@
       <c r="D26" s="53"/>
       <c r="E26" s="53"/>
       <c r="F26" s="53"/>
-      <c r="G26" s="21">
+      <c r="G26" s="54">
         <v>1</v>
       </c>
       <c r="H26" s="21" t="s">
@@ -5156,7 +5176,7 @@
         <v>463</v>
       </c>
       <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
+      <c r="K26" s="36"/>
       <c r="L26" s="36"/>
       <c r="M26" s="36"/>
       <c r="N26" s="36"/>
@@ -5185,7 +5205,7 @@
       <c r="D27" s="53"/>
       <c r="E27" s="53"/>
       <c r="F27" s="53"/>
-      <c r="G27" s="21">
+      <c r="G27" s="54">
         <v>1</v>
       </c>
       <c r="H27" s="21" t="s">
@@ -5195,7 +5215,7 @@
         <v>463</v>
       </c>
       <c r="J27" s="36"/>
-      <c r="K27" s="37"/>
+      <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="36"/>
       <c r="N27" s="36"/>
@@ -5224,7 +5244,7 @@
       <c r="D28" s="53"/>
       <c r="E28" s="53"/>
       <c r="F28" s="53"/>
-      <c r="G28" s="21">
+      <c r="G28" s="54">
         <v>1</v>
       </c>
       <c r="H28" s="21" t="s">
@@ -5234,7 +5254,7 @@
         <v>463</v>
       </c>
       <c r="J28" s="36"/>
-      <c r="K28" s="37"/>
+      <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="36"/>
       <c r="N28" s="36"/>
@@ -5263,7 +5283,7 @@
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
       <c r="F29" s="53"/>
-      <c r="G29" s="21">
+      <c r="G29" s="54">
         <v>1</v>
       </c>
       <c r="H29" s="21" t="s">
@@ -5273,7 +5293,7 @@
         <v>463</v>
       </c>
       <c r="J29" s="36"/>
-      <c r="K29" s="37"/>
+      <c r="K29" s="36"/>
       <c r="L29" s="36"/>
       <c r="M29" s="36"/>
       <c r="N29" s="36"/>
@@ -5302,7 +5322,7 @@
       <c r="D30" s="53"/>
       <c r="E30" s="53"/>
       <c r="F30" s="53"/>
-      <c r="G30" s="21">
+      <c r="G30" s="54">
         <v>1</v>
       </c>
       <c r="H30" s="21" t="s">
@@ -5312,7 +5332,7 @@
         <v>463</v>
       </c>
       <c r="J30" s="36"/>
-      <c r="K30" s="37"/>
+      <c r="K30" s="36"/>
       <c r="L30" s="36"/>
       <c r="M30" s="36"/>
       <c r="N30" s="36"/>
@@ -5341,7 +5361,7 @@
       <c r="D31" s="53"/>
       <c r="E31" s="53"/>
       <c r="F31" s="53"/>
-      <c r="G31" s="21">
+      <c r="G31" s="54">
         <v>1</v>
       </c>
       <c r="H31" s="21" t="s">
@@ -5351,7 +5371,7 @@
         <v>463</v>
       </c>
       <c r="J31" s="36"/>
-      <c r="K31" s="37"/>
+      <c r="K31" s="36"/>
       <c r="L31" s="36"/>
       <c r="M31" s="36"/>
       <c r="N31" s="36"/>
@@ -5380,7 +5400,7 @@
       <c r="D32" s="53"/>
       <c r="E32" s="53"/>
       <c r="F32" s="53"/>
-      <c r="G32" s="21">
+      <c r="G32" s="54">
         <v>1</v>
       </c>
       <c r="H32" s="21" t="s">
@@ -5390,7 +5410,7 @@
         <v>463</v>
       </c>
       <c r="J32" s="36"/>
-      <c r="K32" s="37"/>
+      <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="M32" s="36"/>
       <c r="N32" s="36"/>
@@ -5419,7 +5439,7 @@
       <c r="D33" s="53"/>
       <c r="E33" s="53"/>
       <c r="F33" s="53"/>
-      <c r="G33" s="21">
+      <c r="G33" s="54">
         <v>1</v>
       </c>
       <c r="H33" s="21" t="s">
@@ -5429,7 +5449,7 @@
         <v>463</v>
       </c>
       <c r="J33" s="36"/>
-      <c r="K33" s="37"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="36"/>
       <c r="M33" s="36"/>
       <c r="N33" s="36"/>
@@ -5458,7 +5478,7 @@
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
       <c r="F34" s="54"/>
-      <c r="G34" s="21">
+      <c r="G34" s="54">
         <v>1</v>
       </c>
       <c r="H34" s="21" t="s">
@@ -5468,7 +5488,7 @@
         <v>463</v>
       </c>
       <c r="J34" s="36"/>
-      <c r="K34" s="37"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
@@ -5497,7 +5517,7 @@
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
-      <c r="G35" s="21">
+      <c r="G35" s="54">
         <v>1</v>
       </c>
       <c r="H35" s="21" t="s">
@@ -5507,7 +5527,7 @@
         <v>463</v>
       </c>
       <c r="J35" s="36"/>
-      <c r="K35" s="37"/>
+      <c r="K35" s="36"/>
       <c r="L35" s="36"/>
       <c r="M35" s="36"/>
       <c r="N35" s="36"/>
@@ -5536,7 +5556,7 @@
       <c r="D36" s="53"/>
       <c r="E36" s="53"/>
       <c r="F36" s="53"/>
-      <c r="G36" s="21">
+      <c r="G36" s="54">
         <v>1</v>
       </c>
       <c r="H36" s="21" t="s">
@@ -5546,7 +5566,7 @@
         <v>463</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="37"/>
+      <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="M36" s="36"/>
       <c r="N36" s="36"/>
@@ -5575,7 +5595,7 @@
       <c r="D37" s="53"/>
       <c r="E37" s="53"/>
       <c r="F37" s="53"/>
-      <c r="G37" s="21">
+      <c r="G37" s="54">
         <v>1</v>
       </c>
       <c r="H37" s="21" t="s">
@@ -5585,7 +5605,7 @@
         <v>463</v>
       </c>
       <c r="J37" s="36"/>
-      <c r="K37" s="37"/>
+      <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
       <c r="N37" s="36"/>
@@ -5614,7 +5634,7 @@
       <c r="D38" s="53"/>
       <c r="E38" s="53"/>
       <c r="F38" s="53"/>
-      <c r="G38" s="21">
+      <c r="G38" s="54">
         <v>1</v>
       </c>
       <c r="H38" s="21" t="s">
@@ -5624,7 +5644,7 @@
         <v>463</v>
       </c>
       <c r="J38" s="36"/>
-      <c r="K38" s="37"/>
+      <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
       <c r="N38" s="36"/>
@@ -5653,7 +5673,7 @@
       <c r="D39" s="53"/>
       <c r="E39" s="53"/>
       <c r="F39" s="53"/>
-      <c r="G39" s="21">
+      <c r="G39" s="54">
         <v>1</v>
       </c>
       <c r="H39" s="21" t="s">
@@ -5663,7 +5683,7 @@
         <v>463</v>
       </c>
       <c r="J39" s="36"/>
-      <c r="K39" s="37"/>
+      <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
       <c r="N39" s="36"/>
@@ -5692,7 +5712,7 @@
       <c r="D40" s="53"/>
       <c r="E40" s="53"/>
       <c r="F40" s="53"/>
-      <c r="G40" s="21">
+      <c r="G40" s="54">
         <v>1</v>
       </c>
       <c r="H40" s="21" t="s">
@@ -5702,7 +5722,7 @@
         <v>463</v>
       </c>
       <c r="J40" s="36"/>
-      <c r="K40" s="37"/>
+      <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
       <c r="N40" s="36"/>
@@ -5731,7 +5751,7 @@
       <c r="D41" s="53"/>
       <c r="E41" s="53"/>
       <c r="F41" s="53"/>
-      <c r="G41" s="21">
+      <c r="G41" s="54">
         <v>1</v>
       </c>
       <c r="H41" s="21" t="s">
@@ -5741,7 +5761,7 @@
         <v>463</v>
       </c>
       <c r="J41" s="36"/>
-      <c r="K41" s="37"/>
+      <c r="K41" s="36"/>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
       <c r="N41" s="36"/>
@@ -5770,7 +5790,7 @@
       <c r="D42" s="53"/>
       <c r="E42" s="53"/>
       <c r="F42" s="53"/>
-      <c r="G42" s="21">
+      <c r="G42" s="54">
         <v>1</v>
       </c>
       <c r="H42" s="21" t="s">
@@ -5780,7 +5800,7 @@
         <v>463</v>
       </c>
       <c r="J42" s="36"/>
-      <c r="K42" s="37"/>
+      <c r="K42" s="36"/>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
       <c r="N42" s="36"/>
@@ -5809,7 +5829,7 @@
       <c r="D43" s="53"/>
       <c r="E43" s="53"/>
       <c r="F43" s="53"/>
-      <c r="G43" s="21">
+      <c r="G43" s="54">
         <v>1</v>
       </c>
       <c r="H43" s="21" t="s">
@@ -5819,7 +5839,7 @@
         <v>463</v>
       </c>
       <c r="J43" s="36"/>
-      <c r="K43" s="37"/>
+      <c r="K43" s="36"/>
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
       <c r="N43" s="36"/>
@@ -5848,7 +5868,7 @@
       <c r="D44" s="53"/>
       <c r="E44" s="53"/>
       <c r="F44" s="53"/>
-      <c r="G44" s="21">
+      <c r="G44" s="54">
         <v>1</v>
       </c>
       <c r="H44" s="21" t="s">
@@ -5858,7 +5878,7 @@
         <v>463</v>
       </c>
       <c r="J44" s="36"/>
-      <c r="K44" s="37"/>
+      <c r="K44" s="36"/>
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
       <c r="N44" s="36"/>
@@ -5887,7 +5907,7 @@
       <c r="D45" s="53"/>
       <c r="E45" s="53"/>
       <c r="F45" s="53"/>
-      <c r="G45" s="21">
+      <c r="G45" s="54">
         <v>1</v>
       </c>
       <c r="H45" s="21" t="s">
@@ -5897,7 +5917,7 @@
         <v>463</v>
       </c>
       <c r="J45" s="36"/>
-      <c r="K45" s="37"/>
+      <c r="K45" s="36"/>
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
       <c r="N45" s="36"/>
@@ -5926,7 +5946,7 @@
       <c r="D46" s="53"/>
       <c r="E46" s="53"/>
       <c r="F46" s="53"/>
-      <c r="G46" s="21">
+      <c r="G46" s="54">
         <v>1</v>
       </c>
       <c r="H46" s="21" t="s">
@@ -5936,7 +5956,7 @@
         <v>463</v>
       </c>
       <c r="J46" s="36"/>
-      <c r="K46" s="37"/>
+      <c r="K46" s="36"/>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
       <c r="N46" s="36"/>
@@ -5965,7 +5985,7 @@
       <c r="D47" s="53"/>
       <c r="E47" s="53"/>
       <c r="F47" s="53"/>
-      <c r="G47" s="21">
+      <c r="G47" s="54">
         <v>1</v>
       </c>
       <c r="H47" s="21" t="s">
@@ -5975,7 +5995,7 @@
         <v>463</v>
       </c>
       <c r="J47" s="36"/>
-      <c r="K47" s="37"/>
+      <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
       <c r="N47" s="36"/>
@@ -6004,7 +6024,7 @@
       <c r="D48" s="53"/>
       <c r="E48" s="53"/>
       <c r="F48" s="53"/>
-      <c r="G48" s="21">
+      <c r="G48" s="54">
         <v>1</v>
       </c>
       <c r="H48" s="21" t="s">
@@ -6014,7 +6034,7 @@
         <v>463</v>
       </c>
       <c r="J48" s="36"/>
-      <c r="K48" s="37"/>
+      <c r="K48" s="36"/>
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
       <c r="N48" s="36"/>
@@ -6043,7 +6063,7 @@
       <c r="D49" s="54"/>
       <c r="E49" s="54"/>
       <c r="F49" s="54"/>
-      <c r="G49" s="21">
+      <c r="G49" s="54">
         <v>1</v>
       </c>
       <c r="H49" s="21" t="s">
@@ -6053,7 +6073,7 @@
         <v>502</v>
       </c>
       <c r="J49" s="36"/>
-      <c r="K49" s="37"/>
+      <c r="K49" s="36"/>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
       <c r="N49" s="36"/>
@@ -6082,7 +6102,7 @@
       <c r="D50" s="54"/>
       <c r="E50" s="54"/>
       <c r="F50" s="54"/>
-      <c r="G50" s="21">
+      <c r="G50" s="54">
         <v>1</v>
       </c>
       <c r="H50" s="21" t="s">
@@ -6092,7 +6112,7 @@
         <v>502</v>
       </c>
       <c r="J50" s="36"/>
-      <c r="K50" s="37"/>
+      <c r="K50" s="36"/>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
       <c r="N50" s="36"/>
@@ -6121,7 +6141,7 @@
       <c r="D51" s="53"/>
       <c r="E51" s="53"/>
       <c r="F51" s="53"/>
-      <c r="G51" s="21">
+      <c r="G51" s="54">
         <v>1</v>
       </c>
       <c r="H51" s="21" t="s">
@@ -6131,7 +6151,7 @@
         <v>502</v>
       </c>
       <c r="J51" s="36"/>
-      <c r="K51" s="37"/>
+      <c r="K51" s="36"/>
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
       <c r="N51" s="36"/>
@@ -6160,7 +6180,7 @@
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
       <c r="F52" s="53"/>
-      <c r="G52" s="21">
+      <c r="G52" s="54">
         <v>1</v>
       </c>
       <c r="H52" s="21" t="s">
@@ -6170,7 +6190,7 @@
         <v>502</v>
       </c>
       <c r="J52" s="36"/>
-      <c r="K52" s="37"/>
+      <c r="K52" s="36"/>
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
       <c r="N52" s="36"/>
@@ -6199,7 +6219,7 @@
       <c r="D53" s="53"/>
       <c r="E53" s="53"/>
       <c r="F53" s="53"/>
-      <c r="G53" s="21">
+      <c r="G53" s="54">
         <v>1</v>
       </c>
       <c r="H53" s="21" t="s">
@@ -6209,7 +6229,7 @@
         <v>502</v>
       </c>
       <c r="J53" s="36"/>
-      <c r="K53" s="37"/>
+      <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="36"/>
       <c r="N53" s="36"/>
@@ -6238,7 +6258,7 @@
       <c r="D54" s="53"/>
       <c r="E54" s="53"/>
       <c r="F54" s="53"/>
-      <c r="G54" s="21">
+      <c r="G54" s="54">
         <v>1</v>
       </c>
       <c r="H54" s="21" t="s">
@@ -6248,7 +6268,7 @@
         <v>502</v>
       </c>
       <c r="J54" s="36"/>
-      <c r="K54" s="37"/>
+      <c r="K54" s="36"/>
       <c r="L54" s="36"/>
       <c r="M54" s="36"/>
       <c r="N54" s="36"/>
@@ -6277,7 +6297,7 @@
       <c r="D55" s="53"/>
       <c r="E55" s="53"/>
       <c r="F55" s="53"/>
-      <c r="G55" s="21">
+      <c r="G55" s="54">
         <v>1</v>
       </c>
       <c r="H55" s="21" t="s">
@@ -6287,7 +6307,7 @@
         <v>502</v>
       </c>
       <c r="J55" s="36"/>
-      <c r="K55" s="37"/>
+      <c r="K55" s="36"/>
       <c r="L55" s="36"/>
       <c r="M55" s="36"/>
       <c r="N55" s="36"/>
@@ -6316,7 +6336,7 @@
       <c r="D56" s="53"/>
       <c r="E56" s="53"/>
       <c r="F56" s="53"/>
-      <c r="G56" s="21">
+      <c r="G56" s="54">
         <v>1</v>
       </c>
       <c r="H56" s="21" t="s">
@@ -6326,7 +6346,7 @@
         <v>502</v>
       </c>
       <c r="J56" s="36"/>
-      <c r="K56" s="37"/>
+      <c r="K56" s="36"/>
       <c r="L56" s="36"/>
       <c r="M56" s="36"/>
       <c r="N56" s="36"/>
@@ -6355,7 +6375,7 @@
       <c r="D57" s="53"/>
       <c r="E57" s="53"/>
       <c r="F57" s="53"/>
-      <c r="G57" s="21">
+      <c r="G57" s="54">
         <v>1</v>
       </c>
       <c r="H57" s="21" t="s">
@@ -6365,7 +6385,7 @@
         <v>502</v>
       </c>
       <c r="J57" s="36"/>
-      <c r="K57" s="37"/>
+      <c r="K57" s="36"/>
       <c r="L57" s="36"/>
       <c r="M57" s="36"/>
       <c r="N57" s="36"/>
@@ -6394,7 +6414,7 @@
       <c r="D58" s="53"/>
       <c r="E58" s="53"/>
       <c r="F58" s="53"/>
-      <c r="G58" s="21">
+      <c r="G58" s="54">
         <v>1</v>
       </c>
       <c r="H58" s="21" t="s">
@@ -6404,7 +6424,7 @@
         <v>502</v>
       </c>
       <c r="J58" s="36"/>
-      <c r="K58" s="37"/>
+      <c r="K58" s="36"/>
       <c r="L58" s="36"/>
       <c r="M58" s="36"/>
       <c r="N58" s="36"/>
@@ -6433,7 +6453,7 @@
       <c r="D59" s="53"/>
       <c r="E59" s="53"/>
       <c r="F59" s="53"/>
-      <c r="G59" s="21">
+      <c r="G59" s="54">
         <v>1</v>
       </c>
       <c r="H59" s="21" t="s">
@@ -6443,7 +6463,7 @@
         <v>502</v>
       </c>
       <c r="J59" s="36"/>
-      <c r="K59" s="37"/>
+      <c r="K59" s="36"/>
       <c r="L59" s="36"/>
       <c r="M59" s="36"/>
       <c r="N59" s="36"/>
@@ -6472,7 +6492,7 @@
       <c r="D60" s="53"/>
       <c r="E60" s="53"/>
       <c r="F60" s="53"/>
-      <c r="G60" s="21">
+      <c r="G60" s="54">
         <v>1</v>
       </c>
       <c r="H60" s="21" t="s">
@@ -6482,7 +6502,7 @@
         <v>502</v>
       </c>
       <c r="J60" s="36"/>
-      <c r="K60" s="37"/>
+      <c r="K60" s="36"/>
       <c r="L60" s="36"/>
       <c r="M60" s="36"/>
       <c r="N60" s="36"/>
@@ -6511,7 +6531,7 @@
       <c r="D61" s="53"/>
       <c r="E61" s="53"/>
       <c r="F61" s="53"/>
-      <c r="G61" s="21">
+      <c r="G61" s="54">
         <v>1</v>
       </c>
       <c r="H61" s="21" t="s">
@@ -6521,7 +6541,7 @@
         <v>502</v>
       </c>
       <c r="J61" s="36"/>
-      <c r="K61" s="37"/>
+      <c r="K61" s="36"/>
       <c r="L61" s="36"/>
       <c r="M61" s="36"/>
       <c r="N61" s="36"/>
@@ -6550,7 +6570,7 @@
       <c r="D62" s="53"/>
       <c r="E62" s="53"/>
       <c r="F62" s="53"/>
-      <c r="G62" s="21">
+      <c r="G62" s="54">
         <v>1</v>
       </c>
       <c r="H62" s="21" t="s">
@@ -6560,7 +6580,7 @@
         <v>502</v>
       </c>
       <c r="J62" s="36"/>
-      <c r="K62" s="37"/>
+      <c r="K62" s="36"/>
       <c r="L62" s="36"/>
       <c r="M62" s="36"/>
       <c r="N62" s="36"/>
@@ -6589,7 +6609,7 @@
       <c r="D63" s="53"/>
       <c r="E63" s="53"/>
       <c r="F63" s="53"/>
-      <c r="G63" s="21">
+      <c r="G63" s="54">
         <v>1</v>
       </c>
       <c r="H63" s="21" t="s">
@@ -6599,7 +6619,7 @@
         <v>502</v>
       </c>
       <c r="J63" s="36"/>
-      <c r="K63" s="37"/>
+      <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="36"/>
       <c r="N63" s="36"/>
@@ -6628,7 +6648,7 @@
       <c r="D64" s="53"/>
       <c r="E64" s="53"/>
       <c r="F64" s="53"/>
-      <c r="G64" s="21">
+      <c r="G64" s="54">
         <v>1</v>
       </c>
       <c r="H64" s="21" t="s">
@@ -6638,7 +6658,7 @@
         <v>502</v>
       </c>
       <c r="J64" s="36"/>
-      <c r="K64" s="37"/>
+      <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="36"/>
       <c r="N64" s="36"/>
@@ -6667,7 +6687,7 @@
       <c r="D65" s="53"/>
       <c r="E65" s="53"/>
       <c r="F65" s="53"/>
-      <c r="G65" s="21">
+      <c r="G65" s="54">
         <v>1</v>
       </c>
       <c r="H65" s="21" t="s">
@@ -6677,7 +6697,7 @@
         <v>502</v>
       </c>
       <c r="J65" s="36"/>
-      <c r="K65" s="37"/>
+      <c r="K65" s="36"/>
       <c r="L65" s="36"/>
       <c r="M65" s="36"/>
       <c r="N65" s="36"/>
@@ -6706,7 +6726,7 @@
       <c r="D66" s="53"/>
       <c r="E66" s="53"/>
       <c r="F66" s="53"/>
-      <c r="G66" s="21">
+      <c r="G66" s="54">
         <v>1</v>
       </c>
       <c r="H66" s="21" t="s">
@@ -6716,7 +6736,7 @@
         <v>502</v>
       </c>
       <c r="J66" s="36"/>
-      <c r="K66" s="37"/>
+      <c r="K66" s="36"/>
       <c r="L66" s="36"/>
       <c r="M66" s="36"/>
       <c r="N66" s="36"/>
@@ -6745,7 +6765,7 @@
       <c r="D67" s="53"/>
       <c r="E67" s="53"/>
       <c r="F67" s="53"/>
-      <c r="G67" s="21">
+      <c r="G67" s="54">
         <v>1</v>
       </c>
       <c r="H67" s="21" t="s">
@@ -6755,7 +6775,7 @@
         <v>502</v>
       </c>
       <c r="J67" s="36"/>
-      <c r="K67" s="37"/>
+      <c r="K67" s="36"/>
       <c r="L67" s="36"/>
       <c r="M67" s="36"/>
       <c r="N67" s="36"/>
@@ -6784,7 +6804,7 @@
       <c r="D68" s="53"/>
       <c r="E68" s="53"/>
       <c r="F68" s="53"/>
-      <c r="G68" s="21">
+      <c r="G68" s="54">
         <v>1</v>
       </c>
       <c r="H68" s="21" t="s">
@@ -6794,7 +6814,7 @@
         <v>502</v>
       </c>
       <c r="J68" s="36"/>
-      <c r="K68" s="37"/>
+      <c r="K68" s="36"/>
       <c r="L68" s="36"/>
       <c r="M68" s="36"/>
       <c r="N68" s="36"/>
@@ -6823,7 +6843,7 @@
       <c r="D69" s="53"/>
       <c r="E69" s="53"/>
       <c r="F69" s="53"/>
-      <c r="G69" s="21">
+      <c r="G69" s="54">
         <v>1</v>
       </c>
       <c r="H69" s="21" t="s">
@@ -6833,7 +6853,7 @@
         <v>502</v>
       </c>
       <c r="J69" s="36"/>
-      <c r="K69" s="37"/>
+      <c r="K69" s="36"/>
       <c r="L69" s="36"/>
       <c r="M69" s="36"/>
       <c r="N69" s="36"/>
@@ -6862,7 +6882,7 @@
       <c r="D70" s="53"/>
       <c r="E70" s="53"/>
       <c r="F70" s="53"/>
-      <c r="G70" s="21">
+      <c r="G70" s="54">
         <v>1</v>
       </c>
       <c r="H70" s="21" t="s">
@@ -6872,7 +6892,7 @@
         <v>502</v>
       </c>
       <c r="J70" s="36"/>
-      <c r="K70" s="37"/>
+      <c r="K70" s="36"/>
       <c r="L70" s="36"/>
       <c r="M70" s="36"/>
       <c r="N70" s="36"/>
@@ -6901,7 +6921,7 @@
       <c r="D71" s="53"/>
       <c r="E71" s="53"/>
       <c r="F71" s="53"/>
-      <c r="G71" s="21">
+      <c r="G71" s="54">
         <v>1</v>
       </c>
       <c r="H71" s="21" t="s">
@@ -6911,7 +6931,7 @@
         <v>502</v>
       </c>
       <c r="J71" s="36"/>
-      <c r="K71" s="37"/>
+      <c r="K71" s="36"/>
       <c r="L71" s="36"/>
       <c r="M71" s="36"/>
       <c r="N71" s="36"/>
@@ -6940,7 +6960,7 @@
       <c r="D72" s="54"/>
       <c r="E72" s="54"/>
       <c r="F72" s="54"/>
-      <c r="G72" s="21">
+      <c r="G72" s="54">
         <v>1</v>
       </c>
       <c r="H72" s="21" t="s">
@@ -6950,7 +6970,7 @@
         <v>502</v>
       </c>
       <c r="J72" s="36"/>
-      <c r="K72" s="37"/>
+      <c r="K72" s="36"/>
       <c r="L72" s="36"/>
       <c r="M72" s="36"/>
       <c r="N72" s="36"/>
@@ -6979,7 +6999,7 @@
       <c r="D73" s="54"/>
       <c r="E73" s="54"/>
       <c r="F73" s="54"/>
-      <c r="G73" s="21">
+      <c r="G73" s="54">
         <v>1</v>
       </c>
       <c r="H73" s="21" t="s">
@@ -6989,7 +7009,7 @@
         <v>502</v>
       </c>
       <c r="J73" s="36"/>
-      <c r="K73" s="37"/>
+      <c r="K73" s="36"/>
       <c r="L73" s="36"/>
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
@@ -7018,7 +7038,7 @@
       <c r="D74" s="53"/>
       <c r="E74" s="53"/>
       <c r="F74" s="53"/>
-      <c r="G74" s="21">
+      <c r="G74" s="54">
         <v>1</v>
       </c>
       <c r="H74" s="21" t="s">
@@ -7028,7 +7048,7 @@
         <v>502</v>
       </c>
       <c r="J74" s="36"/>
-      <c r="K74" s="37"/>
+      <c r="K74" s="36"/>
       <c r="L74" s="36"/>
       <c r="M74" s="36"/>
       <c r="N74" s="36"/>
@@ -7057,7 +7077,7 @@
       <c r="D75" s="54"/>
       <c r="E75" s="54"/>
       <c r="F75" s="54"/>
-      <c r="G75" s="21">
+      <c r="G75" s="54">
         <v>1</v>
       </c>
       <c r="H75" s="21" t="s">
@@ -7067,7 +7087,7 @@
         <v>502</v>
       </c>
       <c r="J75" s="36"/>
-      <c r="K75" s="37"/>
+      <c r="K75" s="36"/>
       <c r="L75" s="36"/>
       <c r="M75" s="36"/>
       <c r="N75" s="36"/>
@@ -7096,7 +7116,7 @@
       <c r="D76" s="53"/>
       <c r="E76" s="53"/>
       <c r="F76" s="53"/>
-      <c r="G76" s="21">
+      <c r="G76" s="54">
         <v>1</v>
       </c>
       <c r="H76" s="21" t="s">
@@ -7106,7 +7126,7 @@
         <v>502</v>
       </c>
       <c r="J76" s="36"/>
-      <c r="K76" s="37"/>
+      <c r="K76" s="36"/>
       <c r="L76" s="36"/>
       <c r="M76" s="36"/>
       <c r="N76" s="36"/>
@@ -7135,7 +7155,7 @@
       <c r="D77" s="53"/>
       <c r="E77" s="53"/>
       <c r="F77" s="53"/>
-      <c r="G77" s="21">
+      <c r="G77" s="54">
         <v>1</v>
       </c>
       <c r="H77" s="21" t="s">
@@ -7145,7 +7165,7 @@
         <v>502</v>
       </c>
       <c r="J77" s="36"/>
-      <c r="K77" s="37"/>
+      <c r="K77" s="36"/>
       <c r="L77" s="36"/>
       <c r="M77" s="36"/>
       <c r="N77" s="36"/>
@@ -7174,7 +7194,7 @@
       <c r="D78" s="53"/>
       <c r="E78" s="53"/>
       <c r="F78" s="53"/>
-      <c r="G78" s="21">
+      <c r="G78" s="54">
         <v>1</v>
       </c>
       <c r="H78" s="21" t="s">
@@ -7184,7 +7204,7 @@
         <v>502</v>
       </c>
       <c r="J78" s="36"/>
-      <c r="K78" s="37"/>
+      <c r="K78" s="36"/>
       <c r="L78" s="36"/>
       <c r="M78" s="36"/>
       <c r="N78" s="36"/>
@@ -7213,7 +7233,7 @@
       <c r="D79" s="53"/>
       <c r="E79" s="53"/>
       <c r="F79" s="53"/>
-      <c r="G79" s="21">
+      <c r="G79" s="54">
         <v>1</v>
       </c>
       <c r="H79" s="21" t="s">
@@ -7223,7 +7243,7 @@
         <v>502</v>
       </c>
       <c r="J79" s="36"/>
-      <c r="K79" s="37"/>
+      <c r="K79" s="36"/>
       <c r="L79" s="36"/>
       <c r="M79" s="36"/>
       <c r="N79" s="36"/>
@@ -7252,7 +7272,7 @@
       <c r="D80" s="53"/>
       <c r="E80" s="53"/>
       <c r="F80" s="53"/>
-      <c r="G80" s="21">
+      <c r="G80" s="54">
         <v>1</v>
       </c>
       <c r="H80" s="21" t="s">
@@ -7262,7 +7282,7 @@
         <v>502</v>
       </c>
       <c r="J80" s="36"/>
-      <c r="K80" s="37"/>
+      <c r="K80" s="36"/>
       <c r="L80" s="36"/>
       <c r="M80" s="36"/>
       <c r="N80" s="36"/>
@@ -7291,7 +7311,7 @@
       <c r="D81" s="53"/>
       <c r="E81" s="53"/>
       <c r="F81" s="53"/>
-      <c r="G81" s="21">
+      <c r="G81" s="54">
         <v>1</v>
       </c>
       <c r="H81" s="21" t="s">
@@ -7301,7 +7321,7 @@
         <v>502</v>
       </c>
       <c r="J81" s="36"/>
-      <c r="K81" s="37"/>
+      <c r="K81" s="36"/>
       <c r="L81" s="36"/>
       <c r="M81" s="36"/>
       <c r="N81" s="36"/>
@@ -7330,7 +7350,7 @@
       <c r="D82" s="53"/>
       <c r="E82" s="53"/>
       <c r="F82" s="53"/>
-      <c r="G82" s="21">
+      <c r="G82" s="54">
         <v>1</v>
       </c>
       <c r="H82" s="21" t="s">
@@ -7340,7 +7360,7 @@
         <v>502</v>
       </c>
       <c r="J82" s="36"/>
-      <c r="K82" s="37"/>
+      <c r="K82" s="36"/>
       <c r="L82" s="36"/>
       <c r="M82" s="36"/>
       <c r="N82" s="36"/>
@@ -7369,7 +7389,7 @@
       <c r="D83" s="53"/>
       <c r="E83" s="53"/>
       <c r="F83" s="53"/>
-      <c r="G83" s="21">
+      <c r="G83" s="54">
         <v>1</v>
       </c>
       <c r="H83" s="21" t="s">
@@ -7379,7 +7399,7 @@
         <v>502</v>
       </c>
       <c r="J83" s="36"/>
-      <c r="K83" s="37"/>
+      <c r="K83" s="36"/>
       <c r="L83" s="36"/>
       <c r="M83" s="36"/>
       <c r="N83" s="36"/>
@@ -7408,7 +7428,7 @@
       <c r="D84" s="53"/>
       <c r="E84" s="53"/>
       <c r="F84" s="53"/>
-      <c r="G84" s="21">
+      <c r="G84" s="54">
         <v>1</v>
       </c>
       <c r="H84" s="21" t="s">
@@ -7418,7 +7438,7 @@
         <v>502</v>
       </c>
       <c r="J84" s="36"/>
-      <c r="K84" s="37"/>
+      <c r="K84" s="36"/>
       <c r="L84" s="36"/>
       <c r="M84" s="36"/>
       <c r="N84" s="36"/>
@@ -7447,7 +7467,7 @@
       <c r="D85" s="54"/>
       <c r="E85" s="54"/>
       <c r="F85" s="54"/>
-      <c r="G85" s="21">
+      <c r="G85" s="54">
         <v>1</v>
       </c>
       <c r="H85" s="21" t="s">
@@ -7457,7 +7477,7 @@
         <v>502</v>
       </c>
       <c r="J85" s="36"/>
-      <c r="K85" s="37"/>
+      <c r="K85" s="36"/>
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
       <c r="N85" s="36"/>
@@ -7486,7 +7506,7 @@
       <c r="D86" s="54"/>
       <c r="E86" s="54"/>
       <c r="F86" s="54"/>
-      <c r="G86" s="21">
+      <c r="G86" s="54">
         <v>1</v>
       </c>
       <c r="H86" s="21" t="s">
@@ -7496,7 +7516,7 @@
         <v>502</v>
       </c>
       <c r="J86" s="36"/>
-      <c r="K86" s="37"/>
+      <c r="K86" s="36"/>
       <c r="L86" s="36"/>
       <c r="M86" s="36"/>
       <c r="N86" s="36"/>
@@ -7525,7 +7545,7 @@
       <c r="D87" s="53"/>
       <c r="E87" s="53"/>
       <c r="F87" s="53"/>
-      <c r="G87" s="21">
+      <c r="G87" s="54">
         <v>1</v>
       </c>
       <c r="H87" s="21" t="s">
@@ -7535,7 +7555,7 @@
         <v>502</v>
       </c>
       <c r="J87" s="36"/>
-      <c r="K87" s="37"/>
+      <c r="K87" s="36"/>
       <c r="L87" s="36"/>
       <c r="M87" s="36"/>
       <c r="N87" s="36"/>
@@ -7564,7 +7584,7 @@
       <c r="D88" s="53"/>
       <c r="E88" s="53"/>
       <c r="F88" s="53"/>
-      <c r="G88" s="21">
+      <c r="G88" s="54">
         <v>12</v>
       </c>
       <c r="H88" s="21" t="s">
@@ -7574,7 +7594,7 @@
         <v>537</v>
       </c>
       <c r="J88" s="36"/>
-      <c r="K88" s="37"/>
+      <c r="K88" s="36"/>
       <c r="L88" s="36"/>
       <c r="M88" s="36"/>
       <c r="N88" s="36"/>
@@ -7603,7 +7623,7 @@
       <c r="D89" s="53"/>
       <c r="E89" s="53"/>
       <c r="F89" s="53"/>
-      <c r="G89" s="21">
+      <c r="G89" s="54">
         <v>1</v>
       </c>
       <c r="H89" s="21" t="s">
@@ -7613,7 +7633,7 @@
         <v>537</v>
       </c>
       <c r="J89" s="36"/>
-      <c r="K89" s="37"/>
+      <c r="K89" s="36"/>
       <c r="L89" s="36"/>
       <c r="M89" s="36"/>
       <c r="N89" s="36"/>
@@ -7642,7 +7662,7 @@
       <c r="D90" s="53"/>
       <c r="E90" s="53"/>
       <c r="F90" s="53"/>
-      <c r="G90" s="21">
+      <c r="G90" s="54">
         <v>1</v>
       </c>
       <c r="H90" s="21" t="s">
@@ -7652,7 +7672,7 @@
         <v>537</v>
       </c>
       <c r="J90" s="36"/>
-      <c r="K90" s="37"/>
+      <c r="K90" s="36"/>
       <c r="L90" s="36"/>
       <c r="M90" s="36"/>
       <c r="N90" s="36"/>
@@ -7681,7 +7701,7 @@
       <c r="D91" s="53"/>
       <c r="E91" s="53"/>
       <c r="F91" s="53"/>
-      <c r="G91" s="21">
+      <c r="G91" s="54">
         <v>1</v>
       </c>
       <c r="H91" s="21" t="s">
@@ -7691,7 +7711,7 @@
         <v>537</v>
       </c>
       <c r="J91" s="36"/>
-      <c r="K91" s="37"/>
+      <c r="K91" s="36"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
       <c r="N91" s="36"/>
@@ -7720,7 +7740,7 @@
       <c r="D92" s="54"/>
       <c r="E92" s="54"/>
       <c r="F92" s="54"/>
-      <c r="G92" s="21">
+      <c r="G92" s="54">
         <v>1</v>
       </c>
       <c r="H92" s="21" t="s">
@@ -7730,7 +7750,7 @@
         <v>537</v>
       </c>
       <c r="J92" s="36"/>
-      <c r="K92" s="37"/>
+      <c r="K92" s="36"/>
       <c r="L92" s="36"/>
       <c r="M92" s="36"/>
       <c r="N92" s="36"/>
@@ -7759,7 +7779,7 @@
       <c r="D93" s="53"/>
       <c r="E93" s="53"/>
       <c r="F93" s="53"/>
-      <c r="G93" s="21">
+      <c r="G93" s="54">
         <v>1</v>
       </c>
       <c r="H93" s="21" t="s">
@@ -7769,7 +7789,7 @@
         <v>537</v>
       </c>
       <c r="J93" s="36"/>
-      <c r="K93" s="37"/>
+      <c r="K93" s="36"/>
       <c r="L93" s="36"/>
       <c r="M93" s="36"/>
       <c r="N93" s="36"/>
@@ -7798,7 +7818,7 @@
       <c r="D94" s="53"/>
       <c r="E94" s="53"/>
       <c r="F94" s="53"/>
-      <c r="G94" s="21">
+      <c r="G94" s="54">
         <v>1</v>
       </c>
       <c r="H94" s="21" t="s">
@@ -7808,7 +7828,7 @@
         <v>537</v>
       </c>
       <c r="J94" s="36"/>
-      <c r="K94" s="37"/>
+      <c r="K94" s="36"/>
       <c r="L94" s="36"/>
       <c r="M94" s="36"/>
       <c r="N94" s="36"/>
@@ -7837,7 +7857,7 @@
       <c r="D95" s="53"/>
       <c r="E95" s="53"/>
       <c r="F95" s="53"/>
-      <c r="G95" s="21">
+      <c r="G95" s="54">
         <v>1</v>
       </c>
       <c r="H95" s="21" t="s">
@@ -7847,7 +7867,7 @@
         <v>537</v>
       </c>
       <c r="J95" s="36"/>
-      <c r="K95" s="37"/>
+      <c r="K95" s="36"/>
       <c r="L95" s="36"/>
       <c r="M95" s="36"/>
       <c r="N95" s="36"/>
@@ -7876,7 +7896,7 @@
       <c r="D96" s="53"/>
       <c r="E96" s="53"/>
       <c r="F96" s="53"/>
-      <c r="G96" s="21">
+      <c r="G96" s="54">
         <v>3</v>
       </c>
       <c r="H96" s="21" t="s">
@@ -7886,7 +7906,7 @@
         <v>537</v>
       </c>
       <c r="J96" s="36"/>
-      <c r="K96" s="37"/>
+      <c r="K96" s="36"/>
       <c r="L96" s="36"/>
       <c r="M96" s="36"/>
       <c r="N96" s="36"/>
@@ -7915,7 +7935,7 @@
       <c r="D97" s="53"/>
       <c r="E97" s="53"/>
       <c r="F97" s="53"/>
-      <c r="G97" s="21">
+      <c r="G97" s="54">
         <v>1</v>
       </c>
       <c r="H97" s="21" t="s">
@@ -7925,7 +7945,7 @@
         <v>537</v>
       </c>
       <c r="J97" s="36"/>
-      <c r="K97" s="37"/>
+      <c r="K97" s="36"/>
       <c r="L97" s="36"/>
       <c r="M97" s="36"/>
       <c r="N97" s="36"/>
@@ -7954,7 +7974,7 @@
       <c r="D98" s="53"/>
       <c r="E98" s="53"/>
       <c r="F98" s="53"/>
-      <c r="G98" s="21">
+      <c r="G98" s="54">
         <v>1</v>
       </c>
       <c r="H98" s="21" t="s">
@@ -7964,7 +7984,7 @@
         <v>537</v>
       </c>
       <c r="J98" s="36"/>
-      <c r="K98" s="37"/>
+      <c r="K98" s="36"/>
       <c r="L98" s="36"/>
       <c r="M98" s="36"/>
       <c r="N98" s="36"/>
@@ -7993,7 +8013,7 @@
       <c r="D99" s="53"/>
       <c r="E99" s="53"/>
       <c r="F99" s="53"/>
-      <c r="G99" s="21">
+      <c r="G99" s="54">
         <v>1</v>
       </c>
       <c r="H99" s="21" t="s">
@@ -8003,7 +8023,7 @@
         <v>537</v>
       </c>
       <c r="J99" s="36"/>
-      <c r="K99" s="37"/>
+      <c r="K99" s="36"/>
       <c r="L99" s="36"/>
       <c r="M99" s="36"/>
       <c r="N99" s="36"/>
@@ -8032,7 +8052,7 @@
       <c r="D100" s="53"/>
       <c r="E100" s="53"/>
       <c r="F100" s="53"/>
-      <c r="G100" s="21">
+      <c r="G100" s="54">
         <v>1</v>
       </c>
       <c r="H100" s="21" t="s">
@@ -8042,7 +8062,7 @@
         <v>537</v>
       </c>
       <c r="J100" s="36"/>
-      <c r="K100" s="37"/>
+      <c r="K100" s="36"/>
       <c r="L100" s="36"/>
       <c r="M100" s="36"/>
       <c r="N100" s="36"/>
@@ -8071,7 +8091,7 @@
       <c r="D101" s="53"/>
       <c r="E101" s="53"/>
       <c r="F101" s="53"/>
-      <c r="G101" s="21">
+      <c r="G101" s="54">
         <v>1</v>
       </c>
       <c r="H101" s="21" t="s">
@@ -8081,7 +8101,7 @@
         <v>537</v>
       </c>
       <c r="J101" s="36"/>
-      <c r="K101" s="37"/>
+      <c r="K101" s="36"/>
       <c r="L101" s="36"/>
       <c r="M101" s="36"/>
       <c r="N101" s="36"/>
@@ -8110,7 +8130,7 @@
       <c r="D102" s="53"/>
       <c r="E102" s="53"/>
       <c r="F102" s="53"/>
-      <c r="G102" s="21">
+      <c r="G102" s="54">
         <v>1</v>
       </c>
       <c r="H102" s="21" t="s">
@@ -8120,7 +8140,7 @@
         <v>537</v>
       </c>
       <c r="J102" s="36"/>
-      <c r="K102" s="37"/>
+      <c r="K102" s="36"/>
       <c r="L102" s="36"/>
       <c r="M102" s="36"/>
       <c r="N102" s="36"/>
@@ -8149,7 +8169,7 @@
       <c r="D103" s="53"/>
       <c r="E103" s="53"/>
       <c r="F103" s="53"/>
-      <c r="G103" s="21">
+      <c r="G103" s="54">
         <v>1</v>
       </c>
       <c r="H103" s="21" t="s">
@@ -8159,7 +8179,7 @@
         <v>537</v>
       </c>
       <c r="J103" s="36"/>
-      <c r="K103" s="37"/>
+      <c r="K103" s="36"/>
       <c r="L103" s="36"/>
       <c r="M103" s="36"/>
       <c r="N103" s="36"/>
@@ -8188,7 +8208,7 @@
       <c r="D104" s="53"/>
       <c r="E104" s="53"/>
       <c r="F104" s="53"/>
-      <c r="G104" s="21">
+      <c r="G104" s="54">
         <v>1</v>
       </c>
       <c r="H104" s="21" t="s">
@@ -8198,7 +8218,7 @@
         <v>537</v>
       </c>
       <c r="J104" s="36"/>
-      <c r="K104" s="37"/>
+      <c r="K104" s="36"/>
       <c r="L104" s="36"/>
       <c r="M104" s="36"/>
       <c r="N104" s="36"/>
@@ -8227,7 +8247,7 @@
       <c r="D105" s="53"/>
       <c r="E105" s="53"/>
       <c r="F105" s="53"/>
-      <c r="G105" s="21">
+      <c r="G105" s="54">
         <v>1</v>
       </c>
       <c r="H105" s="21" t="s">
@@ -8237,7 +8257,7 @@
         <v>537</v>
       </c>
       <c r="J105" s="36"/>
-      <c r="K105" s="37"/>
+      <c r="K105" s="36"/>
       <c r="L105" s="36"/>
       <c r="M105" s="36"/>
       <c r="N105" s="36"/>
@@ -8266,7 +8286,7 @@
       <c r="D106" s="53"/>
       <c r="E106" s="53"/>
       <c r="F106" s="53"/>
-      <c r="G106" s="21">
+      <c r="G106" s="54">
         <v>1</v>
       </c>
       <c r="H106" s="21" t="s">
@@ -8276,7 +8296,7 @@
         <v>537</v>
       </c>
       <c r="J106" s="36"/>
-      <c r="K106" s="37"/>
+      <c r="K106" s="36"/>
       <c r="L106" s="36"/>
       <c r="M106" s="36"/>
       <c r="N106" s="36"/>
@@ -8305,7 +8325,7 @@
       <c r="D107" s="53"/>
       <c r="E107" s="53"/>
       <c r="F107" s="53"/>
-      <c r="G107" s="21">
+      <c r="G107" s="54">
         <v>1</v>
       </c>
       <c r="H107" s="21" t="s">
@@ -8315,7 +8335,7 @@
         <v>537</v>
       </c>
       <c r="J107" s="36"/>
-      <c r="K107" s="37"/>
+      <c r="K107" s="36"/>
       <c r="L107" s="36"/>
       <c r="M107" s="36"/>
       <c r="N107" s="36"/>
@@ -8344,7 +8364,7 @@
       <c r="D108" s="53"/>
       <c r="E108" s="53"/>
       <c r="F108" s="53"/>
-      <c r="G108" s="21">
+      <c r="G108" s="54">
         <v>1</v>
       </c>
       <c r="H108" s="21" t="s">
@@ -8354,7 +8374,7 @@
         <v>537</v>
       </c>
       <c r="J108" s="36"/>
-      <c r="K108" s="37"/>
+      <c r="K108" s="36"/>
       <c r="L108" s="36"/>
       <c r="M108" s="36"/>
       <c r="N108" s="36"/>
@@ -8383,7 +8403,7 @@
       <c r="D109" s="53"/>
       <c r="E109" s="53"/>
       <c r="F109" s="53"/>
-      <c r="G109" s="21">
+      <c r="G109" s="54">
         <v>1</v>
       </c>
       <c r="H109" s="21" t="s">
@@ -8393,7 +8413,7 @@
         <v>537</v>
       </c>
       <c r="J109" s="36"/>
-      <c r="K109" s="37"/>
+      <c r="K109" s="36"/>
       <c r="L109" s="36"/>
       <c r="M109" s="36"/>
       <c r="N109" s="36"/>
@@ -8422,7 +8442,7 @@
       <c r="D110" s="53"/>
       <c r="E110" s="53"/>
       <c r="F110" s="53"/>
-      <c r="G110" s="21">
+      <c r="G110" s="54">
         <v>1</v>
       </c>
       <c r="H110" s="21" t="s">
@@ -8432,7 +8452,7 @@
         <v>537</v>
       </c>
       <c r="J110" s="36"/>
-      <c r="K110" s="37"/>
+      <c r="K110" s="36"/>
       <c r="L110" s="36"/>
       <c r="M110" s="36"/>
       <c r="N110" s="36"/>
@@ -8461,7 +8481,7 @@
       <c r="D111" s="53"/>
       <c r="E111" s="53"/>
       <c r="F111" s="53"/>
-      <c r="G111" s="21">
+      <c r="G111" s="54">
         <v>1</v>
       </c>
       <c r="H111" s="21" t="s">
@@ -8471,7 +8491,7 @@
         <v>537</v>
       </c>
       <c r="J111" s="36"/>
-      <c r="K111" s="37"/>
+      <c r="K111" s="36"/>
       <c r="L111" s="36"/>
       <c r="M111" s="36"/>
       <c r="N111" s="36"/>
@@ -8500,7 +8520,7 @@
       <c r="D112" s="53"/>
       <c r="E112" s="53"/>
       <c r="F112" s="53"/>
-      <c r="G112" s="21">
+      <c r="G112" s="54">
         <v>1</v>
       </c>
       <c r="H112" s="21" t="s">
@@ -8510,7 +8530,7 @@
         <v>537</v>
       </c>
       <c r="J112" s="36"/>
-      <c r="K112" s="37"/>
+      <c r="K112" s="36"/>
       <c r="L112" s="36"/>
       <c r="M112" s="36"/>
       <c r="N112" s="36"/>
@@ -8539,7 +8559,7 @@
       <c r="D113" s="53"/>
       <c r="E113" s="53"/>
       <c r="F113" s="53"/>
-      <c r="G113" s="21">
+      <c r="G113" s="54">
         <v>1</v>
       </c>
       <c r="H113" s="21" t="s">
@@ -8549,7 +8569,7 @@
         <v>537</v>
       </c>
       <c r="J113" s="36"/>
-      <c r="K113" s="37"/>
+      <c r="K113" s="36"/>
       <c r="L113" s="36"/>
       <c r="M113" s="36"/>
       <c r="N113" s="36"/>
@@ -8578,7 +8598,7 @@
       <c r="D114" s="53"/>
       <c r="E114" s="53"/>
       <c r="F114" s="53"/>
-      <c r="G114" s="21">
+      <c r="G114" s="54">
         <v>1</v>
       </c>
       <c r="H114" s="21" t="s">
@@ -8588,7 +8608,7 @@
         <v>537</v>
       </c>
       <c r="J114" s="36"/>
-      <c r="K114" s="37"/>
+      <c r="K114" s="36"/>
       <c r="L114" s="36"/>
       <c r="M114" s="36"/>
       <c r="N114" s="36"/>
@@ -8617,7 +8637,7 @@
       <c r="D115" s="53"/>
       <c r="E115" s="53"/>
       <c r="F115" s="53"/>
-      <c r="G115" s="21">
+      <c r="G115" s="54">
         <v>1</v>
       </c>
       <c r="H115" s="21" t="s">
@@ -8627,7 +8647,7 @@
         <v>537</v>
       </c>
       <c r="J115" s="36"/>
-      <c r="K115" s="37"/>
+      <c r="K115" s="36"/>
       <c r="L115" s="36"/>
       <c r="M115" s="36"/>
       <c r="N115" s="36"/>
@@ -8656,7 +8676,7 @@
       <c r="D116" s="53"/>
       <c r="E116" s="53"/>
       <c r="F116" s="53"/>
-      <c r="G116" s="21">
+      <c r="G116" s="54">
         <v>1</v>
       </c>
       <c r="H116" s="21" t="s">
@@ -8666,7 +8686,7 @@
         <v>537</v>
       </c>
       <c r="J116" s="36"/>
-      <c r="K116" s="37"/>
+      <c r="K116" s="36"/>
       <c r="L116" s="36"/>
       <c r="M116" s="36"/>
       <c r="N116" s="36"/>
@@ -8695,7 +8715,7 @@
       <c r="D117" s="53"/>
       <c r="E117" s="53"/>
       <c r="F117" s="53"/>
-      <c r="G117" s="21">
+      <c r="G117" s="54">
         <v>1</v>
       </c>
       <c r="H117" s="21" t="s">
@@ -8705,7 +8725,7 @@
         <v>537</v>
       </c>
       <c r="J117" s="36"/>
-      <c r="K117" s="37"/>
+      <c r="K117" s="36"/>
       <c r="L117" s="36"/>
       <c r="M117" s="36"/>
       <c r="N117" s="36"/>
@@ -8734,7 +8754,7 @@
       <c r="D118" s="53"/>
       <c r="E118" s="53"/>
       <c r="F118" s="53"/>
-      <c r="G118" s="21">
+      <c r="G118" s="54">
         <v>1</v>
       </c>
       <c r="H118" s="21" t="s">
@@ -8744,7 +8764,7 @@
         <v>537</v>
       </c>
       <c r="J118" s="36"/>
-      <c r="K118" s="37"/>
+      <c r="K118" s="36"/>
       <c r="L118" s="36"/>
       <c r="M118" s="36"/>
       <c r="N118" s="36"/>
@@ -8773,7 +8793,7 @@
       <c r="D119" s="53"/>
       <c r="E119" s="53"/>
       <c r="F119" s="53"/>
-      <c r="G119" s="21">
+      <c r="G119" s="54">
         <v>1</v>
       </c>
       <c r="H119" s="21" t="s">
@@ -8783,7 +8803,7 @@
         <v>537</v>
       </c>
       <c r="J119" s="36"/>
-      <c r="K119" s="37"/>
+      <c r="K119" s="36"/>
       <c r="L119" s="36"/>
       <c r="M119" s="36"/>
       <c r="N119" s="36"/>
@@ -8812,7 +8832,7 @@
       <c r="D120" s="55"/>
       <c r="E120" s="55"/>
       <c r="F120" s="55"/>
-      <c r="G120" s="21">
+      <c r="G120" s="54">
         <v>1</v>
       </c>
       <c r="H120" s="21" t="s">
@@ -8822,7 +8842,7 @@
         <v>537</v>
       </c>
       <c r="J120" s="36"/>
-      <c r="K120" s="37"/>
+      <c r="K120" s="36"/>
       <c r="L120" s="36"/>
       <c r="M120" s="36"/>
       <c r="N120" s="36"/>
@@ -8851,7 +8871,7 @@
       <c r="D121" s="55"/>
       <c r="E121" s="55"/>
       <c r="F121" s="55"/>
-      <c r="G121" s="21">
+      <c r="G121" s="54">
         <v>1</v>
       </c>
       <c r="H121" s="21" t="s">
@@ -8861,7 +8881,7 @@
         <v>537</v>
       </c>
       <c r="J121" s="36"/>
-      <c r="K121" s="37"/>
+      <c r="K121" s="36"/>
       <c r="L121" s="36"/>
       <c r="M121" s="36"/>
       <c r="N121" s="36"/>
@@ -8890,7 +8910,7 @@
       <c r="D122" s="53"/>
       <c r="E122" s="53"/>
       <c r="F122" s="53"/>
-      <c r="G122" s="21">
+      <c r="G122" s="54">
         <v>1</v>
       </c>
       <c r="H122" s="21" t="s">
@@ -8900,7 +8920,7 @@
         <v>537</v>
       </c>
       <c r="J122" s="36"/>
-      <c r="K122" s="37"/>
+      <c r="K122" s="36"/>
       <c r="L122" s="36"/>
       <c r="M122" s="36"/>
       <c r="N122" s="36"/>
@@ -8929,7 +8949,7 @@
       <c r="D123" s="53"/>
       <c r="E123" s="53"/>
       <c r="F123" s="53"/>
-      <c r="G123" s="21">
+      <c r="G123" s="54">
         <v>1</v>
       </c>
       <c r="H123" s="21" t="s">
@@ -8939,7 +8959,7 @@
         <v>563</v>
       </c>
       <c r="J123" s="36"/>
-      <c r="K123" s="37"/>
+      <c r="K123" s="36"/>
       <c r="L123" s="36"/>
       <c r="M123" s="36"/>
       <c r="N123" s="36"/>
@@ -8968,7 +8988,7 @@
       <c r="D124" s="53"/>
       <c r="E124" s="53"/>
       <c r="F124" s="53"/>
-      <c r="G124" s="21">
+      <c r="G124" s="54">
         <v>1</v>
       </c>
       <c r="H124" s="21" t="s">
@@ -8978,7 +8998,7 @@
         <v>563</v>
       </c>
       <c r="J124" s="36"/>
-      <c r="K124" s="37"/>
+      <c r="K124" s="36"/>
       <c r="L124" s="36"/>
       <c r="M124" s="36"/>
       <c r="N124" s="36"/>
@@ -9007,7 +9027,7 @@
       <c r="D125" s="53"/>
       <c r="E125" s="53"/>
       <c r="F125" s="53"/>
-      <c r="G125" s="21">
+      <c r="G125" s="54">
         <v>1</v>
       </c>
       <c r="H125" s="21" t="s">
@@ -9017,7 +9037,7 @@
         <v>563</v>
       </c>
       <c r="J125" s="36"/>
-      <c r="K125" s="37"/>
+      <c r="K125" s="36"/>
       <c r="L125" s="36"/>
       <c r="M125" s="36"/>
       <c r="N125" s="36"/>
@@ -9046,7 +9066,7 @@
       <c r="D126" s="53"/>
       <c r="E126" s="53"/>
       <c r="F126" s="53"/>
-      <c r="G126" s="21">
+      <c r="G126" s="54">
         <v>1</v>
       </c>
       <c r="H126" s="21" t="s">
@@ -9056,7 +9076,7 @@
         <v>563</v>
       </c>
       <c r="J126" s="36"/>
-      <c r="K126" s="37"/>
+      <c r="K126" s="36"/>
       <c r="L126" s="36"/>
       <c r="M126" s="36"/>
       <c r="N126" s="36"/>
@@ -9085,7 +9105,7 @@
       <c r="D127" s="53"/>
       <c r="E127" s="53"/>
       <c r="F127" s="53"/>
-      <c r="G127" s="21">
+      <c r="G127" s="54">
         <v>1</v>
       </c>
       <c r="H127" s="21" t="s">
@@ -9095,7 +9115,7 @@
         <v>563</v>
       </c>
       <c r="J127" s="36"/>
-      <c r="K127" s="37"/>
+      <c r="K127" s="36"/>
       <c r="L127" s="36"/>
       <c r="M127" s="36"/>
       <c r="N127" s="36"/>
@@ -9124,7 +9144,7 @@
       <c r="D128" s="53"/>
       <c r="E128" s="53"/>
       <c r="F128" s="53"/>
-      <c r="G128" s="21">
+      <c r="G128" s="54">
         <v>1</v>
       </c>
       <c r="H128" s="21" t="s">
@@ -9134,7 +9154,7 @@
         <v>563</v>
       </c>
       <c r="J128" s="36"/>
-      <c r="K128" s="37"/>
+      <c r="K128" s="36"/>
       <c r="L128" s="36"/>
       <c r="M128" s="36"/>
       <c r="N128" s="36"/>
@@ -9163,7 +9183,7 @@
       <c r="D129" s="53"/>
       <c r="E129" s="53"/>
       <c r="F129" s="53"/>
-      <c r="G129" s="21">
+      <c r="G129" s="54">
         <v>1</v>
       </c>
       <c r="H129" s="21" t="s">
@@ -9173,7 +9193,7 @@
         <v>563</v>
       </c>
       <c r="J129" s="36"/>
-      <c r="K129" s="37"/>
+      <c r="K129" s="36"/>
       <c r="L129" s="36"/>
       <c r="M129" s="36"/>
       <c r="N129" s="36"/>
@@ -9202,7 +9222,7 @@
       <c r="D130" s="53"/>
       <c r="E130" s="53"/>
       <c r="F130" s="53"/>
-      <c r="G130" s="21">
+      <c r="G130" s="54">
         <v>1</v>
       </c>
       <c r="H130" s="21" t="s">
@@ -9212,7 +9232,7 @@
         <v>563</v>
       </c>
       <c r="J130" s="36"/>
-      <c r="K130" s="37"/>
+      <c r="K130" s="36"/>
       <c r="L130" s="36"/>
       <c r="M130" s="36"/>
       <c r="N130" s="36"/>
@@ -9241,7 +9261,7 @@
       <c r="D131" s="53"/>
       <c r="E131" s="53"/>
       <c r="F131" s="53"/>
-      <c r="G131" s="21">
+      <c r="G131" s="54">
         <v>1</v>
       </c>
       <c r="H131" s="21" t="s">
@@ -9251,7 +9271,7 @@
         <v>563</v>
       </c>
       <c r="J131" s="36"/>
-      <c r="K131" s="37"/>
+      <c r="K131" s="36"/>
       <c r="L131" s="36"/>
       <c r="M131" s="36"/>
       <c r="N131" s="36"/>
@@ -9280,7 +9300,7 @@
       <c r="D132" s="53"/>
       <c r="E132" s="53"/>
       <c r="F132" s="53"/>
-      <c r="G132" s="21">
+      <c r="G132" s="54">
         <v>1</v>
       </c>
       <c r="H132" s="21" t="s">
@@ -9290,7 +9310,7 @@
         <v>563</v>
       </c>
       <c r="J132" s="36"/>
-      <c r="K132" s="37"/>
+      <c r="K132" s="36"/>
       <c r="L132" s="36"/>
       <c r="M132" s="36"/>
       <c r="N132" s="36"/>
@@ -9319,7 +9339,7 @@
       <c r="D133" s="53"/>
       <c r="E133" s="53"/>
       <c r="F133" s="53"/>
-      <c r="G133" s="21">
+      <c r="G133" s="54">
         <v>1</v>
       </c>
       <c r="H133" s="21" t="s">
@@ -9329,7 +9349,7 @@
         <v>563</v>
       </c>
       <c r="J133" s="36"/>
-      <c r="K133" s="37"/>
+      <c r="K133" s="36"/>
       <c r="L133" s="36"/>
       <c r="M133" s="36"/>
       <c r="N133" s="36"/>
@@ -9358,7 +9378,7 @@
       <c r="D134" s="53"/>
       <c r="E134" s="53"/>
       <c r="F134" s="53"/>
-      <c r="G134" s="21">
+      <c r="G134" s="54">
         <v>1</v>
       </c>
       <c r="H134" s="21" t="s">
@@ -9368,7 +9388,7 @@
         <v>563</v>
       </c>
       <c r="J134" s="36"/>
-      <c r="K134" s="37"/>
+      <c r="K134" s="36"/>
       <c r="L134" s="36"/>
       <c r="M134" s="36"/>
       <c r="N134" s="36"/>
@@ -9397,7 +9417,7 @@
       <c r="D135" s="53"/>
       <c r="E135" s="53"/>
       <c r="F135" s="53"/>
-      <c r="G135" s="21">
+      <c r="G135" s="54">
         <v>1</v>
       </c>
       <c r="H135" s="21" t="s">
@@ -9407,7 +9427,7 @@
         <v>563</v>
       </c>
       <c r="J135" s="36"/>
-      <c r="K135" s="37"/>
+      <c r="K135" s="36"/>
       <c r="L135" s="36"/>
       <c r="M135" s="36"/>
       <c r="N135" s="36"/>
@@ -9436,7 +9456,7 @@
       <c r="D136" s="53"/>
       <c r="E136" s="53"/>
       <c r="F136" s="53"/>
-      <c r="G136" s="21">
+      <c r="G136" s="54">
         <v>1</v>
       </c>
       <c r="H136" s="21" t="s">
@@ -9446,7 +9466,7 @@
         <v>563</v>
       </c>
       <c r="J136" s="36"/>
-      <c r="K136" s="37"/>
+      <c r="K136" s="36"/>
       <c r="L136" s="36"/>
       <c r="M136" s="36"/>
       <c r="N136" s="36"/>
@@ -9475,7 +9495,7 @@
       <c r="D137" s="53"/>
       <c r="E137" s="53"/>
       <c r="F137" s="53"/>
-      <c r="G137" s="21">
+      <c r="G137" s="54">
         <v>1</v>
       </c>
       <c r="H137" s="21" t="s">
@@ -9485,7 +9505,7 @@
         <v>563</v>
       </c>
       <c r="J137" s="36"/>
-      <c r="K137" s="37"/>
+      <c r="K137" s="36"/>
       <c r="L137" s="36"/>
       <c r="M137" s="36"/>
       <c r="N137" s="36"/>
@@ -9514,7 +9534,7 @@
       <c r="D138" s="53"/>
       <c r="E138" s="53"/>
       <c r="F138" s="53"/>
-      <c r="G138" s="21">
+      <c r="G138" s="54">
         <v>1</v>
       </c>
       <c r="H138" s="21" t="s">
@@ -9524,7 +9544,7 @@
         <v>563</v>
       </c>
       <c r="J138" s="36"/>
-      <c r="K138" s="37"/>
+      <c r="K138" s="36"/>
       <c r="L138" s="36"/>
       <c r="M138" s="36"/>
       <c r="N138" s="36"/>
@@ -9557,7 +9577,7 @@
         <v>727</v>
       </c>
       <c r="F139" s="53"/>
-      <c r="G139" s="21">
+      <c r="G139" s="54">
         <v>1</v>
       </c>
       <c r="H139" s="21" t="s">
@@ -9569,7 +9589,7 @@
       <c r="J139" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K139" s="37">
+      <c r="K139" s="36">
         <f>VLOOKUP($J139&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -9577,21 +9597,21 @@
         <v>619</v>
       </c>
       <c r="M139" s="36" t="str">
-        <f>VLOOKUP($L139&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L139&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N139" s="36" t="s">
         <v>623</v>
       </c>
       <c r="O139" s="36" t="str">
-        <f>VLOOKUP($N139&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N139&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>10</v>
       </c>
       <c r="P139" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q139" s="40" t="str">
-        <f>VLOOKUP($P139&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P139&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R139" s="38" t="str">
@@ -9641,7 +9661,7 @@
         <v>728</v>
       </c>
       <c r="F140" s="53"/>
-      <c r="G140" s="21">
+      <c r="G140" s="54">
         <v>1</v>
       </c>
       <c r="H140" s="21" t="s">
@@ -9653,7 +9673,7 @@
       <c r="J140" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K140" s="37">
+      <c r="K140" s="36">
         <f>VLOOKUP($J140&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -9661,21 +9681,21 @@
         <v>619</v>
       </c>
       <c r="M140" s="36" t="str">
-        <f>VLOOKUP($L140&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L140&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N140" s="36" t="s">
         <v>623</v>
       </c>
       <c r="O140" s="36" t="str">
-        <f>VLOOKUP($N140&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N140&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>10</v>
       </c>
       <c r="P140" s="36" t="s">
         <v>626</v>
       </c>
       <c r="Q140" s="40" t="str">
-        <f>VLOOKUP($P140&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P140&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>011</v>
       </c>
       <c r="R140" s="38" t="str">
@@ -9725,7 +9745,7 @@
         <v>729</v>
       </c>
       <c r="F141" s="53"/>
-      <c r="G141" s="21">
+      <c r="G141" s="54">
         <v>1</v>
       </c>
       <c r="H141" s="21" t="s">
@@ -9737,7 +9757,7 @@
       <c r="J141" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K141" s="37">
+      <c r="K141" s="36">
         <f>VLOOKUP($J141&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -9745,21 +9765,21 @@
         <v>619</v>
       </c>
       <c r="M141" s="36" t="str">
-        <f>VLOOKUP($L141&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L141&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N141" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O141" s="36" t="str">
-        <f>VLOOKUP($N141&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N141&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P141" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q141" s="40" t="str">
-        <f>VLOOKUP($P141&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P141&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R141" s="38" t="str">
@@ -9809,7 +9829,7 @@
         <v>730</v>
       </c>
       <c r="F142" s="53"/>
-      <c r="G142" s="21">
+      <c r="G142" s="54">
         <v>1</v>
       </c>
       <c r="H142" s="21" t="s">
@@ -9821,7 +9841,7 @@
       <c r="J142" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K142" s="37">
+      <c r="K142" s="36">
         <f>VLOOKUP($J142&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -9829,21 +9849,21 @@
         <v>619</v>
       </c>
       <c r="M142" s="36" t="str">
-        <f>VLOOKUP($L142&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L142&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N142" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O142" s="36" t="str">
-        <f>VLOOKUP($N142&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N142&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P142" s="36" t="s">
         <v>631</v>
       </c>
       <c r="Q142" s="40" t="str">
-        <f>VLOOKUP($P142&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P142&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>014</v>
       </c>
       <c r="R142" s="38" t="str">
@@ -9895,7 +9915,7 @@
       <c r="F143" s="53" t="s">
         <v>735</v>
       </c>
-      <c r="G143" s="21">
+      <c r="G143" s="54">
         <v>1</v>
       </c>
       <c r="H143" s="21" t="s">
@@ -9907,7 +9927,7 @@
       <c r="J143" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K143" s="37">
+      <c r="K143" s="36">
         <f>VLOOKUP($J143&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -9915,21 +9935,21 @@
         <v>619</v>
       </c>
       <c r="M143" s="36" t="str">
-        <f>VLOOKUP($L143&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L143&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N143" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O143" s="36" t="str">
-        <f>VLOOKUP($N143&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N143&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P143" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q143" s="40" t="str">
-        <f>VLOOKUP($P143&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P143&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R143" s="38" t="str">
@@ -9979,7 +9999,7 @@
         <v>695</v>
       </c>
       <c r="F144" s="53"/>
-      <c r="G144" s="21">
+      <c r="G144" s="54">
         <v>1</v>
       </c>
       <c r="H144" s="21" t="s">
@@ -9991,7 +10011,7 @@
       <c r="J144" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K144" s="37">
+      <c r="K144" s="36">
         <f>VLOOKUP($J144&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -9999,21 +10019,21 @@
         <v>619</v>
       </c>
       <c r="M144" s="36" t="str">
-        <f>VLOOKUP($L144&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L144&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N144" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O144" s="36" t="str">
-        <f>VLOOKUP($N144&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N144&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P144" s="36" t="s">
         <v>631</v>
       </c>
       <c r="Q144" s="40" t="str">
-        <f>VLOOKUP($P144&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P144&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>014</v>
       </c>
       <c r="R144" s="38" t="str">
@@ -10065,7 +10085,7 @@
       <c r="F145" s="53" t="s">
         <v>735</v>
       </c>
-      <c r="G145" s="21">
+      <c r="G145" s="54">
         <v>1</v>
       </c>
       <c r="H145" s="21" t="s">
@@ -10077,7 +10097,7 @@
       <c r="J145" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K145" s="37">
+      <c r="K145" s="36">
         <f>VLOOKUP($J145&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10085,21 +10105,21 @@
         <v>619</v>
       </c>
       <c r="M145" s="36" t="str">
-        <f>VLOOKUP($L145&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L145&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N145" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O145" s="36" t="str">
-        <f>VLOOKUP($N145&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N145&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P145" s="36" t="s">
         <v>636</v>
       </c>
       <c r="Q145" s="40" t="str">
-        <f>VLOOKUP($P145&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P145&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>013</v>
       </c>
       <c r="R145" s="38" t="str">
@@ -10145,7 +10165,7 @@
       <c r="D146" s="53"/>
       <c r="E146" s="53"/>
       <c r="F146" s="54"/>
-      <c r="G146" s="21">
+      <c r="G146" s="54">
         <v>1</v>
       </c>
       <c r="H146" s="21" t="s">
@@ -10157,7 +10177,7 @@
       <c r="J146" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K146" s="37">
+      <c r="K146" s="36">
         <f>VLOOKUP($J146&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10165,21 +10185,21 @@
         <v>619</v>
       </c>
       <c r="M146" s="36" t="str">
-        <f>VLOOKUP($L146&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L146&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N146" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O146" s="36" t="str">
-        <f>VLOOKUP($N146&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N146&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P146" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q146" s="40" t="str">
-        <f>VLOOKUP($P146&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P146&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R146" s="38" t="str">
@@ -10229,7 +10249,7 @@
         <v>738</v>
       </c>
       <c r="F147" s="55"/>
-      <c r="G147" s="21">
+      <c r="G147" s="54">
         <v>1</v>
       </c>
       <c r="H147" s="21" t="s">
@@ -10241,7 +10261,7 @@
       <c r="J147" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K147" s="37">
+      <c r="K147" s="36">
         <f>VLOOKUP($J147&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10249,21 +10269,21 @@
         <v>619</v>
       </c>
       <c r="M147" s="36" t="str">
-        <f>VLOOKUP($L147&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L147&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N147" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O147" s="36" t="str">
-        <f>VLOOKUP($N147&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N147&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P147" s="36" t="s">
         <v>636</v>
       </c>
       <c r="Q147" s="40" t="str">
-        <f>VLOOKUP($P147&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P147&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>013</v>
       </c>
       <c r="R147" s="38" t="str">
@@ -10308,7 +10328,7 @@
       </c>
       <c r="E148" s="53"/>
       <c r="F148" s="53"/>
-      <c r="G148" s="21">
+      <c r="G148" s="54">
         <v>1</v>
       </c>
       <c r="H148" s="21" t="s">
@@ -10320,7 +10340,7 @@
       <c r="J148" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K148" s="37">
+      <c r="K148" s="36">
         <f>VLOOKUP($J148&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10328,21 +10348,21 @@
         <v>619</v>
       </c>
       <c r="M148" s="36" t="str">
-        <f>VLOOKUP($L148&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L148&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N148" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O148" s="36" t="str">
-        <f>VLOOKUP($N148&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N148&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P148" s="36" t="s">
         <v>636</v>
       </c>
       <c r="Q148" s="40" t="str">
-        <f>VLOOKUP($P148&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P148&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>013</v>
       </c>
       <c r="R148" s="38" t="str">
@@ -10390,7 +10410,7 @@
       </c>
       <c r="E149" s="53"/>
       <c r="F149" s="53"/>
-      <c r="G149" s="21">
+      <c r="G149" s="54">
         <v>1</v>
       </c>
       <c r="H149" s="21" t="s">
@@ -10402,7 +10422,7 @@
       <c r="J149" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K149" s="37">
+      <c r="K149" s="36">
         <f>VLOOKUP($J149&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10410,21 +10430,21 @@
         <v>619</v>
       </c>
       <c r="M149" s="36" t="str">
-        <f>VLOOKUP($L149&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L149&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N149" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O149" s="36" t="str">
-        <f>VLOOKUP($N149&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N149&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P149" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q149" s="40" t="str">
-        <f>VLOOKUP($P149&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P149&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R149" s="38" t="str">
@@ -10474,7 +10494,7 @@
         <v>729</v>
       </c>
       <c r="F150" s="53"/>
-      <c r="G150" s="21">
+      <c r="G150" s="54">
         <v>1</v>
       </c>
       <c r="H150" s="21" t="s">
@@ -10486,7 +10506,7 @@
       <c r="J150" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K150" s="37">
+      <c r="K150" s="36">
         <f>VLOOKUP($J150&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10494,21 +10514,21 @@
         <v>619</v>
       </c>
       <c r="M150" s="36" t="str">
-        <f>VLOOKUP($L150&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L150&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N150" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O150" s="36" t="str">
-        <f>VLOOKUP($N150&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N150&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P150" s="36" t="s">
         <v>631</v>
       </c>
       <c r="Q150" s="40" t="str">
-        <f>VLOOKUP($P150&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P150&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>014</v>
       </c>
       <c r="R150" s="38" t="str">
@@ -10558,7 +10578,7 @@
         <v>741</v>
       </c>
       <c r="F151" s="53"/>
-      <c r="G151" s="21">
+      <c r="G151" s="54">
         <v>1</v>
       </c>
       <c r="H151" s="21" t="s">
@@ -10570,7 +10590,7 @@
       <c r="J151" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K151" s="37">
+      <c r="K151" s="36">
         <f>VLOOKUP($J151&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10578,21 +10598,21 @@
         <v>619</v>
       </c>
       <c r="M151" s="36" t="str">
-        <f>VLOOKUP($L151&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L151&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N151" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O151" s="36" t="str">
-        <f>VLOOKUP($N151&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N151&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P151" s="36" t="s">
         <v>636</v>
       </c>
       <c r="Q151" s="40" t="str">
-        <f>VLOOKUP($P151&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P151&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>013</v>
       </c>
       <c r="R151" s="38" t="str">
@@ -10637,7 +10657,7 @@
       </c>
       <c r="E152" s="53"/>
       <c r="F152" s="53"/>
-      <c r="G152" s="21">
+      <c r="G152" s="54">
         <v>1</v>
       </c>
       <c r="H152" s="21" t="s">
@@ -10649,7 +10669,7 @@
       <c r="J152" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K152" s="37">
+      <c r="K152" s="36">
         <f>VLOOKUP($J152&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10657,21 +10677,21 @@
         <v>619</v>
       </c>
       <c r="M152" s="36" t="str">
-        <f>VLOOKUP($L152&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L152&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N152" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O152" s="36" t="str">
-        <f>VLOOKUP($N152&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N152&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P152" s="36" t="s">
         <v>636</v>
       </c>
       <c r="Q152" s="40" t="str">
-        <f>VLOOKUP($P152&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P152&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>013</v>
       </c>
       <c r="R152" s="38" t="str">
@@ -10723,7 +10743,7 @@
       <c r="F153" s="53" t="s">
         <v>734</v>
       </c>
-      <c r="G153" s="21">
+      <c r="G153" s="54">
         <v>1</v>
       </c>
       <c r="H153" s="21" t="s">
@@ -10735,7 +10755,7 @@
       <c r="J153" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K153" s="37">
+      <c r="K153" s="36">
         <f>VLOOKUP($J153&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10743,21 +10763,21 @@
         <v>619</v>
       </c>
       <c r="M153" s="36" t="str">
-        <f>VLOOKUP($L153&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L153&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N153" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O153" s="36" t="str">
-        <f>VLOOKUP($N153&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N153&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P153" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q153" s="40" t="str">
-        <f>VLOOKUP($P153&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P153&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R153" s="38" t="str">
@@ -10803,7 +10823,7 @@
       <c r="D154" s="53"/>
       <c r="E154" s="53"/>
       <c r="F154" s="53"/>
-      <c r="G154" s="21">
+      <c r="G154" s="54">
         <v>1</v>
       </c>
       <c r="H154" s="21" t="s">
@@ -10815,7 +10835,7 @@
       <c r="J154" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K154" s="37">
+      <c r="K154" s="36">
         <f>VLOOKUP($J154&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10823,21 +10843,21 @@
         <v>619</v>
       </c>
       <c r="M154" s="36" t="str">
-        <f>VLOOKUP($L154&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L154&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N154" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O154" s="36" t="str">
-        <f>VLOOKUP($N154&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N154&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P154" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q154" s="40" t="str">
-        <f>VLOOKUP($P154&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P154&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R154" s="38" t="str">
@@ -10883,7 +10903,7 @@
       <c r="D155" s="53"/>
       <c r="E155" s="53"/>
       <c r="F155" s="53"/>
-      <c r="G155" s="21">
+      <c r="G155" s="54">
         <v>1</v>
       </c>
       <c r="H155" s="21" t="s">
@@ -10895,7 +10915,7 @@
       <c r="J155" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K155" s="37">
+      <c r="K155" s="36">
         <f>VLOOKUP($J155&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10903,21 +10923,21 @@
         <v>619</v>
       </c>
       <c r="M155" s="36" t="str">
-        <f>VLOOKUP($L155&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L155&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N155" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O155" s="36" t="str">
-        <f>VLOOKUP($N155&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N155&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P155" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q155" s="40" t="str">
-        <f>VLOOKUP($P155&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P155&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R155" s="38" t="str">
@@ -10963,7 +10983,7 @@
       <c r="D156" s="53"/>
       <c r="E156" s="53"/>
       <c r="F156" s="53"/>
-      <c r="G156" s="21">
+      <c r="G156" s="54">
         <v>2</v>
       </c>
       <c r="H156" s="21" t="s">
@@ -10975,7 +10995,7 @@
       <c r="J156" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K156" s="37">
+      <c r="K156" s="36">
         <f>VLOOKUP($J156&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -10983,21 +11003,21 @@
         <v>619</v>
       </c>
       <c r="M156" s="36" t="str">
-        <f>VLOOKUP($L156&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L156&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N156" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O156" s="36" t="str">
-        <f>VLOOKUP($N156&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N156&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P156" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q156" s="40" t="str">
-        <f>VLOOKUP($P156&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P156&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R156" s="38" t="str">
@@ -11043,7 +11063,7 @@
       <c r="D157" s="53"/>
       <c r="E157" s="53"/>
       <c r="F157" s="53"/>
-      <c r="G157" s="21">
+      <c r="G157" s="54">
         <v>1</v>
       </c>
       <c r="H157" s="21" t="s">
@@ -11055,7 +11075,7 @@
       <c r="J157" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K157" s="37">
+      <c r="K157" s="36">
         <f>VLOOKUP($J157&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11063,21 +11083,21 @@
         <v>619</v>
       </c>
       <c r="M157" s="36" t="str">
-        <f>VLOOKUP($L157&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L157&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N157" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O157" s="36" t="str">
-        <f>VLOOKUP($N157&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N157&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P157" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q157" s="40" t="str">
-        <f>VLOOKUP($P157&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P157&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R157" s="38" t="str">
@@ -11123,7 +11143,7 @@
       <c r="D158" s="53"/>
       <c r="E158" s="53"/>
       <c r="F158" s="53"/>
-      <c r="G158" s="21">
+      <c r="G158" s="54">
         <v>1</v>
       </c>
       <c r="H158" s="21" t="s">
@@ -11135,7 +11155,7 @@
       <c r="J158" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K158" s="37">
+      <c r="K158" s="36">
         <f>VLOOKUP($J158&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11143,21 +11163,21 @@
         <v>619</v>
       </c>
       <c r="M158" s="36" t="str">
-        <f>VLOOKUP($L158&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L158&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N158" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O158" s="36" t="str">
-        <f>VLOOKUP($N158&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N158&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P158" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q158" s="40" t="str">
-        <f>VLOOKUP($P158&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P158&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R158" s="38" t="str">
@@ -11203,7 +11223,7 @@
       <c r="D159" s="53"/>
       <c r="E159" s="53"/>
       <c r="F159" s="53"/>
-      <c r="G159" s="21">
+      <c r="G159" s="54">
         <v>1</v>
       </c>
       <c r="H159" s="21" t="s">
@@ -11215,7 +11235,7 @@
       <c r="J159" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K159" s="37">
+      <c r="K159" s="36">
         <f>VLOOKUP($J159&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11223,21 +11243,21 @@
         <v>619</v>
       </c>
       <c r="M159" s="36" t="str">
-        <f>VLOOKUP($L159&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L159&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N159" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O159" s="36" t="str">
-        <f>VLOOKUP($N159&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N159&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P159" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q159" s="40" t="str">
-        <f>VLOOKUP($P159&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P159&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R159" s="38" t="str">
@@ -11283,7 +11303,7 @@
       <c r="D160" s="53"/>
       <c r="E160" s="53"/>
       <c r="F160" s="53"/>
-      <c r="G160" s="21">
+      <c r="G160" s="54">
         <v>1</v>
       </c>
       <c r="H160" s="21" t="s">
@@ -11295,7 +11315,7 @@
       <c r="J160" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K160" s="37">
+      <c r="K160" s="36">
         <f>VLOOKUP($J160&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11303,21 +11323,21 @@
         <v>619</v>
       </c>
       <c r="M160" s="36" t="str">
-        <f>VLOOKUP($L160&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L160&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N160" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O160" s="36" t="str">
-        <f>VLOOKUP($N160&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N160&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P160" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q160" s="40" t="str">
-        <f>VLOOKUP($P160&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P160&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R160" s="38" t="str">
@@ -11363,7 +11383,7 @@
       <c r="D161" s="53"/>
       <c r="E161" s="53"/>
       <c r="F161" s="53"/>
-      <c r="G161" s="21">
+      <c r="G161" s="54">
         <v>1</v>
       </c>
       <c r="H161" s="21" t="s">
@@ -11375,7 +11395,7 @@
       <c r="J161" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K161" s="37">
+      <c r="K161" s="36">
         <f>VLOOKUP($J161&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11383,21 +11403,21 @@
         <v>619</v>
       </c>
       <c r="M161" s="36" t="str">
-        <f>VLOOKUP($L161&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L161&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N161" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O161" s="36" t="str">
-        <f>VLOOKUP($N161&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N161&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P161" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q161" s="40" t="str">
-        <f>VLOOKUP($P161&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P161&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R161" s="38" t="str">
@@ -11443,7 +11463,7 @@
       <c r="D162" s="53"/>
       <c r="E162" s="53"/>
       <c r="F162" s="53"/>
-      <c r="G162" s="21">
+      <c r="G162" s="54">
         <v>1</v>
       </c>
       <c r="H162" s="21" t="s">
@@ -11455,7 +11475,7 @@
       <c r="J162" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K162" s="37">
+      <c r="K162" s="36">
         <f>VLOOKUP($J162&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11463,21 +11483,21 @@
         <v>619</v>
       </c>
       <c r="M162" s="36" t="str">
-        <f>VLOOKUP($L162&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L162&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N162" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O162" s="36" t="str">
-        <f>VLOOKUP($N162&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N162&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P162" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q162" s="40" t="str">
-        <f>VLOOKUP($P162&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P162&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R162" s="38" t="str">
@@ -11523,7 +11543,7 @@
       <c r="D163" s="53"/>
       <c r="E163" s="53"/>
       <c r="F163" s="53"/>
-      <c r="G163" s="21">
+      <c r="G163" s="54">
         <v>1</v>
       </c>
       <c r="H163" s="21" t="s">
@@ -11535,7 +11555,7 @@
       <c r="J163" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K163" s="37">
+      <c r="K163" s="36">
         <f>VLOOKUP($J163&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11543,21 +11563,21 @@
         <v>619</v>
       </c>
       <c r="M163" s="36" t="str">
-        <f>VLOOKUP($L163&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L163&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N163" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O163" s="36" t="str">
-        <f>VLOOKUP($N163&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N163&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P163" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q163" s="40" t="str">
-        <f>VLOOKUP($P163&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P163&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R163" s="38" t="str">
@@ -11603,7 +11623,7 @@
       <c r="D164" s="53"/>
       <c r="E164" s="53"/>
       <c r="F164" s="53"/>
-      <c r="G164" s="21">
+      <c r="G164" s="54">
         <v>1</v>
       </c>
       <c r="H164" s="21" t="s">
@@ -11615,7 +11635,7 @@
       <c r="J164" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K164" s="37">
+      <c r="K164" s="36">
         <f>VLOOKUP($J164&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11623,21 +11643,21 @@
         <v>619</v>
       </c>
       <c r="M164" s="36" t="str">
-        <f>VLOOKUP($L164&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L164&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N164" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O164" s="36" t="str">
-        <f>VLOOKUP($N164&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N164&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P164" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q164" s="40" t="str">
-        <f>VLOOKUP($P164&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P164&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R164" s="38" t="str">
@@ -11683,7 +11703,7 @@
       <c r="D165" s="53"/>
       <c r="E165" s="53"/>
       <c r="F165" s="53"/>
-      <c r="G165" s="21">
+      <c r="G165" s="54">
         <v>1</v>
       </c>
       <c r="H165" s="21" t="s">
@@ -11695,7 +11715,7 @@
       <c r="J165" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K165" s="37">
+      <c r="K165" s="36">
         <f>VLOOKUP($J165&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11703,21 +11723,21 @@
         <v>619</v>
       </c>
       <c r="M165" s="36" t="str">
-        <f>VLOOKUP($L165&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L165&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N165" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O165" s="36" t="str">
-        <f>VLOOKUP($N165&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N165&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P165" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q165" s="40" t="str">
-        <f>VLOOKUP($P165&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P165&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R165" s="38" t="str">
@@ -11763,7 +11783,7 @@
       <c r="D166" s="53"/>
       <c r="E166" s="53"/>
       <c r="F166" s="53"/>
-      <c r="G166" s="21">
+      <c r="G166" s="54">
         <v>1</v>
       </c>
       <c r="H166" s="21" t="s">
@@ -11775,7 +11795,7 @@
       <c r="J166" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K166" s="37">
+      <c r="K166" s="36">
         <f>VLOOKUP($J166&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11783,21 +11803,21 @@
         <v>619</v>
       </c>
       <c r="M166" s="36" t="str">
-        <f>VLOOKUP($L166&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L166&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N166" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O166" s="36" t="str">
-        <f>VLOOKUP($N166&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N166&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P166" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q166" s="40" t="str">
-        <f>VLOOKUP($P166&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P166&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R166" s="38" t="str">
@@ -11843,7 +11863,7 @@
       <c r="D167" s="53"/>
       <c r="E167" s="53"/>
       <c r="F167" s="53"/>
-      <c r="G167" s="21">
+      <c r="G167" s="54">
         <v>1</v>
       </c>
       <c r="H167" s="21" t="s">
@@ -11855,7 +11875,7 @@
       <c r="J167" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K167" s="37">
+      <c r="K167" s="36">
         <f>VLOOKUP($J167&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11863,21 +11883,21 @@
         <v>619</v>
       </c>
       <c r="M167" s="36" t="str">
-        <f>VLOOKUP($L167&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L167&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N167" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O167" s="36" t="str">
-        <f>VLOOKUP($N167&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N167&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P167" s="36" t="s">
         <v>635</v>
       </c>
       <c r="Q167" s="40" t="str">
-        <f>VLOOKUP($P167&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P167&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R167" s="38" t="str">
@@ -11923,7 +11943,7 @@
       <c r="D168" s="53"/>
       <c r="E168" s="53"/>
       <c r="F168" s="53"/>
-      <c r="G168" s="21">
+      <c r="G168" s="54">
         <v>1</v>
       </c>
       <c r="H168" s="21" t="s">
@@ -11935,7 +11955,7 @@
       <c r="J168" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K168" s="37">
+      <c r="K168" s="36">
         <f>VLOOKUP($J168&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -11943,21 +11963,21 @@
         <v>619</v>
       </c>
       <c r="M168" s="36" t="str">
-        <f>VLOOKUP($L168&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L168&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N168" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O168" s="36" t="str">
-        <f>VLOOKUP($N168&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N168&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P168" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q168" s="40" t="str">
-        <f>VLOOKUP($P168&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P168&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R168" s="38" t="str">
@@ -12003,7 +12023,7 @@
       <c r="D169" s="53"/>
       <c r="E169" s="53"/>
       <c r="F169" s="53"/>
-      <c r="G169" s="21">
+      <c r="G169" s="54">
         <v>1</v>
       </c>
       <c r="H169" s="21" t="s">
@@ -12015,7 +12035,7 @@
       <c r="J169" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K169" s="37">
+      <c r="K169" s="36">
         <f>VLOOKUP($J169&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -12023,21 +12043,21 @@
         <v>619</v>
       </c>
       <c r="M169" s="36" t="str">
-        <f>VLOOKUP($L169&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L169&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N169" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O169" s="36" t="str">
-        <f>VLOOKUP($N169&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N169&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P169" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q169" s="40" t="str">
-        <f>VLOOKUP($P169&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P169&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R169" s="38" t="str">
@@ -12083,7 +12103,7 @@
       <c r="D170" s="53"/>
       <c r="E170" s="53"/>
       <c r="F170" s="53"/>
-      <c r="G170" s="21">
+      <c r="G170" s="54">
         <v>1</v>
       </c>
       <c r="H170" s="21" t="s">
@@ -12095,7 +12115,7 @@
       <c r="J170" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K170" s="37">
+      <c r="K170" s="36">
         <f>VLOOKUP($J170&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -12103,21 +12123,21 @@
         <v>619</v>
       </c>
       <c r="M170" s="36" t="str">
-        <f>VLOOKUP($L170&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L170&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N170" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O170" s="36" t="str">
-        <f>VLOOKUP($N170&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N170&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P170" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q170" s="40" t="str">
-        <f>VLOOKUP($P170&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P170&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R170" s="38" t="str">
@@ -12163,7 +12183,7 @@
       <c r="D171" s="53"/>
       <c r="E171" s="53"/>
       <c r="F171" s="53"/>
-      <c r="G171" s="21">
+      <c r="G171" s="54">
         <v>1</v>
       </c>
       <c r="H171" s="21" t="s">
@@ -12175,7 +12195,7 @@
       <c r="J171" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K171" s="37">
+      <c r="K171" s="36">
         <f>VLOOKUP($J171&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -12183,21 +12203,21 @@
         <v>619</v>
       </c>
       <c r="M171" s="36" t="str">
-        <f>VLOOKUP($L171&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L171&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N171" s="36" t="s">
         <v>624</v>
       </c>
       <c r="O171" s="36" t="str">
-        <f>VLOOKUP($N171&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N171&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>08</v>
       </c>
       <c r="P171" s="36" t="s">
         <v>625</v>
       </c>
       <c r="Q171" s="40" t="str">
-        <f>VLOOKUP($P171&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P171&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R171" s="38" t="str">
@@ -12243,7 +12263,7 @@
       <c r="D172" s="55"/>
       <c r="E172" s="55"/>
       <c r="F172" s="55"/>
-      <c r="G172" s="21">
+      <c r="G172" s="54">
         <v>3</v>
       </c>
       <c r="H172" s="21" t="s">
@@ -12255,7 +12275,7 @@
       <c r="J172" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="K172" s="37">
+      <c r="K172" s="36">
         <f>VLOOKUP($J172&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -12263,21 +12283,21 @@
         <v>619</v>
       </c>
       <c r="M172" s="36" t="str">
-        <f>VLOOKUP($L172&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L172&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N172" s="36" t="s">
         <v>635</v>
       </c>
       <c r="O172" s="36" t="str">
-        <f>VLOOKUP($N172&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N172&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>90</v>
       </c>
       <c r="P172" s="36" t="s">
         <v>646</v>
       </c>
       <c r="Q172" s="40" t="str">
-        <f>VLOOKUP($P172&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P172&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>000</v>
       </c>
       <c r="R172" s="38" t="str">
@@ -12324,31 +12344,31 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>级别!$A$2</xm:f>
+            <xm:f>发动机级别!$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>L139:L172</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>部件!$A$3:$A$15</xm:f>
+            <xm:f>部件分组!$A$3:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>N139:N171</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>部件!$A$3:$A$100</xm:f>
+            <xm:f>部件分组!$A$3:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>N2:N172</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>零件类型!$A$2:$A$100</xm:f>
+            <xm:f>零件分组!$A$2:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>P173:P1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>零件类型!$A$2:$A$21</xm:f>
+            <xm:f>零件分组!$A$2:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>P2:P172</xm:sqref>
         </x14:dataValidation>
@@ -12504,9 +12524,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y164"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y1" sqref="A1:Y1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12517,11 +12537,11 @@
     <col min="4" max="4" width="21.375" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.875" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.75" style="39" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="62" customWidth="1"/>
     <col min="8" max="8" width="11.875" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.875" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.25" style="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.625" style="25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.25" style="25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.875" style="25" bestFit="1" customWidth="1"/>
@@ -12557,7 +12577,7 @@
       <c r="F1" s="43" t="s">
         <v>689</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="61" t="s">
         <v>442</v>
       </c>
       <c r="H1" s="59" t="s">
@@ -12628,7 +12648,7 @@
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
-      <c r="G2" s="41">
+      <c r="G2" s="51">
         <v>1</v>
       </c>
       <c r="H2" s="41" t="s">
@@ -12636,7 +12656,7 @@
       </c>
       <c r="I2" s="48"/>
       <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
+      <c r="K2" s="60"/>
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
@@ -12665,7 +12685,7 @@
       <c r="D3" s="41"/>
       <c r="E3" s="41"/>
       <c r="F3" s="41"/>
-      <c r="G3" s="41">
+      <c r="G3" s="51">
         <v>1</v>
       </c>
       <c r="H3" s="41" t="s">
@@ -12673,7 +12693,7 @@
       </c>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
+      <c r="K3" s="60"/>
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
       <c r="N3" s="48"/>
@@ -12702,7 +12722,7 @@
       <c r="D4" s="41"/>
       <c r="E4" s="41"/>
       <c r="F4" s="41"/>
-      <c r="G4" s="41">
+      <c r="G4" s="51">
         <v>2</v>
       </c>
       <c r="H4" s="41" t="s">
@@ -12710,7 +12730,7 @@
       </c>
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
+      <c r="K4" s="60"/>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
@@ -12739,7 +12759,7 @@
       <c r="D5" s="41"/>
       <c r="E5" s="41"/>
       <c r="F5" s="41"/>
-      <c r="G5" s="41">
+      <c r="G5" s="51">
         <v>1</v>
       </c>
       <c r="H5" s="41" t="s">
@@ -12747,7 +12767,7 @@
       </c>
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
@@ -12776,7 +12796,7 @@
       <c r="D6" s="41"/>
       <c r="E6" s="41"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="41">
+      <c r="G6" s="51">
         <v>1</v>
       </c>
       <c r="H6" s="41" t="s">
@@ -12784,7 +12804,7 @@
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="48"/>
       <c r="M6" s="48"/>
       <c r="N6" s="48"/>
@@ -12813,7 +12833,7 @@
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
       <c r="F7" s="41"/>
-      <c r="G7" s="41">
+      <c r="G7" s="51">
         <v>1</v>
       </c>
       <c r="H7" s="41" t="s">
@@ -12821,7 +12841,7 @@
       </c>
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
       <c r="N7" s="48"/>
@@ -12850,7 +12870,7 @@
       <c r="D8" s="41"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
-      <c r="G8" s="41">
+      <c r="G8" s="51">
         <v>1</v>
       </c>
       <c r="H8" s="41" t="s">
@@ -12858,7 +12878,7 @@
       </c>
       <c r="I8" s="48"/>
       <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="48"/>
       <c r="M8" s="48"/>
       <c r="N8" s="48"/>
@@ -12887,7 +12907,7 @@
       <c r="D9" s="41"/>
       <c r="E9" s="41"/>
       <c r="F9" s="41"/>
-      <c r="G9" s="41">
+      <c r="G9" s="51">
         <v>1</v>
       </c>
       <c r="H9" s="41" t="s">
@@ -12895,7 +12915,7 @@
       </c>
       <c r="I9" s="48"/>
       <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="48"/>
       <c r="M9" s="48"/>
       <c r="N9" s="48"/>
@@ -12924,7 +12944,7 @@
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
-      <c r="G10" s="41">
+      <c r="G10" s="51">
         <v>1</v>
       </c>
       <c r="H10" s="41" t="s">
@@ -12932,7 +12952,7 @@
       </c>
       <c r="I10" s="48"/>
       <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
       <c r="N10" s="48"/>
@@ -12961,7 +12981,7 @@
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
-      <c r="G11" s="41">
+      <c r="G11" s="51">
         <v>1</v>
       </c>
       <c r="H11" s="41" t="s">
@@ -12969,7 +12989,7 @@
       </c>
       <c r="I11" s="48"/>
       <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
+      <c r="K11" s="60"/>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
       <c r="N11" s="48"/>
@@ -12998,7 +13018,7 @@
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
-      <c r="G12" s="41">
+      <c r="G12" s="51">
         <v>1</v>
       </c>
       <c r="H12" s="41" t="s">
@@ -13006,7 +13026,7 @@
       </c>
       <c r="I12" s="48"/>
       <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
       <c r="N12" s="48"/>
@@ -13035,7 +13055,7 @@
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
-      <c r="G13" s="41">
+      <c r="G13" s="51">
         <v>1</v>
       </c>
       <c r="H13" s="41" t="s">
@@ -13043,7 +13063,7 @@
       </c>
       <c r="I13" s="48"/>
       <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="K13" s="60"/>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
       <c r="N13" s="48"/>
@@ -13072,7 +13092,7 @@
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
-      <c r="G14" s="41">
+      <c r="G14" s="51">
         <v>2</v>
       </c>
       <c r="H14" s="41" t="s">
@@ -13080,7 +13100,7 @@
       </c>
       <c r="I14" s="48"/>
       <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
       <c r="N14" s="48"/>
@@ -13109,7 +13129,7 @@
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
-      <c r="G15" s="41">
+      <c r="G15" s="51">
         <v>1</v>
       </c>
       <c r="H15" s="41" t="s">
@@ -13117,7 +13137,7 @@
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
       <c r="N15" s="48"/>
@@ -13146,7 +13166,7 @@
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
-      <c r="G16" s="41">
+      <c r="G16" s="51">
         <v>1</v>
       </c>
       <c r="H16" s="41" t="s">
@@ -13154,7 +13174,7 @@
       </c>
       <c r="I16" s="48"/>
       <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
       <c r="N16" s="48"/>
@@ -13183,7 +13203,7 @@
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
-      <c r="G17" s="41">
+      <c r="G17" s="51">
         <v>1</v>
       </c>
       <c r="H17" s="41" t="s">
@@ -13191,7 +13211,7 @@
       </c>
       <c r="I17" s="48"/>
       <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
+      <c r="K17" s="60"/>
       <c r="L17" s="48"/>
       <c r="M17" s="48"/>
       <c r="N17" s="48"/>
@@ -13220,7 +13240,7 @@
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
-      <c r="G18" s="41">
+      <c r="G18" s="51">
         <v>1</v>
       </c>
       <c r="H18" s="41" t="s">
@@ -13228,7 +13248,7 @@
       </c>
       <c r="I18" s="48"/>
       <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
+      <c r="K18" s="60"/>
       <c r="L18" s="48"/>
       <c r="M18" s="48"/>
       <c r="N18" s="48"/>
@@ -13257,7 +13277,7 @@
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
-      <c r="G19" s="41">
+      <c r="G19" s="51">
         <v>1</v>
       </c>
       <c r="H19" s="41" t="s">
@@ -13267,7 +13287,7 @@
         <v>661</v>
       </c>
       <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
+      <c r="K19" s="60"/>
       <c r="L19" s="48"/>
       <c r="M19" s="48"/>
       <c r="N19" s="48"/>
@@ -13296,7 +13316,7 @@
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
-      <c r="G20" s="41">
+      <c r="G20" s="51">
         <v>1</v>
       </c>
       <c r="H20" s="41" t="s">
@@ -13306,7 +13326,7 @@
         <v>661</v>
       </c>
       <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
+      <c r="K20" s="60"/>
       <c r="L20" s="48"/>
       <c r="M20" s="48"/>
       <c r="N20" s="48"/>
@@ -13335,7 +13355,7 @@
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
-      <c r="G21" s="41">
+      <c r="G21" s="51">
         <v>1</v>
       </c>
       <c r="H21" s="41" t="s">
@@ -13345,7 +13365,7 @@
         <v>463</v>
       </c>
       <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
+      <c r="K21" s="60"/>
       <c r="L21" s="48"/>
       <c r="M21" s="48"/>
       <c r="N21" s="48"/>
@@ -13374,7 +13394,7 @@
       <c r="D22" s="41"/>
       <c r="E22" s="41"/>
       <c r="F22" s="41"/>
-      <c r="G22" s="41">
+      <c r="G22" s="51">
         <v>3</v>
       </c>
       <c r="H22" s="41" t="s">
@@ -13384,7 +13404,7 @@
         <v>463</v>
       </c>
       <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
+      <c r="K22" s="60"/>
       <c r="L22" s="48"/>
       <c r="M22" s="48"/>
       <c r="N22" s="48"/>
@@ -13413,7 +13433,7 @@
       <c r="D23" s="41"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
-      <c r="G23" s="41">
+      <c r="G23" s="51">
         <v>1</v>
       </c>
       <c r="H23" s="41" t="s">
@@ -13423,7 +13443,7 @@
         <v>662</v>
       </c>
       <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
+      <c r="K23" s="60"/>
       <c r="L23" s="48"/>
       <c r="M23" s="48"/>
       <c r="N23" s="48"/>
@@ -13452,7 +13472,7 @@
       <c r="D24" s="41"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
-      <c r="G24" s="41">
+      <c r="G24" s="51">
         <v>1</v>
       </c>
       <c r="H24" s="41" t="s">
@@ -13462,7 +13482,7 @@
         <v>663</v>
       </c>
       <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
+      <c r="K24" s="60"/>
       <c r="L24" s="48"/>
       <c r="M24" s="48"/>
       <c r="N24" s="48"/>
@@ -13491,7 +13511,7 @@
       <c r="D25" s="41"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
-      <c r="G25" s="41">
+      <c r="G25" s="51">
         <v>1</v>
       </c>
       <c r="H25" s="41" t="s">
@@ -13501,7 +13521,7 @@
         <v>662</v>
       </c>
       <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+      <c r="K25" s="60"/>
       <c r="L25" s="48"/>
       <c r="M25" s="48"/>
       <c r="N25" s="48"/>
@@ -13530,7 +13550,7 @@
       <c r="D26" s="41"/>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
-      <c r="G26" s="41">
+      <c r="G26" s="51">
         <v>1</v>
       </c>
       <c r="H26" s="41" t="s">
@@ -13540,7 +13560,7 @@
         <v>663</v>
       </c>
       <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
+      <c r="K26" s="60"/>
       <c r="L26" s="48"/>
       <c r="M26" s="48"/>
       <c r="N26" s="48"/>
@@ -13569,7 +13589,7 @@
       <c r="D27" s="41"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
-      <c r="G27" s="41">
+      <c r="G27" s="51">
         <v>1</v>
       </c>
       <c r="H27" s="41" t="s">
@@ -13579,7 +13599,7 @@
         <v>662</v>
       </c>
       <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
+      <c r="K27" s="60"/>
       <c r="L27" s="48"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
@@ -13608,7 +13628,7 @@
       <c r="D28" s="41"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
-      <c r="G28" s="41">
+      <c r="G28" s="51">
         <v>1</v>
       </c>
       <c r="H28" s="41" t="s">
@@ -13618,7 +13638,7 @@
         <v>663</v>
       </c>
       <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
+      <c r="K28" s="60"/>
       <c r="L28" s="48"/>
       <c r="M28" s="48"/>
       <c r="N28" s="48"/>
@@ -13647,7 +13667,7 @@
       <c r="D29" s="41"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
-      <c r="G29" s="41">
+      <c r="G29" s="51">
         <v>1</v>
       </c>
       <c r="H29" s="41" t="s">
@@ -13657,7 +13677,7 @@
         <v>664</v>
       </c>
       <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
+      <c r="K29" s="60"/>
       <c r="L29" s="48"/>
       <c r="M29" s="48"/>
       <c r="N29" s="48"/>
@@ -13686,7 +13706,7 @@
       <c r="D30" s="41"/>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
-      <c r="G30" s="41">
+      <c r="G30" s="51">
         <v>1</v>
       </c>
       <c r="H30" s="41" t="s">
@@ -13696,7 +13716,7 @@
         <v>664</v>
       </c>
       <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
+      <c r="K30" s="60"/>
       <c r="L30" s="48"/>
       <c r="M30" s="48"/>
       <c r="N30" s="48"/>
@@ -13725,7 +13745,7 @@
       <c r="D31" s="41"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
-      <c r="G31" s="41">
+      <c r="G31" s="51">
         <v>1</v>
       </c>
       <c r="H31" s="41" t="s">
@@ -13735,7 +13755,7 @@
         <v>661</v>
       </c>
       <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
+      <c r="K31" s="60"/>
       <c r="L31" s="48"/>
       <c r="M31" s="48"/>
       <c r="N31" s="48"/>
@@ -13764,7 +13784,7 @@
       <c r="D32" s="41"/>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
-      <c r="G32" s="41">
+      <c r="G32" s="51">
         <v>1</v>
       </c>
       <c r="H32" s="41" t="s">
@@ -13774,7 +13794,7 @@
         <v>661</v>
       </c>
       <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
+      <c r="K32" s="60"/>
       <c r="L32" s="48"/>
       <c r="M32" s="48"/>
       <c r="N32" s="48"/>
@@ -13803,7 +13823,7 @@
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
-      <c r="G33" s="41">
+      <c r="G33" s="51">
         <v>1</v>
       </c>
       <c r="H33" s="41" t="s">
@@ -13813,7 +13833,7 @@
         <v>664</v>
       </c>
       <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
+      <c r="K33" s="60"/>
       <c r="L33" s="48"/>
       <c r="M33" s="48"/>
       <c r="N33" s="48"/>
@@ -13842,7 +13862,7 @@
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
-      <c r="G34" s="41">
+      <c r="G34" s="51">
         <v>1</v>
       </c>
       <c r="H34" s="41" t="s">
@@ -13852,7 +13872,7 @@
         <v>463</v>
       </c>
       <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
+      <c r="K34" s="60"/>
       <c r="L34" s="48"/>
       <c r="M34" s="48"/>
       <c r="N34" s="48"/>
@@ -13881,7 +13901,7 @@
       <c r="D35" s="41"/>
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
-      <c r="G35" s="41">
+      <c r="G35" s="51">
         <v>1</v>
       </c>
       <c r="H35" s="41" t="s">
@@ -13891,7 +13911,7 @@
         <v>663</v>
       </c>
       <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
+      <c r="K35" s="60"/>
       <c r="L35" s="48"/>
       <c r="M35" s="48"/>
       <c r="N35" s="48"/>
@@ -13920,7 +13940,7 @@
       <c r="D36" s="41"/>
       <c r="E36" s="41"/>
       <c r="F36" s="41"/>
-      <c r="G36" s="41">
+      <c r="G36" s="51">
         <v>1</v>
       </c>
       <c r="H36" s="41" t="s">
@@ -13930,7 +13950,7 @@
         <v>662</v>
       </c>
       <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
+      <c r="K36" s="60"/>
       <c r="L36" s="48"/>
       <c r="M36" s="48"/>
       <c r="N36" s="48"/>
@@ -13959,7 +13979,7 @@
       <c r="D37" s="41"/>
       <c r="E37" s="41"/>
       <c r="F37" s="41"/>
-      <c r="G37" s="41">
+      <c r="G37" s="51">
         <v>1</v>
       </c>
       <c r="H37" s="41" t="s">
@@ -13969,7 +13989,7 @@
         <v>661</v>
       </c>
       <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
+      <c r="K37" s="60"/>
       <c r="L37" s="48"/>
       <c r="M37" s="48"/>
       <c r="N37" s="48"/>
@@ -13998,7 +14018,7 @@
       <c r="D38" s="41"/>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
-      <c r="G38" s="41">
+      <c r="G38" s="51">
         <v>1</v>
       </c>
       <c r="H38" s="41" t="s">
@@ -14008,7 +14028,7 @@
         <v>664</v>
       </c>
       <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
+      <c r="K38" s="60"/>
       <c r="L38" s="48"/>
       <c r="M38" s="48"/>
       <c r="N38" s="48"/>
@@ -14037,7 +14057,7 @@
       <c r="D39" s="41"/>
       <c r="E39" s="41"/>
       <c r="F39" s="41"/>
-      <c r="G39" s="41">
+      <c r="G39" s="51">
         <v>1</v>
       </c>
       <c r="H39" s="41" t="s">
@@ -14047,7 +14067,7 @@
         <v>463</v>
       </c>
       <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
+      <c r="K39" s="60"/>
       <c r="L39" s="48"/>
       <c r="M39" s="48"/>
       <c r="N39" s="48"/>
@@ -14076,7 +14096,7 @@
       <c r="D40" s="41"/>
       <c r="E40" s="41"/>
       <c r="F40" s="41"/>
-      <c r="G40" s="41">
+      <c r="G40" s="51">
         <v>1</v>
       </c>
       <c r="H40" s="41" t="s">
@@ -14086,7 +14106,7 @@
         <v>662</v>
       </c>
       <c r="J40" s="48"/>
-      <c r="K40" s="48"/>
+      <c r="K40" s="60"/>
       <c r="L40" s="48"/>
       <c r="M40" s="48"/>
       <c r="N40" s="48"/>
@@ -14115,7 +14135,7 @@
       <c r="D41" s="41"/>
       <c r="E41" s="41"/>
       <c r="F41" s="41"/>
-      <c r="G41" s="41">
+      <c r="G41" s="51">
         <v>1</v>
       </c>
       <c r="H41" s="41" t="s">
@@ -14125,7 +14145,7 @@
         <v>664</v>
       </c>
       <c r="J41" s="48"/>
-      <c r="K41" s="48"/>
+      <c r="K41" s="60"/>
       <c r="L41" s="48"/>
       <c r="M41" s="48"/>
       <c r="N41" s="48"/>
@@ -14154,7 +14174,7 @@
       <c r="D42" s="41"/>
       <c r="E42" s="41"/>
       <c r="F42" s="41"/>
-      <c r="G42" s="41">
+      <c r="G42" s="51">
         <v>1</v>
       </c>
       <c r="H42" s="41" t="s">
@@ -14164,7 +14184,7 @@
         <v>662</v>
       </c>
       <c r="J42" s="48"/>
-      <c r="K42" s="48"/>
+      <c r="K42" s="60"/>
       <c r="L42" s="48"/>
       <c r="M42" s="48"/>
       <c r="N42" s="48"/>
@@ -14193,7 +14213,7 @@
       <c r="D43" s="41"/>
       <c r="E43" s="41"/>
       <c r="F43" s="41"/>
-      <c r="G43" s="41">
+      <c r="G43" s="51">
         <v>1</v>
       </c>
       <c r="H43" s="41" t="s">
@@ -14203,7 +14223,7 @@
         <v>663</v>
       </c>
       <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
+      <c r="K43" s="60"/>
       <c r="L43" s="48"/>
       <c r="M43" s="48"/>
       <c r="N43" s="48"/>
@@ -14232,7 +14252,7 @@
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
-      <c r="G44" s="41">
+      <c r="G44" s="51">
         <v>1</v>
       </c>
       <c r="H44" s="41" t="s">
@@ -14242,7 +14262,7 @@
         <v>662</v>
       </c>
       <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
+      <c r="K44" s="60"/>
       <c r="L44" s="48"/>
       <c r="M44" s="48"/>
       <c r="N44" s="48"/>
@@ -14271,7 +14291,7 @@
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
-      <c r="G45" s="41">
+      <c r="G45" s="51">
         <v>1</v>
       </c>
       <c r="H45" s="41" t="s">
@@ -14281,7 +14301,7 @@
         <v>665</v>
       </c>
       <c r="J45" s="48"/>
-      <c r="K45" s="48"/>
+      <c r="K45" s="60"/>
       <c r="L45" s="48"/>
       <c r="M45" s="48"/>
       <c r="N45" s="48"/>
@@ -14310,7 +14330,7 @@
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
-      <c r="G46" s="41">
+      <c r="G46" s="51">
         <v>4</v>
       </c>
       <c r="H46" s="41" t="s">
@@ -14320,7 +14340,7 @@
         <v>666</v>
       </c>
       <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
+      <c r="K46" s="60"/>
       <c r="L46" s="48"/>
       <c r="M46" s="48"/>
       <c r="N46" s="48"/>
@@ -14349,7 +14369,7 @@
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
-      <c r="G47" s="41">
+      <c r="G47" s="51">
         <v>1</v>
       </c>
       <c r="H47" s="41" t="s">
@@ -14359,7 +14379,7 @@
         <v>667</v>
       </c>
       <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
+      <c r="K47" s="60"/>
       <c r="L47" s="48"/>
       <c r="M47" s="48"/>
       <c r="N47" s="48"/>
@@ -14388,7 +14408,7 @@
       <c r="D48" s="41"/>
       <c r="E48" s="41"/>
       <c r="F48" s="41"/>
-      <c r="G48" s="41">
+      <c r="G48" s="51">
         <v>1</v>
       </c>
       <c r="H48" s="41" t="s">
@@ -14398,7 +14418,7 @@
         <v>665</v>
       </c>
       <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
+      <c r="K48" s="60"/>
       <c r="L48" s="48"/>
       <c r="M48" s="48"/>
       <c r="N48" s="48"/>
@@ -14427,7 +14447,7 @@
       <c r="D49" s="41"/>
       <c r="E49" s="41"/>
       <c r="F49" s="41"/>
-      <c r="G49" s="41">
+      <c r="G49" s="51">
         <v>1</v>
       </c>
       <c r="H49" s="41" t="s">
@@ -14437,7 +14457,7 @@
         <v>668</v>
       </c>
       <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
+      <c r="K49" s="60"/>
       <c r="L49" s="48"/>
       <c r="M49" s="48"/>
       <c r="N49" s="48"/>
@@ -14466,7 +14486,7 @@
       <c r="D50" s="41"/>
       <c r="E50" s="41"/>
       <c r="F50" s="41"/>
-      <c r="G50" s="41">
+      <c r="G50" s="51">
         <v>1</v>
       </c>
       <c r="H50" s="41" t="s">
@@ -14476,7 +14496,7 @@
         <v>667</v>
       </c>
       <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
+      <c r="K50" s="60"/>
       <c r="L50" s="48"/>
       <c r="M50" s="48"/>
       <c r="N50" s="48"/>
@@ -14505,7 +14525,7 @@
       <c r="D51" s="41"/>
       <c r="E51" s="41"/>
       <c r="F51" s="41"/>
-      <c r="G51" s="41">
+      <c r="G51" s="51">
         <v>2</v>
       </c>
       <c r="H51" s="41" t="s">
@@ -14515,7 +14535,7 @@
         <v>665</v>
       </c>
       <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
+      <c r="K51" s="60"/>
       <c r="L51" s="48"/>
       <c r="M51" s="48"/>
       <c r="N51" s="48"/>
@@ -14544,7 +14564,7 @@
       <c r="D52" s="41"/>
       <c r="E52" s="41"/>
       <c r="F52" s="41"/>
-      <c r="G52" s="41">
+      <c r="G52" s="51">
         <v>1</v>
       </c>
       <c r="H52" s="41" t="s">
@@ -14554,7 +14574,7 @@
         <v>669</v>
       </c>
       <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
+      <c r="K52" s="60"/>
       <c r="L52" s="48"/>
       <c r="M52" s="48"/>
       <c r="N52" s="48"/>
@@ -14583,7 +14603,7 @@
       <c r="D53" s="41"/>
       <c r="E53" s="41"/>
       <c r="F53" s="41"/>
-      <c r="G53" s="41">
+      <c r="G53" s="51">
         <v>1</v>
       </c>
       <c r="H53" s="41" t="s">
@@ -14593,7 +14613,7 @@
         <v>667</v>
       </c>
       <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
+      <c r="K53" s="60"/>
       <c r="L53" s="48"/>
       <c r="M53" s="48"/>
       <c r="N53" s="48"/>
@@ -14622,7 +14642,7 @@
       <c r="D54" s="41"/>
       <c r="E54" s="41"/>
       <c r="F54" s="41"/>
-      <c r="G54" s="41">
+      <c r="G54" s="51">
         <v>1</v>
       </c>
       <c r="H54" s="41" t="s">
@@ -14632,7 +14652,7 @@
         <v>665</v>
       </c>
       <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
+      <c r="K54" s="60"/>
       <c r="L54" s="48"/>
       <c r="M54" s="48"/>
       <c r="N54" s="48"/>
@@ -14661,7 +14681,7 @@
       <c r="D55" s="41"/>
       <c r="E55" s="41"/>
       <c r="F55" s="41"/>
-      <c r="G55" s="41">
+      <c r="G55" s="51">
         <v>1</v>
       </c>
       <c r="H55" s="41" t="s">
@@ -14671,7 +14691,7 @@
         <v>666</v>
       </c>
       <c r="J55" s="48"/>
-      <c r="K55" s="48"/>
+      <c r="K55" s="60"/>
       <c r="L55" s="48"/>
       <c r="M55" s="48"/>
       <c r="N55" s="48"/>
@@ -14700,7 +14720,7 @@
       <c r="D56" s="41"/>
       <c r="E56" s="41"/>
       <c r="F56" s="41"/>
-      <c r="G56" s="41">
+      <c r="G56" s="51">
         <v>1</v>
       </c>
       <c r="H56" s="41" t="s">
@@ -14710,7 +14730,7 @@
         <v>665</v>
       </c>
       <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
+      <c r="K56" s="60"/>
       <c r="L56" s="48"/>
       <c r="M56" s="48"/>
       <c r="N56" s="48"/>
@@ -14739,7 +14759,7 @@
       <c r="D57" s="41"/>
       <c r="E57" s="41"/>
       <c r="F57" s="41"/>
-      <c r="G57" s="41">
+      <c r="G57" s="51">
         <v>1</v>
       </c>
       <c r="H57" s="41" t="s">
@@ -14749,7 +14769,7 @@
         <v>668</v>
       </c>
       <c r="J57" s="48"/>
-      <c r="K57" s="48"/>
+      <c r="K57" s="60"/>
       <c r="L57" s="48"/>
       <c r="M57" s="48"/>
       <c r="N57" s="48"/>
@@ -14778,7 +14798,7 @@
       <c r="D58" s="41"/>
       <c r="E58" s="41"/>
       <c r="F58" s="41"/>
-      <c r="G58" s="41">
+      <c r="G58" s="51">
         <v>1</v>
       </c>
       <c r="H58" s="41" t="s">
@@ -14788,7 +14808,7 @@
         <v>669</v>
       </c>
       <c r="J58" s="48"/>
-      <c r="K58" s="48"/>
+      <c r="K58" s="60"/>
       <c r="L58" s="48"/>
       <c r="M58" s="48"/>
       <c r="N58" s="48"/>
@@ -14817,7 +14837,7 @@
       <c r="D59" s="41"/>
       <c r="E59" s="41"/>
       <c r="F59" s="41"/>
-      <c r="G59" s="41">
+      <c r="G59" s="51">
         <v>1</v>
       </c>
       <c r="H59" s="41" t="s">
@@ -14827,7 +14847,7 @@
         <v>670</v>
       </c>
       <c r="J59" s="48"/>
-      <c r="K59" s="48"/>
+      <c r="K59" s="60"/>
       <c r="L59" s="48"/>
       <c r="M59" s="48"/>
       <c r="N59" s="48"/>
@@ -14856,7 +14876,7 @@
       <c r="D60" s="41"/>
       <c r="E60" s="41"/>
       <c r="F60" s="41"/>
-      <c r="G60" s="41">
+      <c r="G60" s="51">
         <v>1</v>
       </c>
       <c r="H60" s="41" t="s">
@@ -14866,7 +14886,7 @@
         <v>668</v>
       </c>
       <c r="J60" s="48"/>
-      <c r="K60" s="48"/>
+      <c r="K60" s="60"/>
       <c r="L60" s="48"/>
       <c r="M60" s="48"/>
       <c r="N60" s="48"/>
@@ -14895,7 +14915,7 @@
       <c r="D61" s="41"/>
       <c r="E61" s="41"/>
       <c r="F61" s="41"/>
-      <c r="G61" s="41">
+      <c r="G61" s="51">
         <v>1</v>
       </c>
       <c r="H61" s="41" t="s">
@@ -14905,7 +14925,7 @@
         <v>502</v>
       </c>
       <c r="J61" s="48"/>
-      <c r="K61" s="48"/>
+      <c r="K61" s="60"/>
       <c r="L61" s="48"/>
       <c r="M61" s="48"/>
       <c r="N61" s="48"/>
@@ -14934,7 +14954,7 @@
       <c r="D62" s="41"/>
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
-      <c r="G62" s="41">
+      <c r="G62" s="51">
         <v>1</v>
       </c>
       <c r="H62" s="41" t="s">
@@ -14944,7 +14964,7 @@
         <v>667</v>
       </c>
       <c r="J62" s="48"/>
-      <c r="K62" s="48"/>
+      <c r="K62" s="60"/>
       <c r="L62" s="48"/>
       <c r="M62" s="48"/>
       <c r="N62" s="48"/>
@@ -14973,7 +14993,7 @@
       <c r="D63" s="41"/>
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
-      <c r="G63" s="41">
+      <c r="G63" s="51">
         <v>1</v>
       </c>
       <c r="H63" s="41" t="s">
@@ -14983,7 +15003,7 @@
         <v>669</v>
       </c>
       <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
+      <c r="K63" s="60"/>
       <c r="L63" s="48"/>
       <c r="M63" s="48"/>
       <c r="N63" s="48"/>
@@ -15012,7 +15032,7 @@
       <c r="D64" s="41"/>
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
-      <c r="G64" s="41">
+      <c r="G64" s="51">
         <v>1</v>
       </c>
       <c r="H64" s="41" t="s">
@@ -15022,7 +15042,7 @@
         <v>669</v>
       </c>
       <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
+      <c r="K64" s="60"/>
       <c r="L64" s="48"/>
       <c r="M64" s="48"/>
       <c r="N64" s="48"/>
@@ -15051,7 +15071,7 @@
       <c r="D65" s="41"/>
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
-      <c r="G65" s="41">
+      <c r="G65" s="51">
         <v>1</v>
       </c>
       <c r="H65" s="41" t="s">
@@ -15061,7 +15081,7 @@
         <v>665</v>
       </c>
       <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
+      <c r="K65" s="60"/>
       <c r="L65" s="48"/>
       <c r="M65" s="48"/>
       <c r="N65" s="48"/>
@@ -15090,7 +15110,7 @@
       <c r="D66" s="41"/>
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
-      <c r="G66" s="41">
+      <c r="G66" s="51">
         <v>5</v>
       </c>
       <c r="H66" s="41" t="s">
@@ -15100,7 +15120,7 @@
         <v>666</v>
       </c>
       <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
+      <c r="K66" s="60"/>
       <c r="L66" s="48"/>
       <c r="M66" s="48"/>
       <c r="N66" s="48"/>
@@ -15129,7 +15149,7 @@
       <c r="D67" s="41"/>
       <c r="E67" s="41"/>
       <c r="F67" s="41"/>
-      <c r="G67" s="41">
+      <c r="G67" s="51">
         <v>1</v>
       </c>
       <c r="H67" s="41" t="s">
@@ -15139,7 +15159,7 @@
         <v>668</v>
       </c>
       <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
+      <c r="K67" s="60"/>
       <c r="L67" s="48"/>
       <c r="M67" s="48"/>
       <c r="N67" s="48"/>
@@ -15168,7 +15188,7 @@
       <c r="D68" s="41"/>
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
-      <c r="G68" s="41">
+      <c r="G68" s="51">
         <v>2</v>
       </c>
       <c r="H68" s="41" t="s">
@@ -15178,7 +15198,7 @@
         <v>671</v>
       </c>
       <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
+      <c r="K68" s="60"/>
       <c r="L68" s="48"/>
       <c r="M68" s="48"/>
       <c r="N68" s="48"/>
@@ -15207,7 +15227,7 @@
       <c r="D69" s="41"/>
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
-      <c r="G69" s="41">
+      <c r="G69" s="51">
         <v>3</v>
       </c>
       <c r="H69" s="41" t="s">
@@ -15217,7 +15237,7 @@
         <v>672</v>
       </c>
       <c r="J69" s="48"/>
-      <c r="K69" s="48"/>
+      <c r="K69" s="60"/>
       <c r="L69" s="48"/>
       <c r="M69" s="48"/>
       <c r="N69" s="48"/>
@@ -15246,7 +15266,7 @@
       <c r="D70" s="41"/>
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
-      <c r="G70" s="41">
+      <c r="G70" s="51">
         <v>1</v>
       </c>
       <c r="H70" s="41" t="s">
@@ -15256,7 +15276,7 @@
         <v>672</v>
       </c>
       <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
+      <c r="K70" s="60"/>
       <c r="L70" s="48"/>
       <c r="M70" s="48"/>
       <c r="N70" s="48"/>
@@ -15285,7 +15305,7 @@
       <c r="D71" s="41"/>
       <c r="E71" s="41"/>
       <c r="F71" s="41"/>
-      <c r="G71" s="41">
+      <c r="G71" s="51">
         <v>1</v>
       </c>
       <c r="H71" s="41" t="s">
@@ -15295,7 +15315,7 @@
         <v>673</v>
       </c>
       <c r="J71" s="48"/>
-      <c r="K71" s="48"/>
+      <c r="K71" s="60"/>
       <c r="L71" s="48"/>
       <c r="M71" s="48"/>
       <c r="N71" s="48"/>
@@ -15324,7 +15344,7 @@
       <c r="D72" s="41"/>
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
-      <c r="G72" s="41">
+      <c r="G72" s="51">
         <v>1</v>
       </c>
       <c r="H72" s="41" t="s">
@@ -15334,7 +15354,7 @@
         <v>537</v>
       </c>
       <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
+      <c r="K72" s="60"/>
       <c r="L72" s="48"/>
       <c r="M72" s="48"/>
       <c r="N72" s="48"/>
@@ -15363,7 +15383,7 @@
       <c r="D73" s="41"/>
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
-      <c r="G73" s="41">
+      <c r="G73" s="51">
         <v>1</v>
       </c>
       <c r="H73" s="41" t="s">
@@ -15373,7 +15393,7 @@
         <v>671</v>
       </c>
       <c r="J73" s="48"/>
-      <c r="K73" s="48"/>
+      <c r="K73" s="60"/>
       <c r="L73" s="48"/>
       <c r="M73" s="48"/>
       <c r="N73" s="48"/>
@@ -15402,7 +15422,7 @@
       <c r="D74" s="41"/>
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
-      <c r="G74" s="41">
+      <c r="G74" s="51">
         <v>1</v>
       </c>
       <c r="H74" s="41" t="s">
@@ -15412,7 +15432,7 @@
         <v>674</v>
       </c>
       <c r="J74" s="48"/>
-      <c r="K74" s="48"/>
+      <c r="K74" s="60"/>
       <c r="L74" s="48"/>
       <c r="M74" s="48"/>
       <c r="N74" s="48"/>
@@ -15441,7 +15461,7 @@
       <c r="D75" s="41"/>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
-      <c r="G75" s="41">
+      <c r="G75" s="51">
         <v>1</v>
       </c>
       <c r="H75" s="41" t="s">
@@ -15451,7 +15471,7 @@
         <v>537</v>
       </c>
       <c r="J75" s="48"/>
-      <c r="K75" s="48"/>
+      <c r="K75" s="60"/>
       <c r="L75" s="48"/>
       <c r="M75" s="48"/>
       <c r="N75" s="48"/>
@@ -15480,7 +15500,7 @@
       <c r="D76" s="41"/>
       <c r="E76" s="41"/>
       <c r="F76" s="41"/>
-      <c r="G76" s="41">
+      <c r="G76" s="51">
         <v>1</v>
       </c>
       <c r="H76" s="41" t="s">
@@ -15490,7 +15510,7 @@
         <v>671</v>
       </c>
       <c r="J76" s="48"/>
-      <c r="K76" s="48"/>
+      <c r="K76" s="60"/>
       <c r="L76" s="48"/>
       <c r="M76" s="48"/>
       <c r="N76" s="48"/>
@@ -15519,7 +15539,7 @@
       <c r="D77" s="41"/>
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
-      <c r="G77" s="41">
+      <c r="G77" s="51">
         <v>1</v>
       </c>
       <c r="H77" s="41" t="s">
@@ -15529,7 +15549,7 @@
         <v>674</v>
       </c>
       <c r="J77" s="48"/>
-      <c r="K77" s="48"/>
+      <c r="K77" s="60"/>
       <c r="L77" s="48"/>
       <c r="M77" s="48"/>
       <c r="N77" s="48"/>
@@ -15558,7 +15578,7 @@
       <c r="D78" s="41"/>
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
-      <c r="G78" s="41">
+      <c r="G78" s="51">
         <v>2</v>
       </c>
       <c r="H78" s="41" t="s">
@@ -15568,7 +15588,7 @@
         <v>675</v>
       </c>
       <c r="J78" s="48"/>
-      <c r="K78" s="48"/>
+      <c r="K78" s="60"/>
       <c r="L78" s="48"/>
       <c r="M78" s="48"/>
       <c r="N78" s="48"/>
@@ -15597,7 +15617,7 @@
       <c r="D79" s="41"/>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
-      <c r="G79" s="41">
+      <c r="G79" s="51">
         <v>1</v>
       </c>
       <c r="H79" s="41" t="s">
@@ -15607,7 +15627,7 @@
         <v>674</v>
       </c>
       <c r="J79" s="48"/>
-      <c r="K79" s="48"/>
+      <c r="K79" s="60"/>
       <c r="L79" s="48"/>
       <c r="M79" s="48"/>
       <c r="N79" s="48"/>
@@ -15636,7 +15656,7 @@
       <c r="D80" s="41"/>
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
-      <c r="G80" s="41">
+      <c r="G80" s="51">
         <v>1</v>
       </c>
       <c r="H80" s="41" t="s">
@@ -15646,7 +15666,7 @@
         <v>675</v>
       </c>
       <c r="J80" s="48"/>
-      <c r="K80" s="48"/>
+      <c r="K80" s="60"/>
       <c r="L80" s="48"/>
       <c r="M80" s="48"/>
       <c r="N80" s="48"/>
@@ -15675,7 +15695,7 @@
       <c r="D81" s="41"/>
       <c r="E81" s="41"/>
       <c r="F81" s="41"/>
-      <c r="G81" s="41">
+      <c r="G81" s="51">
         <v>1</v>
       </c>
       <c r="H81" s="41" t="s">
@@ -15685,7 +15705,7 @@
         <v>537</v>
       </c>
       <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
+      <c r="K81" s="60"/>
       <c r="L81" s="48"/>
       <c r="M81" s="48"/>
       <c r="N81" s="48"/>
@@ -15714,7 +15734,7 @@
       <c r="D82" s="41"/>
       <c r="E82" s="41"/>
       <c r="F82" s="41"/>
-      <c r="G82" s="41">
+      <c r="G82" s="51">
         <v>1</v>
       </c>
       <c r="H82" s="41" t="s">
@@ -15724,7 +15744,7 @@
         <v>675</v>
       </c>
       <c r="J82" s="48"/>
-      <c r="K82" s="48"/>
+      <c r="K82" s="60"/>
       <c r="L82" s="48"/>
       <c r="M82" s="48"/>
       <c r="N82" s="48"/>
@@ -15753,7 +15773,7 @@
       <c r="D83" s="41"/>
       <c r="E83" s="41"/>
       <c r="F83" s="41"/>
-      <c r="G83" s="41">
+      <c r="G83" s="51">
         <v>1</v>
       </c>
       <c r="H83" s="41" t="s">
@@ -15763,7 +15783,7 @@
         <v>537</v>
       </c>
       <c r="J83" s="48"/>
-      <c r="K83" s="48"/>
+      <c r="K83" s="60"/>
       <c r="L83" s="48"/>
       <c r="M83" s="48"/>
       <c r="N83" s="48"/>
@@ -15792,7 +15812,7 @@
       <c r="D84" s="41"/>
       <c r="E84" s="41"/>
       <c r="F84" s="41"/>
-      <c r="G84" s="41">
+      <c r="G84" s="51">
         <v>1</v>
       </c>
       <c r="H84" s="41" t="s">
@@ -15802,7 +15822,7 @@
         <v>671</v>
       </c>
       <c r="J84" s="48"/>
-      <c r="K84" s="48"/>
+      <c r="K84" s="60"/>
       <c r="L84" s="48"/>
       <c r="M84" s="48"/>
       <c r="N84" s="48"/>
@@ -15831,7 +15851,7 @@
       <c r="D85" s="41"/>
       <c r="E85" s="41"/>
       <c r="F85" s="41"/>
-      <c r="G85" s="41">
+      <c r="G85" s="51">
         <v>1</v>
       </c>
       <c r="H85" s="41" t="s">
@@ -15841,7 +15861,7 @@
         <v>675</v>
       </c>
       <c r="J85" s="48"/>
-      <c r="K85" s="48"/>
+      <c r="K85" s="60"/>
       <c r="L85" s="48"/>
       <c r="M85" s="48"/>
       <c r="N85" s="48"/>
@@ -15870,7 +15890,7 @@
       <c r="D86" s="41"/>
       <c r="E86" s="41"/>
       <c r="F86" s="41"/>
-      <c r="G86" s="41">
+      <c r="G86" s="51">
         <v>1</v>
       </c>
       <c r="H86" s="41" t="s">
@@ -15880,7 +15900,7 @@
         <v>537</v>
       </c>
       <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
+      <c r="K86" s="60"/>
       <c r="L86" s="48"/>
       <c r="M86" s="48"/>
       <c r="N86" s="48"/>
@@ -15909,7 +15929,7 @@
       <c r="D87" s="41"/>
       <c r="E87" s="41"/>
       <c r="F87" s="41"/>
-      <c r="G87" s="41">
+      <c r="G87" s="51">
         <v>1</v>
       </c>
       <c r="H87" s="41" t="s">
@@ -15919,7 +15939,7 @@
         <v>671</v>
       </c>
       <c r="J87" s="48"/>
-      <c r="K87" s="48"/>
+      <c r="K87" s="60"/>
       <c r="L87" s="48"/>
       <c r="M87" s="48"/>
       <c r="N87" s="48"/>
@@ -15948,7 +15968,7 @@
       <c r="D88" s="41"/>
       <c r="E88" s="41"/>
       <c r="F88" s="41"/>
-      <c r="G88" s="41">
+      <c r="G88" s="51">
         <v>1</v>
       </c>
       <c r="H88" s="41" t="s">
@@ -15958,7 +15978,7 @@
         <v>675</v>
       </c>
       <c r="J88" s="48"/>
-      <c r="K88" s="48"/>
+      <c r="K88" s="60"/>
       <c r="L88" s="48"/>
       <c r="M88" s="48"/>
       <c r="N88" s="48"/>
@@ -15987,7 +16007,7 @@
       <c r="D89" s="41"/>
       <c r="E89" s="41"/>
       <c r="F89" s="41"/>
-      <c r="G89" s="41">
+      <c r="G89" s="51">
         <v>1</v>
       </c>
       <c r="H89" s="41" t="s">
@@ -15997,7 +16017,7 @@
         <v>674</v>
       </c>
       <c r="J89" s="48"/>
-      <c r="K89" s="48"/>
+      <c r="K89" s="60"/>
       <c r="L89" s="48"/>
       <c r="M89" s="48"/>
       <c r="N89" s="48"/>
@@ -16026,7 +16046,7 @@
       <c r="D90" s="41"/>
       <c r="E90" s="41"/>
       <c r="F90" s="41"/>
-      <c r="G90" s="41">
+      <c r="G90" s="51">
         <v>1</v>
       </c>
       <c r="H90" s="41" t="s">
@@ -16036,7 +16056,7 @@
         <v>537</v>
       </c>
       <c r="J90" s="48"/>
-      <c r="K90" s="48"/>
+      <c r="K90" s="60"/>
       <c r="L90" s="48"/>
       <c r="M90" s="48"/>
       <c r="N90" s="48"/>
@@ -16065,7 +16085,7 @@
       <c r="D91" s="41"/>
       <c r="E91" s="41"/>
       <c r="F91" s="41"/>
-      <c r="G91" s="41">
+      <c r="G91" s="51">
         <v>1</v>
       </c>
       <c r="H91" s="41" t="s">
@@ -16075,7 +16095,7 @@
         <v>675</v>
       </c>
       <c r="J91" s="48"/>
-      <c r="K91" s="48"/>
+      <c r="K91" s="60"/>
       <c r="L91" s="48"/>
       <c r="M91" s="48"/>
       <c r="N91" s="48"/>
@@ -16104,7 +16124,7 @@
       <c r="D92" s="41"/>
       <c r="E92" s="41"/>
       <c r="F92" s="41"/>
-      <c r="G92" s="41">
+      <c r="G92" s="51">
         <v>1</v>
       </c>
       <c r="H92" s="41" t="s">
@@ -16114,7 +16134,7 @@
         <v>671</v>
       </c>
       <c r="J92" s="48"/>
-      <c r="K92" s="48"/>
+      <c r="K92" s="60"/>
       <c r="L92" s="48"/>
       <c r="M92" s="48"/>
       <c r="N92" s="48"/>
@@ -16143,7 +16163,7 @@
       <c r="D93" s="41"/>
       <c r="E93" s="41"/>
       <c r="F93" s="41"/>
-      <c r="G93" s="41">
+      <c r="G93" s="51">
         <v>1</v>
       </c>
       <c r="H93" s="41" t="s">
@@ -16153,7 +16173,7 @@
         <v>674</v>
       </c>
       <c r="J93" s="48"/>
-      <c r="K93" s="48"/>
+      <c r="K93" s="60"/>
       <c r="L93" s="48"/>
       <c r="M93" s="48"/>
       <c r="N93" s="48"/>
@@ -16182,7 +16202,7 @@
       <c r="D94" s="41"/>
       <c r="E94" s="41"/>
       <c r="F94" s="41"/>
-      <c r="G94" s="41">
+      <c r="G94" s="51">
         <v>2</v>
       </c>
       <c r="H94" s="41" t="s">
@@ -16192,7 +16212,7 @@
         <v>675</v>
       </c>
       <c r="J94" s="48"/>
-      <c r="K94" s="48"/>
+      <c r="K94" s="60"/>
       <c r="L94" s="48"/>
       <c r="M94" s="48"/>
       <c r="N94" s="48"/>
@@ -16221,7 +16241,7 @@
       <c r="D95" s="41"/>
       <c r="E95" s="41"/>
       <c r="F95" s="41"/>
-      <c r="G95" s="41">
+      <c r="G95" s="51">
         <v>1</v>
       </c>
       <c r="H95" s="41" t="s">
@@ -16231,7 +16251,7 @@
         <v>537</v>
       </c>
       <c r="J95" s="48"/>
-      <c r="K95" s="48"/>
+      <c r="K95" s="60"/>
       <c r="L95" s="48"/>
       <c r="M95" s="48"/>
       <c r="N95" s="48"/>
@@ -16260,7 +16280,7 @@
       <c r="D96" s="41"/>
       <c r="E96" s="41"/>
       <c r="F96" s="41"/>
-      <c r="G96" s="41">
+      <c r="G96" s="51">
         <v>1</v>
       </c>
       <c r="H96" s="41" t="s">
@@ -16270,7 +16290,7 @@
         <v>674</v>
       </c>
       <c r="J96" s="48"/>
-      <c r="K96" s="48"/>
+      <c r="K96" s="60"/>
       <c r="L96" s="48"/>
       <c r="M96" s="48"/>
       <c r="N96" s="48"/>
@@ -16299,7 +16319,7 @@
       <c r="D97" s="41"/>
       <c r="E97" s="41"/>
       <c r="F97" s="41"/>
-      <c r="G97" s="41">
+      <c r="G97" s="51">
         <v>1</v>
       </c>
       <c r="H97" s="41" t="s">
@@ -16309,7 +16329,7 @@
         <v>672</v>
       </c>
       <c r="J97" s="48"/>
-      <c r="K97" s="48"/>
+      <c r="K97" s="60"/>
       <c r="L97" s="48"/>
       <c r="M97" s="48"/>
       <c r="N97" s="48"/>
@@ -16338,7 +16358,7 @@
       <c r="D98" s="41"/>
       <c r="E98" s="41"/>
       <c r="F98" s="41"/>
-      <c r="G98" s="41">
+      <c r="G98" s="51">
         <v>1</v>
       </c>
       <c r="H98" s="41" t="s">
@@ -16348,7 +16368,7 @@
         <v>673</v>
       </c>
       <c r="J98" s="48"/>
-      <c r="K98" s="48"/>
+      <c r="K98" s="60"/>
       <c r="L98" s="48"/>
       <c r="M98" s="48"/>
       <c r="N98" s="48"/>
@@ -16377,7 +16397,7 @@
       <c r="D99" s="41"/>
       <c r="E99" s="41"/>
       <c r="F99" s="41"/>
-      <c r="G99" s="41">
+      <c r="G99" s="51">
         <v>1</v>
       </c>
       <c r="H99" s="41" t="s">
@@ -16387,7 +16407,7 @@
         <v>537</v>
       </c>
       <c r="J99" s="48"/>
-      <c r="K99" s="48"/>
+      <c r="K99" s="60"/>
       <c r="L99" s="48"/>
       <c r="M99" s="48"/>
       <c r="N99" s="48"/>
@@ -16416,7 +16436,7 @@
       <c r="D100" s="41"/>
       <c r="E100" s="41"/>
       <c r="F100" s="41"/>
-      <c r="G100" s="41">
+      <c r="G100" s="51">
         <v>1</v>
       </c>
       <c r="H100" s="41" t="s">
@@ -16426,7 +16446,7 @@
         <v>674</v>
       </c>
       <c r="J100" s="48"/>
-      <c r="K100" s="48"/>
+      <c r="K100" s="60"/>
       <c r="L100" s="48"/>
       <c r="M100" s="48"/>
       <c r="N100" s="48"/>
@@ -16455,7 +16475,7 @@
       <c r="D101" s="41"/>
       <c r="E101" s="41"/>
       <c r="F101" s="41"/>
-      <c r="G101" s="41">
+      <c r="G101" s="51">
         <v>1</v>
       </c>
       <c r="H101" s="41" t="s">
@@ -16465,7 +16485,7 @@
         <v>671</v>
       </c>
       <c r="J101" s="48"/>
-      <c r="K101" s="48"/>
+      <c r="K101" s="60"/>
       <c r="L101" s="48"/>
       <c r="M101" s="48"/>
       <c r="N101" s="48"/>
@@ -16494,7 +16514,7 @@
       <c r="D102" s="41"/>
       <c r="E102" s="41"/>
       <c r="F102" s="41"/>
-      <c r="G102" s="41">
+      <c r="G102" s="51">
         <v>1</v>
       </c>
       <c r="H102" s="41" t="s">
@@ -16504,7 +16524,7 @@
         <v>674</v>
       </c>
       <c r="J102" s="48"/>
-      <c r="K102" s="48"/>
+      <c r="K102" s="60"/>
       <c r="L102" s="48"/>
       <c r="M102" s="48"/>
       <c r="N102" s="48"/>
@@ -16533,7 +16553,7 @@
       <c r="D103" s="41"/>
       <c r="E103" s="41"/>
       <c r="F103" s="41"/>
-      <c r="G103" s="41">
+      <c r="G103" s="51">
         <v>1</v>
       </c>
       <c r="H103" s="41" t="s">
@@ -16543,7 +16563,7 @@
         <v>675</v>
       </c>
       <c r="J103" s="48"/>
-      <c r="K103" s="48"/>
+      <c r="K103" s="60"/>
       <c r="L103" s="48"/>
       <c r="M103" s="48"/>
       <c r="N103" s="48"/>
@@ -16572,7 +16592,7 @@
       <c r="D104" s="41"/>
       <c r="E104" s="41"/>
       <c r="F104" s="41"/>
-      <c r="G104" s="41">
+      <c r="G104" s="51">
         <v>1</v>
       </c>
       <c r="H104" s="41" t="s">
@@ -16582,7 +16602,7 @@
         <v>537</v>
       </c>
       <c r="J104" s="48"/>
-      <c r="K104" s="48"/>
+      <c r="K104" s="60"/>
       <c r="L104" s="48"/>
       <c r="M104" s="48"/>
       <c r="N104" s="48"/>
@@ -16611,7 +16631,7 @@
       <c r="D105" s="41"/>
       <c r="E105" s="41"/>
       <c r="F105" s="41"/>
-      <c r="G105" s="41">
+      <c r="G105" s="51">
         <v>1</v>
       </c>
       <c r="H105" s="41" t="s">
@@ -16621,7 +16641,7 @@
         <v>675</v>
       </c>
       <c r="J105" s="48"/>
-      <c r="K105" s="48"/>
+      <c r="K105" s="60"/>
       <c r="L105" s="48"/>
       <c r="M105" s="48"/>
       <c r="N105" s="48"/>
@@ -16650,7 +16670,7 @@
       <c r="D106" s="41"/>
       <c r="E106" s="41"/>
       <c r="F106" s="41"/>
-      <c r="G106" s="41">
+      <c r="G106" s="51">
         <v>1</v>
       </c>
       <c r="H106" s="41" t="s">
@@ -16660,7 +16680,7 @@
         <v>537</v>
       </c>
       <c r="J106" s="48"/>
-      <c r="K106" s="48"/>
+      <c r="K106" s="60"/>
       <c r="L106" s="48"/>
       <c r="M106" s="48"/>
       <c r="N106" s="48"/>
@@ -16689,7 +16709,7 @@
       <c r="D107" s="41"/>
       <c r="E107" s="41"/>
       <c r="F107" s="41"/>
-      <c r="G107" s="41">
+      <c r="G107" s="51">
         <v>1</v>
       </c>
       <c r="H107" s="41" t="s">
@@ -16699,7 +16719,7 @@
         <v>537</v>
       </c>
       <c r="J107" s="48"/>
-      <c r="K107" s="48"/>
+      <c r="K107" s="60"/>
       <c r="L107" s="48"/>
       <c r="M107" s="48"/>
       <c r="N107" s="48"/>
@@ -16728,7 +16748,7 @@
       <c r="D108" s="41"/>
       <c r="E108" s="41"/>
       <c r="F108" s="41"/>
-      <c r="G108" s="41">
+      <c r="G108" s="51">
         <v>2</v>
       </c>
       <c r="H108" s="41" t="s">
@@ -16740,7 +16760,7 @@
       <c r="J108" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K108" s="48">
+      <c r="K108" s="60">
         <f>VLOOKUP($J108&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -16748,21 +16768,21 @@
         <v>619</v>
       </c>
       <c r="M108" s="48" t="str">
-        <f>VLOOKUP($L108&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L108&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N108" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O108" s="48" t="str">
-        <f>VLOOKUP($N108&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N108&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P108" s="48" t="s">
         <v>633</v>
       </c>
       <c r="Q108" s="49" t="str">
-        <f>VLOOKUP($P108&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P108&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>004</v>
       </c>
       <c r="R108" s="48" t="str">
@@ -16804,11 +16824,11 @@
       <c r="D109" s="41"/>
       <c r="E109" s="41"/>
       <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
+      <c r="G109" s="51"/>
       <c r="H109" s="41"/>
       <c r="I109" s="48"/>
       <c r="J109" s="48"/>
-      <c r="K109" s="48"/>
+      <c r="K109" s="60"/>
       <c r="L109" s="48"/>
       <c r="M109" s="48"/>
       <c r="N109" s="48"/>
@@ -16851,7 +16871,7 @@
       </c>
       <c r="E110" s="41"/>
       <c r="F110" s="41"/>
-      <c r="G110" s="41">
+      <c r="G110" s="51">
         <v>3</v>
       </c>
       <c r="H110" s="41" t="s">
@@ -16863,7 +16883,7 @@
       <c r="J110" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K110" s="48">
+      <c r="K110" s="60">
         <f>VLOOKUP($J110&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -16871,21 +16891,21 @@
         <v>619</v>
       </c>
       <c r="M110" s="48" t="str">
-        <f>VLOOKUP($L110&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L110&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N110" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O110" s="48" t="str">
-        <f>VLOOKUP($N110&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N110&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P110" s="48" t="s">
         <v>634</v>
       </c>
       <c r="Q110" s="49" t="str">
-        <f>VLOOKUP($P110&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P110&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>002</v>
       </c>
       <c r="R110" s="48" t="str">
@@ -16927,11 +16947,11 @@
       <c r="D111" s="41"/>
       <c r="E111" s="41"/>
       <c r="F111" s="41"/>
-      <c r="G111" s="41"/>
+      <c r="G111" s="51"/>
       <c r="H111" s="41"/>
       <c r="I111" s="48"/>
       <c r="J111" s="48"/>
-      <c r="K111" s="48"/>
+      <c r="K111" s="60"/>
       <c r="L111" s="48"/>
       <c r="M111" s="48"/>
       <c r="N111" s="48"/>
@@ -16968,11 +16988,11 @@
       <c r="D112" s="41"/>
       <c r="E112" s="41"/>
       <c r="F112" s="41"/>
-      <c r="G112" s="41"/>
+      <c r="G112" s="51"/>
       <c r="H112" s="41"/>
       <c r="I112" s="48"/>
       <c r="J112" s="48"/>
-      <c r="K112" s="48"/>
+      <c r="K112" s="60"/>
       <c r="L112" s="48"/>
       <c r="M112" s="48"/>
       <c r="N112" s="48"/>
@@ -17017,7 +17037,7 @@
         <v>687</v>
       </c>
       <c r="F113" s="41"/>
-      <c r="G113" s="41">
+      <c r="G113" s="51">
         <v>1</v>
       </c>
       <c r="H113" s="41" t="s">
@@ -17029,7 +17049,7 @@
       <c r="J113" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K113" s="48">
+      <c r="K113" s="60">
         <f>VLOOKUP($J113&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17037,21 +17057,21 @@
         <v>619</v>
       </c>
       <c r="M113" s="48" t="str">
-        <f>VLOOKUP($L113&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L113&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N113" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O113" s="48" t="str">
-        <f>VLOOKUP($N113&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N113&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P113" s="48" t="s">
         <v>636</v>
       </c>
       <c r="Q113" s="49" t="str">
-        <f>VLOOKUP($P113&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P113&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>013</v>
       </c>
       <c r="R113" s="48" t="str">
@@ -17097,7 +17117,7 @@
       <c r="D114" s="41"/>
       <c r="E114" s="41"/>
       <c r="F114" s="41"/>
-      <c r="G114" s="41">
+      <c r="G114" s="51">
         <v>1</v>
       </c>
       <c r="H114" s="41" t="s">
@@ -17109,7 +17129,7 @@
       <c r="J114" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K114" s="48">
+      <c r="K114" s="60">
         <f>VLOOKUP($J114&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17117,21 +17137,21 @@
         <v>619</v>
       </c>
       <c r="M114" s="48" t="str">
-        <f>VLOOKUP($L114&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L114&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N114" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O114" s="48" t="str">
-        <f>VLOOKUP($N114&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N114&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P114" s="48" t="s">
         <v>636</v>
       </c>
       <c r="Q114" s="49" t="str">
-        <f>VLOOKUP($P114&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P114&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>013</v>
       </c>
       <c r="R114" s="48" t="str">
@@ -17181,7 +17201,7 @@
       <c r="F115" s="41">
         <v>45.801000000000002</v>
       </c>
-      <c r="G115" s="41">
+      <c r="G115" s="51">
         <v>1</v>
       </c>
       <c r="H115" s="41" t="s">
@@ -17193,7 +17213,7 @@
       <c r="J115" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K115" s="48">
+      <c r="K115" s="60">
         <f>VLOOKUP($J115&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17201,21 +17221,21 @@
         <v>619</v>
       </c>
       <c r="M115" s="48" t="str">
-        <f>VLOOKUP($L115&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L115&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N115" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O115" s="48" t="str">
-        <f>VLOOKUP($N115&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N115&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P115" s="48" t="s">
         <v>637</v>
       </c>
       <c r="Q115" s="49" t="str">
-        <f>VLOOKUP($P115&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P115&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>005</v>
       </c>
       <c r="R115" s="48" t="str">
@@ -17265,7 +17285,7 @@
         <v>692</v>
       </c>
       <c r="F116" s="41"/>
-      <c r="G116" s="41">
+      <c r="G116" s="51">
         <v>1</v>
       </c>
       <c r="H116" s="41" t="s">
@@ -17277,7 +17297,7 @@
       <c r="J116" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K116" s="48">
+      <c r="K116" s="60">
         <f>VLOOKUP($J116&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17285,21 +17305,21 @@
         <v>619</v>
       </c>
       <c r="M116" s="48" t="str">
-        <f>VLOOKUP($L116&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L116&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N116" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O116" s="48" t="str">
-        <f>VLOOKUP($N116&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N116&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P116" s="48" t="s">
         <v>625</v>
       </c>
       <c r="Q116" s="49" t="str">
-        <f>VLOOKUP($P116&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P116&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R116" s="48" t="str">
@@ -17347,7 +17367,7 @@
       </c>
       <c r="E117" s="41"/>
       <c r="F117" s="41"/>
-      <c r="G117" s="41">
+      <c r="G117" s="51">
         <v>1</v>
       </c>
       <c r="H117" s="41" t="s">
@@ -17359,7 +17379,7 @@
       <c r="J117" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K117" s="48">
+      <c r="K117" s="60">
         <f>VLOOKUP($J117&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17367,21 +17387,21 @@
         <v>619</v>
       </c>
       <c r="M117" s="48" t="str">
-        <f>VLOOKUP($L117&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L117&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N117" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O117" s="48" t="str">
-        <f>VLOOKUP($N117&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N117&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P117" s="48" t="s">
         <v>638</v>
       </c>
       <c r="Q117" s="49" t="str">
-        <f>VLOOKUP($P117&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P117&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>006</v>
       </c>
       <c r="R117" s="48" t="str">
@@ -17427,7 +17447,7 @@
       <c r="D118" s="41"/>
       <c r="E118" s="41"/>
       <c r="F118" s="41"/>
-      <c r="G118" s="41">
+      <c r="G118" s="51">
         <v>1</v>
       </c>
       <c r="H118" s="41" t="s">
@@ -17439,7 +17459,7 @@
       <c r="J118" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K118" s="48">
+      <c r="K118" s="60">
         <f>VLOOKUP($J118&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17447,21 +17467,21 @@
         <v>619</v>
       </c>
       <c r="M118" s="48" t="str">
-        <f>VLOOKUP($L118&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L118&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N118" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O118" s="48" t="str">
-        <f>VLOOKUP($N118&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N118&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P118" s="48" t="s">
         <v>638</v>
       </c>
       <c r="Q118" s="49" t="str">
-        <f>VLOOKUP($P118&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P118&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>006</v>
       </c>
       <c r="R118" s="48" t="str">
@@ -17503,11 +17523,11 @@
       <c r="D119" s="41"/>
       <c r="E119" s="41"/>
       <c r="F119" s="41"/>
-      <c r="G119" s="41"/>
+      <c r="G119" s="51"/>
       <c r="H119" s="41"/>
       <c r="I119" s="48"/>
       <c r="J119" s="48"/>
-      <c r="K119" s="48"/>
+      <c r="K119" s="60"/>
       <c r="L119" s="48"/>
       <c r="M119" s="48"/>
       <c r="N119" s="48"/>
@@ -17548,7 +17568,7 @@
       <c r="D120" s="41"/>
       <c r="E120" s="41"/>
       <c r="F120" s="41"/>
-      <c r="G120" s="41">
+      <c r="G120" s="51">
         <v>2</v>
       </c>
       <c r="H120" s="41" t="s">
@@ -17560,7 +17580,7 @@
       <c r="J120" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K120" s="48">
+      <c r="K120" s="60">
         <f>VLOOKUP($J120&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17568,21 +17588,21 @@
         <v>619</v>
       </c>
       <c r="M120" s="48" t="str">
-        <f>VLOOKUP($L120&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L120&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N120" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O120" s="48" t="str">
-        <f>VLOOKUP($N120&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N120&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P120" s="48" t="s">
         <v>638</v>
       </c>
       <c r="Q120" s="49" t="str">
-        <f>VLOOKUP($P120&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P120&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>006</v>
       </c>
       <c r="R120" s="48" t="str">
@@ -17632,7 +17652,7 @@
         <v>693</v>
       </c>
       <c r="F121" s="41"/>
-      <c r="G121" s="41">
+      <c r="G121" s="51">
         <v>1</v>
       </c>
       <c r="H121" s="41" t="s">
@@ -17644,7 +17664,7 @@
       <c r="J121" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K121" s="48">
+      <c r="K121" s="60">
         <f>VLOOKUP($J121&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17652,21 +17672,21 @@
         <v>619</v>
       </c>
       <c r="M121" s="48" t="str">
-        <f>VLOOKUP($L121&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L121&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N121" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O121" s="48" t="str">
-        <f>VLOOKUP($N121&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N121&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P121" s="48" t="s">
         <v>639</v>
       </c>
       <c r="Q121" s="49" t="str">
-        <f>VLOOKUP($P121&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P121&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>015</v>
       </c>
       <c r="R121" s="48" t="str">
@@ -17716,7 +17736,7 @@
         <v>694</v>
       </c>
       <c r="F122" s="41"/>
-      <c r="G122" s="41">
+      <c r="G122" s="51">
         <v>1</v>
       </c>
       <c r="H122" s="41" t="s">
@@ -17728,7 +17748,7 @@
       <c r="J122" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K122" s="48">
+      <c r="K122" s="60">
         <f>VLOOKUP($J122&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17736,21 +17756,21 @@
         <v>619</v>
       </c>
       <c r="M122" s="48" t="str">
-        <f>VLOOKUP($L122&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L122&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N122" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O122" s="48" t="str">
-        <f>VLOOKUP($N122&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N122&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P122" s="48" t="s">
         <v>639</v>
       </c>
       <c r="Q122" s="49" t="str">
-        <f>VLOOKUP($P122&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P122&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>015</v>
       </c>
       <c r="R122" s="48" t="str">
@@ -17800,7 +17820,7 @@
         <v>695</v>
       </c>
       <c r="F123" s="41"/>
-      <c r="G123" s="41">
+      <c r="G123" s="51">
         <v>1</v>
       </c>
       <c r="H123" s="41" t="s">
@@ -17812,7 +17832,7 @@
       <c r="J123" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K123" s="48">
+      <c r="K123" s="60">
         <f>VLOOKUP($J123&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17820,21 +17840,21 @@
         <v>619</v>
       </c>
       <c r="M123" s="48" t="str">
-        <f>VLOOKUP($L123&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L123&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N123" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O123" s="48" t="str">
-        <f>VLOOKUP($N123&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N123&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P123" s="48" t="s">
         <v>639</v>
       </c>
       <c r="Q123" s="49" t="str">
-        <f>VLOOKUP($P123&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P123&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>015</v>
       </c>
       <c r="R123" s="48" t="str">
@@ -17878,7 +17898,7 @@
         <v>219</v>
       </c>
       <c r="F124" s="41"/>
-      <c r="G124" s="41">
+      <c r="G124" s="51">
         <v>1</v>
       </c>
       <c r="H124" s="41" t="s">
@@ -17890,7 +17910,7 @@
       <c r="J124" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K124" s="48">
+      <c r="K124" s="60">
         <f>VLOOKUP($J124&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17898,21 +17918,21 @@
         <v>619</v>
       </c>
       <c r="M124" s="48" t="str">
-        <f>VLOOKUP($L124&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L124&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N124" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O124" s="48" t="str">
-        <f>VLOOKUP($N124&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N124&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P124" s="48" t="s">
         <v>640</v>
       </c>
       <c r="Q124" s="49" t="str">
-        <f>VLOOKUP($P124&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P124&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>017</v>
       </c>
       <c r="R124" s="48" t="str">
@@ -17962,7 +17982,7 @@
         <v>697</v>
       </c>
       <c r="F125" s="41"/>
-      <c r="G125" s="41">
+      <c r="G125" s="51">
         <v>1</v>
       </c>
       <c r="H125" s="41" t="s">
@@ -17974,7 +17994,7 @@
       <c r="J125" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K125" s="48">
+      <c r="K125" s="60">
         <f>VLOOKUP($J125&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -17982,21 +18002,21 @@
         <v>619</v>
       </c>
       <c r="M125" s="48" t="str">
-        <f>VLOOKUP($L125&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L125&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N125" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O125" s="48" t="str">
-        <f>VLOOKUP($N125&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N125&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P125" s="48" t="s">
         <v>639</v>
       </c>
       <c r="Q125" s="49" t="str">
-        <f>VLOOKUP($P125&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P125&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>015</v>
       </c>
       <c r="R125" s="48" t="str">
@@ -18046,7 +18066,7 @@
         <v>698</v>
       </c>
       <c r="F126" s="41"/>
-      <c r="G126" s="41">
+      <c r="G126" s="51">
         <v>1</v>
       </c>
       <c r="H126" s="41" t="s">
@@ -18058,7 +18078,7 @@
       <c r="J126" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K126" s="48">
+      <c r="K126" s="60">
         <f>VLOOKUP($J126&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18066,21 +18086,21 @@
         <v>619</v>
       </c>
       <c r="M126" s="48" t="str">
-        <f>VLOOKUP($L126&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L126&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N126" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O126" s="48" t="str">
-        <f>VLOOKUP($N126&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N126&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P126" s="48" t="s">
         <v>639</v>
       </c>
       <c r="Q126" s="49" t="str">
-        <f>VLOOKUP($P126&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P126&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>015</v>
       </c>
       <c r="R126" s="48" t="str">
@@ -18126,7 +18146,7 @@
       <c r="D127" s="41"/>
       <c r="E127" s="41"/>
       <c r="F127" s="41"/>
-      <c r="G127" s="41">
+      <c r="G127" s="51">
         <v>1</v>
       </c>
       <c r="H127" s="41" t="s">
@@ -18138,7 +18158,7 @@
       <c r="J127" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K127" s="48">
+      <c r="K127" s="60">
         <f>VLOOKUP($J127&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18146,21 +18166,21 @@
         <v>619</v>
       </c>
       <c r="M127" s="48" t="str">
-        <f>VLOOKUP($L127&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L127&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N127" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O127" s="48" t="str">
-        <f>VLOOKUP($N127&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N127&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P127" s="48" t="s">
         <v>625</v>
       </c>
       <c r="Q127" s="49" t="str">
-        <f>VLOOKUP($P127&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P127&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R127" s="48" t="str">
@@ -18210,7 +18230,7 @@
         <v>695</v>
       </c>
       <c r="F128" s="41"/>
-      <c r="G128" s="41">
+      <c r="G128" s="51">
         <v>1</v>
       </c>
       <c r="H128" s="41" t="s">
@@ -18222,7 +18242,7 @@
       <c r="J128" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K128" s="48">
+      <c r="K128" s="60">
         <f>VLOOKUP($J128&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18230,21 +18250,21 @@
         <v>619</v>
       </c>
       <c r="M128" s="48" t="str">
-        <f>VLOOKUP($L128&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L128&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N128" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O128" s="48" t="str">
-        <f>VLOOKUP($N128&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N128&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P128" s="48" t="s">
         <v>641</v>
       </c>
       <c r="Q128" s="49" t="str">
-        <f>VLOOKUP($P128&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P128&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>010</v>
       </c>
       <c r="R128" s="48" t="str">
@@ -18290,7 +18310,7 @@
       <c r="D129" s="41"/>
       <c r="E129" s="41"/>
       <c r="F129" s="41"/>
-      <c r="G129" s="41">
+      <c r="G129" s="51">
         <v>1</v>
       </c>
       <c r="H129" s="41" t="s">
@@ -18302,7 +18322,7 @@
       <c r="J129" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K129" s="48">
+      <c r="K129" s="60">
         <f>VLOOKUP($J129&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18310,21 +18330,21 @@
         <v>619</v>
       </c>
       <c r="M129" s="48" t="str">
-        <f>VLOOKUP($L129&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L129&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N129" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O129" s="48" t="str">
-        <f>VLOOKUP($N129&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N129&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P129" s="48" t="s">
         <v>625</v>
       </c>
       <c r="Q129" s="49" t="str">
-        <f>VLOOKUP($P129&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P129&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R129" s="48" t="str">
@@ -18376,7 +18396,7 @@
       <c r="F130" s="41">
         <v>45.814999999999998</v>
       </c>
-      <c r="G130" s="41">
+      <c r="G130" s="51">
         <v>1</v>
       </c>
       <c r="H130" s="41" t="s">
@@ -18388,7 +18408,7 @@
       <c r="J130" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K130" s="48">
+      <c r="K130" s="60">
         <f>VLOOKUP($J130&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18396,21 +18416,21 @@
         <v>619</v>
       </c>
       <c r="M130" s="48" t="str">
-        <f>VLOOKUP($L130&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L130&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N130" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O130" s="48" t="str">
-        <f>VLOOKUP($N130&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N130&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P130" s="48" t="s">
         <v>631</v>
       </c>
       <c r="Q130" s="49" t="str">
-        <f>VLOOKUP($P130&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P130&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>014</v>
       </c>
       <c r="R130" s="48" t="str">
@@ -18462,7 +18482,7 @@
       <c r="F131" s="41">
         <v>45.814999999999998</v>
       </c>
-      <c r="G131" s="41">
+      <c r="G131" s="51">
         <v>1</v>
       </c>
       <c r="H131" s="41" t="s">
@@ -18474,7 +18494,7 @@
       <c r="J131" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K131" s="48">
+      <c r="K131" s="60">
         <f>VLOOKUP($J131&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18482,21 +18502,21 @@
         <v>619</v>
       </c>
       <c r="M131" s="48" t="str">
-        <f>VLOOKUP($L131&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L131&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N131" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O131" s="48" t="str">
-        <f>VLOOKUP($N131&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N131&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P131" s="48" t="s">
         <v>625</v>
       </c>
       <c r="Q131" s="49" t="str">
-        <f>VLOOKUP($P131&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P131&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R131" s="48" t="str">
@@ -18546,7 +18566,7 @@
         <v>702</v>
       </c>
       <c r="F132" s="41"/>
-      <c r="G132" s="41">
+      <c r="G132" s="51">
         <v>1</v>
       </c>
       <c r="H132" s="41" t="s">
@@ -18558,7 +18578,7 @@
       <c r="J132" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K132" s="48">
+      <c r="K132" s="60">
         <f>VLOOKUP($J132&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18566,21 +18586,21 @@
         <v>619</v>
       </c>
       <c r="M132" s="48" t="str">
-        <f>VLOOKUP($L132&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L132&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N132" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O132" s="48" t="str">
-        <f>VLOOKUP($N132&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N132&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P132" s="48" t="s">
         <v>640</v>
       </c>
       <c r="Q132" s="49" t="str">
-        <f>VLOOKUP($P132&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P132&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>017</v>
       </c>
       <c r="R132" s="48" t="str">
@@ -18628,7 +18648,7 @@
       </c>
       <c r="E133" s="41"/>
       <c r="F133" s="41"/>
-      <c r="G133" s="41">
+      <c r="G133" s="51">
         <v>1</v>
       </c>
       <c r="H133" s="41" t="s">
@@ -18640,7 +18660,7 @@
       <c r="J133" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K133" s="48">
+      <c r="K133" s="60">
         <f>VLOOKUP($J133&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18648,21 +18668,21 @@
         <v>619</v>
       </c>
       <c r="M133" s="48" t="str">
-        <f>VLOOKUP($L133&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L133&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N133" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O133" s="48" t="str">
-        <f>VLOOKUP($N133&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N133&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P133" s="48" t="s">
         <v>640</v>
       </c>
       <c r="Q133" s="49" t="str">
-        <f>VLOOKUP($P133&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P133&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>017</v>
       </c>
       <c r="R133" s="48" t="str">
@@ -18708,7 +18728,7 @@
       <c r="D134" s="41"/>
       <c r="E134" s="41"/>
       <c r="F134" s="41"/>
-      <c r="G134" s="41">
+      <c r="G134" s="51">
         <v>1</v>
       </c>
       <c r="H134" s="41" t="s">
@@ -18720,7 +18740,7 @@
       <c r="J134" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K134" s="48">
+      <c r="K134" s="60">
         <f>VLOOKUP($J134&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18728,21 +18748,21 @@
         <v>619</v>
       </c>
       <c r="M134" s="48" t="str">
-        <f>VLOOKUP($L134&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L134&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N134" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O134" s="48" t="str">
-        <f>VLOOKUP($N134&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N134&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P134" s="48" t="s">
         <v>640</v>
       </c>
       <c r="Q134" s="49" t="str">
-        <f>VLOOKUP($P134&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P134&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>017</v>
       </c>
       <c r="R134" s="48" t="str">
@@ -18792,7 +18812,7 @@
         <v>705</v>
       </c>
       <c r="F135" s="41"/>
-      <c r="G135" s="41">
+      <c r="G135" s="51">
         <v>1</v>
       </c>
       <c r="H135" s="41" t="s">
@@ -18804,7 +18824,7 @@
       <c r="J135" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K135" s="48">
+      <c r="K135" s="60">
         <f>VLOOKUP($J135&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18812,21 +18832,21 @@
         <v>619</v>
       </c>
       <c r="M135" s="48" t="str">
-        <f>VLOOKUP($L135&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L135&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N135" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O135" s="48" t="str">
-        <f>VLOOKUP($N135&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N135&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P135" s="48" t="s">
         <v>640</v>
       </c>
       <c r="Q135" s="49" t="str">
-        <f>VLOOKUP($P135&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P135&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>017</v>
       </c>
       <c r="R135" s="48" t="str">
@@ -18876,7 +18896,7 @@
         <v>707</v>
       </c>
       <c r="F136" s="41"/>
-      <c r="G136" s="41">
+      <c r="G136" s="51">
         <v>1</v>
       </c>
       <c r="H136" s="41" t="s">
@@ -18888,7 +18908,7 @@
       <c r="J136" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K136" s="48">
+      <c r="K136" s="60">
         <f>VLOOKUP($J136&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18896,21 +18916,21 @@
         <v>619</v>
       </c>
       <c r="M136" s="48" t="str">
-        <f>VLOOKUP($L136&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L136&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N136" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O136" s="48" t="str">
-        <f>VLOOKUP($N136&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N136&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P136" s="48" t="s">
         <v>625</v>
       </c>
       <c r="Q136" s="49" t="str">
-        <f>VLOOKUP($P136&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P136&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R136" s="48" t="str">
@@ -18960,7 +18980,7 @@
         <v>709</v>
       </c>
       <c r="F137" s="41"/>
-      <c r="G137" s="41">
+      <c r="G137" s="51">
         <v>1</v>
       </c>
       <c r="H137" s="41" t="s">
@@ -18972,7 +18992,7 @@
       <c r="J137" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K137" s="48">
+      <c r="K137" s="60">
         <f>VLOOKUP($J137&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -18980,21 +19000,21 @@
         <v>619</v>
       </c>
       <c r="M137" s="48" t="str">
-        <f>VLOOKUP($L137&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L137&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N137" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O137" s="48" t="str">
-        <f>VLOOKUP($N137&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N137&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P137" s="48" t="s">
         <v>640</v>
       </c>
       <c r="Q137" s="49" t="str">
-        <f>VLOOKUP($P137&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P137&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>017</v>
       </c>
       <c r="R137" s="48" t="str">
@@ -19040,7 +19060,7 @@
       <c r="D138" s="41"/>
       <c r="E138" s="41"/>
       <c r="F138" s="41"/>
-      <c r="G138" s="41">
+      <c r="G138" s="51">
         <v>1</v>
       </c>
       <c r="H138" s="41" t="s">
@@ -19052,7 +19072,7 @@
       <c r="J138" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K138" s="48">
+      <c r="K138" s="60">
         <f>VLOOKUP($J138&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19060,21 +19080,21 @@
         <v>619</v>
       </c>
       <c r="M138" s="48" t="str">
-        <f>VLOOKUP($L138&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L138&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N138" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O138" s="48" t="str">
-        <f>VLOOKUP($N138&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N138&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P138" s="48" t="s">
         <v>642</v>
       </c>
       <c r="Q138" s="49" t="str">
-        <f>VLOOKUP($P138&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P138&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>012</v>
       </c>
       <c r="R138" s="48" t="str">
@@ -19120,7 +19140,7 @@
       <c r="D139" s="41"/>
       <c r="E139" s="41"/>
       <c r="F139" s="41"/>
-      <c r="G139" s="41">
+      <c r="G139" s="51">
         <v>1</v>
       </c>
       <c r="H139" s="41" t="s">
@@ -19132,7 +19152,7 @@
       <c r="J139" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K139" s="48">
+      <c r="K139" s="60">
         <f>VLOOKUP($J139&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19140,21 +19160,21 @@
         <v>619</v>
       </c>
       <c r="M139" s="48" t="str">
-        <f>VLOOKUP($L139&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L139&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N139" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O139" s="48" t="str">
-        <f>VLOOKUP($N139&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N139&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P139" s="48" t="s">
         <v>642</v>
       </c>
       <c r="Q139" s="49" t="str">
-        <f>VLOOKUP($P139&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P139&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>012</v>
       </c>
       <c r="R139" s="48" t="str">
@@ -19204,7 +19224,7 @@
         <v>694</v>
       </c>
       <c r="F140" s="41"/>
-      <c r="G140" s="41">
+      <c r="G140" s="51">
         <v>1</v>
       </c>
       <c r="H140" s="41" t="s">
@@ -19216,7 +19236,7 @@
       <c r="J140" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K140" s="48">
+      <c r="K140" s="60">
         <f>VLOOKUP($J140&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19224,21 +19244,21 @@
         <v>619</v>
       </c>
       <c r="M140" s="48" t="str">
-        <f>VLOOKUP($L140&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L140&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N140" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O140" s="48" t="str">
-        <f>VLOOKUP($N140&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N140&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P140" s="48" t="s">
         <v>642</v>
       </c>
       <c r="Q140" s="49" t="str">
-        <f>VLOOKUP($P140&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P140&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>012</v>
       </c>
       <c r="R140" s="48" t="str">
@@ -19288,7 +19308,7 @@
         <v>710</v>
       </c>
       <c r="F141" s="41"/>
-      <c r="G141" s="41">
+      <c r="G141" s="51">
         <v>1</v>
       </c>
       <c r="H141" s="41" t="s">
@@ -19300,7 +19320,7 @@
       <c r="J141" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K141" s="48">
+      <c r="K141" s="60">
         <f>VLOOKUP($J141&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19308,21 +19328,21 @@
         <v>619</v>
       </c>
       <c r="M141" s="48" t="str">
-        <f>VLOOKUP($L141&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L141&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N141" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O141" s="48" t="str">
-        <f>VLOOKUP($N141&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N141&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P141" s="48" t="s">
         <v>640</v>
       </c>
       <c r="Q141" s="49" t="str">
-        <f>VLOOKUP($P141&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P141&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>017</v>
       </c>
       <c r="R141" s="48" t="str">
@@ -19368,7 +19388,7 @@
       <c r="D142" s="41"/>
       <c r="E142" s="41"/>
       <c r="F142" s="41"/>
-      <c r="G142" s="41">
+      <c r="G142" s="51">
         <v>1</v>
       </c>
       <c r="H142" s="41" t="s">
@@ -19380,7 +19400,7 @@
       <c r="J142" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K142" s="48">
+      <c r="K142" s="60">
         <f>VLOOKUP($J142&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19388,21 +19408,21 @@
         <v>619</v>
       </c>
       <c r="M142" s="48" t="str">
-        <f>VLOOKUP($L142&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L142&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N142" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O142" s="48" t="str">
-        <f>VLOOKUP($N142&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N142&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P142" s="48" t="s">
         <v>625</v>
       </c>
       <c r="Q142" s="49" t="str">
-        <f>VLOOKUP($P142&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P142&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R142" s="48" t="str">
@@ -19448,7 +19468,7 @@
       <c r="D143" s="41"/>
       <c r="E143" s="41"/>
       <c r="F143" s="41"/>
-      <c r="G143" s="41">
+      <c r="G143" s="51">
         <v>1</v>
       </c>
       <c r="H143" s="41" t="s">
@@ -19460,7 +19480,7 @@
       <c r="J143" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K143" s="48">
+      <c r="K143" s="60">
         <f>VLOOKUP($J143&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19468,21 +19488,21 @@
         <v>619</v>
       </c>
       <c r="M143" s="48" t="str">
-        <f>VLOOKUP($L143&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L143&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N143" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O143" s="48" t="str">
-        <f>VLOOKUP($N143&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N143&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P143" s="48" t="s">
         <v>631</v>
       </c>
       <c r="Q143" s="49" t="str">
-        <f>VLOOKUP($P143&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P143&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>014</v>
       </c>
       <c r="R143" s="48" t="str">
@@ -19532,7 +19552,7 @@
         <v>712</v>
       </c>
       <c r="F144" s="41"/>
-      <c r="G144" s="41">
+      <c r="G144" s="51">
         <v>1</v>
       </c>
       <c r="H144" s="41" t="s">
@@ -19544,7 +19564,7 @@
       <c r="J144" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K144" s="48">
+      <c r="K144" s="60">
         <f>VLOOKUP($J144&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19552,21 +19572,21 @@
         <v>619</v>
       </c>
       <c r="M144" s="48" t="str">
-        <f>VLOOKUP($L144&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L144&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N144" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O144" s="48" t="str">
-        <f>VLOOKUP($N144&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N144&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P144" s="48" t="s">
         <v>631</v>
       </c>
       <c r="Q144" s="49" t="str">
-        <f>VLOOKUP($P144&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P144&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>014</v>
       </c>
       <c r="R144" s="48" t="str">
@@ -19616,7 +19636,7 @@
         <v>712</v>
       </c>
       <c r="F145" s="41"/>
-      <c r="G145" s="41">
+      <c r="G145" s="51">
         <v>1</v>
       </c>
       <c r="H145" s="41" t="s">
@@ -19628,7 +19648,7 @@
       <c r="J145" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K145" s="48">
+      <c r="K145" s="60">
         <f>VLOOKUP($J145&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19636,21 +19656,21 @@
         <v>619</v>
       </c>
       <c r="M145" s="48" t="str">
-        <f>VLOOKUP($L145&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L145&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N145" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O145" s="48" t="str">
-        <f>VLOOKUP($N145&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N145&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P145" s="48" t="s">
         <v>625</v>
       </c>
       <c r="Q145" s="49" t="str">
-        <f>VLOOKUP($P145&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P145&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>018</v>
       </c>
       <c r="R145" s="48" t="str">
@@ -19700,7 +19720,7 @@
         <v>713</v>
       </c>
       <c r="F146" s="41"/>
-      <c r="G146" s="41">
+      <c r="G146" s="51">
         <v>1</v>
       </c>
       <c r="H146" s="41" t="s">
@@ -19712,7 +19732,7 @@
       <c r="J146" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K146" s="48">
+      <c r="K146" s="60">
         <f>VLOOKUP($J146&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19720,21 +19740,21 @@
         <v>619</v>
       </c>
       <c r="M146" s="48" t="str">
-        <f>VLOOKUP($L146&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L146&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N146" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O146" s="48" t="str">
-        <f>VLOOKUP($N146&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N146&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P146" s="48" t="s">
         <v>631</v>
       </c>
       <c r="Q146" s="49" t="str">
-        <f>VLOOKUP($P146&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P146&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>014</v>
       </c>
       <c r="R146" s="48" t="str">
@@ -19784,7 +19804,7 @@
         <v>714</v>
       </c>
       <c r="F147" s="41"/>
-      <c r="G147" s="41">
+      <c r="G147" s="51">
         <v>1</v>
       </c>
       <c r="H147" s="41" t="s">
@@ -19796,7 +19816,7 @@
       <c r="J147" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K147" s="48">
+      <c r="K147" s="60">
         <f>VLOOKUP($J147&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19804,21 +19824,21 @@
         <v>619</v>
       </c>
       <c r="M147" s="48" t="str">
-        <f>VLOOKUP($L147&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L147&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N147" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O147" s="48" t="str">
-        <f>VLOOKUP($N147&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N147&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P147" s="48" t="s">
         <v>636</v>
       </c>
       <c r="Q147" s="49" t="str">
-        <f>VLOOKUP($P147&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P147&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>013</v>
       </c>
       <c r="R147" s="48" t="str">
@@ -19866,7 +19886,7 @@
       </c>
       <c r="E148" s="41"/>
       <c r="F148" s="41"/>
-      <c r="G148" s="41">
+      <c r="G148" s="51">
         <v>1</v>
       </c>
       <c r="H148" s="41" t="s">
@@ -19878,7 +19898,7 @@
       <c r="J148" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K148" s="48">
+      <c r="K148" s="60">
         <f>VLOOKUP($J148&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19886,21 +19906,21 @@
         <v>619</v>
       </c>
       <c r="M148" s="48" t="str">
-        <f>VLOOKUP($L148&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L148&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N148" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O148" s="48" t="str">
-        <f>VLOOKUP($N148&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N148&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P148" s="48" t="s">
         <v>636</v>
       </c>
       <c r="Q148" s="49" t="str">
-        <f>VLOOKUP($P148&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P148&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>013</v>
       </c>
       <c r="R148" s="48" t="str">
@@ -19950,7 +19970,7 @@
         <v>697</v>
       </c>
       <c r="F149" s="41"/>
-      <c r="G149" s="41">
+      <c r="G149" s="51">
         <v>1</v>
       </c>
       <c r="H149" s="41" t="s">
@@ -19962,7 +19982,7 @@
       <c r="J149" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K149" s="48">
+      <c r="K149" s="60">
         <f>VLOOKUP($J149&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -19970,21 +19990,21 @@
         <v>619</v>
       </c>
       <c r="M149" s="48" t="str">
-        <f>VLOOKUP($L149&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L149&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N149" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O149" s="48" t="str">
-        <f>VLOOKUP($N149&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N149&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P149" s="48" t="s">
         <v>636</v>
       </c>
       <c r="Q149" s="49" t="str">
-        <f>VLOOKUP($P149&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P149&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>013</v>
       </c>
       <c r="R149" s="48" t="str">
@@ -20030,7 +20050,7 @@
       <c r="D150" s="41"/>
       <c r="E150" s="41"/>
       <c r="F150" s="41"/>
-      <c r="G150" s="41">
+      <c r="G150" s="51">
         <v>1</v>
       </c>
       <c r="H150" s="41" t="s">
@@ -20042,7 +20062,7 @@
       <c r="J150" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K150" s="48">
+      <c r="K150" s="60">
         <f>VLOOKUP($J150&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -20050,21 +20070,21 @@
         <v>619</v>
       </c>
       <c r="M150" s="48" t="str">
-        <f>VLOOKUP($L150&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L150&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N150" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O150" s="48" t="str">
-        <f>VLOOKUP($N150&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N150&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P150" s="48" t="s">
         <v>635</v>
       </c>
       <c r="Q150" s="49" t="str">
-        <f>VLOOKUP($P150&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P150&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R150" s="48" t="str">
@@ -20110,7 +20130,7 @@
       <c r="D151" s="41"/>
       <c r="E151" s="41"/>
       <c r="F151" s="41"/>
-      <c r="G151" s="41">
+      <c r="G151" s="51">
         <v>1</v>
       </c>
       <c r="H151" s="41" t="s">
@@ -20122,7 +20142,7 @@
       <c r="J151" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K151" s="48">
+      <c r="K151" s="60">
         <f>VLOOKUP($J151&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -20130,21 +20150,21 @@
         <v>619</v>
       </c>
       <c r="M151" s="48" t="str">
-        <f>VLOOKUP($L151&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L151&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N151" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O151" s="48" t="str">
-        <f>VLOOKUP($N151&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N151&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P151" s="48" t="s">
         <v>635</v>
       </c>
       <c r="Q151" s="49" t="str">
-        <f>VLOOKUP($P151&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P151&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R151" s="48" t="str">
@@ -20190,7 +20210,7 @@
       <c r="D152" s="41"/>
       <c r="E152" s="41"/>
       <c r="F152" s="41"/>
-      <c r="G152" s="41">
+      <c r="G152" s="51">
         <v>1</v>
       </c>
       <c r="H152" s="41" t="s">
@@ -20202,7 +20222,7 @@
       <c r="J152" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K152" s="48">
+      <c r="K152" s="60">
         <f>VLOOKUP($J152&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -20210,21 +20230,21 @@
         <v>619</v>
       </c>
       <c r="M152" s="48" t="str">
-        <f>VLOOKUP($L152&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L152&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N152" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O152" s="48" t="str">
-        <f>VLOOKUP($N152&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N152&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P152" s="48" t="s">
         <v>635</v>
       </c>
       <c r="Q152" s="49" t="str">
-        <f>VLOOKUP($P152&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P152&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R152" s="48" t="str">
@@ -20270,7 +20290,7 @@
       <c r="D153" s="41"/>
       <c r="E153" s="41"/>
       <c r="F153" s="41"/>
-      <c r="G153" s="41">
+      <c r="G153" s="51">
         <v>1</v>
       </c>
       <c r="H153" s="41" t="s">
@@ -20282,7 +20302,7 @@
       <c r="J153" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K153" s="48">
+      <c r="K153" s="60">
         <f>VLOOKUP($J153&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -20290,21 +20310,21 @@
         <v>619</v>
       </c>
       <c r="M153" s="48" t="str">
-        <f>VLOOKUP($L153&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L153&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N153" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O153" s="48" t="str">
-        <f>VLOOKUP($N153&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N153&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P153" s="48" t="s">
         <v>635</v>
       </c>
       <c r="Q153" s="49" t="str">
-        <f>VLOOKUP($P153&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P153&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R153" s="48" t="str">
@@ -20350,7 +20370,7 @@
       <c r="D154" s="41"/>
       <c r="E154" s="41"/>
       <c r="F154" s="41"/>
-      <c r="G154" s="41">
+      <c r="G154" s="51">
         <v>1</v>
       </c>
       <c r="H154" s="41" t="s">
@@ -20362,7 +20382,7 @@
       <c r="J154" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K154" s="48">
+      <c r="K154" s="60">
         <f>VLOOKUP($J154&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -20370,21 +20390,21 @@
         <v>619</v>
       </c>
       <c r="M154" s="48" t="str">
-        <f>VLOOKUP($L154&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L154&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N154" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O154" s="48" t="str">
-        <f>VLOOKUP($N154&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N154&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P154" s="48" t="s">
         <v>635</v>
       </c>
       <c r="Q154" s="49" t="str">
-        <f>VLOOKUP($P154&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P154&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R154" s="48" t="str">
@@ -20430,7 +20450,7 @@
       <c r="D155" s="41"/>
       <c r="E155" s="41"/>
       <c r="F155" s="41"/>
-      <c r="G155" s="41">
+      <c r="G155" s="51">
         <v>1</v>
       </c>
       <c r="H155" s="41" t="s">
@@ -20442,7 +20462,7 @@
       <c r="J155" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K155" s="48">
+      <c r="K155" s="60">
         <f>VLOOKUP($J155&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -20450,21 +20470,21 @@
         <v>619</v>
       </c>
       <c r="M155" s="48" t="str">
-        <f>VLOOKUP($L155&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L155&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N155" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O155" s="48" t="str">
-        <f>VLOOKUP($N155&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N155&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P155" s="48" t="s">
         <v>635</v>
       </c>
       <c r="Q155" s="49" t="str">
-        <f>VLOOKUP($P155&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P155&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R155" s="48" t="str">
@@ -20510,7 +20530,7 @@
       <c r="D156" s="41"/>
       <c r="E156" s="41"/>
       <c r="F156" s="41"/>
-      <c r="G156" s="41">
+      <c r="G156" s="51">
         <v>1</v>
       </c>
       <c r="H156" s="41" t="s">
@@ -20522,7 +20542,7 @@
       <c r="J156" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K156" s="48">
+      <c r="K156" s="60">
         <f>VLOOKUP($J156&amp;"*",发动机类型!$A$2:'发动机类型'!$B$5,2,)</f>
         <v>2</v>
       </c>
@@ -20530,21 +20550,21 @@
         <v>619</v>
       </c>
       <c r="M156" s="48" t="str">
-        <f>VLOOKUP($L156&amp;"*",级别!$A$2:'级别'!$B$2,2,)</f>
+        <f>VLOOKUP($L156&amp;"*",发动机级别!$A$2:'发动机级别'!$B$2,2,)</f>
         <v>01</v>
       </c>
       <c r="N156" s="48" t="s">
         <v>632</v>
       </c>
       <c r="O156" s="48" t="str">
-        <f>VLOOKUP($N156&amp;"*",部件!$A$3:'部件'!$B$20,2,)</f>
+        <f>VLOOKUP($N156&amp;"*",部件分组!$A$3:'部件分组'!$B$20,2,)</f>
         <v>06</v>
       </c>
       <c r="P156" s="48" t="s">
         <v>635</v>
       </c>
       <c r="Q156" s="49" t="str">
-        <f>VLOOKUP($P156&amp;"*",零件类型!$A$2:'零件类型'!$B$21,2,)</f>
+        <f>VLOOKUP($P156&amp;"*",零件分组!$A$2:'零件分组'!$B$21,2,)</f>
         <v>900</v>
       </c>
       <c r="R156" s="48" t="str">
@@ -20590,7 +20610,7 @@
       <c r="D157" s="41"/>
       <c r="E157" s="41"/>
       <c r="F157" s="41"/>
-      <c r="G157" s="41">
+      <c r="G157" s="51">
         <v>1</v>
       </c>
       <c r="H157" s="41" t="s">
@@ -20602,7 +20622,7 @@
       <c r="J157" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K157" s="48"/>
+      <c r="K157" s="60"/>
       <c r="L157" s="48"/>
       <c r="M157" s="48"/>
       <c r="N157" s="48"/>
@@ -20637,7 +20657,7 @@
       <c r="D158" s="41"/>
       <c r="E158" s="41"/>
       <c r="F158" s="41"/>
-      <c r="G158" s="41">
+      <c r="G158" s="51">
         <v>0</v>
       </c>
       <c r="H158" s="41" t="s">
@@ -20649,7 +20669,7 @@
       <c r="J158" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K158" s="48"/>
+      <c r="K158" s="60"/>
       <c r="L158" s="48"/>
       <c r="M158" s="48"/>
       <c r="N158" s="48"/>
@@ -20684,7 +20704,7 @@
       <c r="D159" s="41"/>
       <c r="E159" s="41"/>
       <c r="F159" s="41"/>
-      <c r="G159" s="41">
+      <c r="G159" s="51">
         <v>1</v>
       </c>
       <c r="H159" s="41" t="s">
@@ -20696,7 +20716,7 @@
       <c r="J159" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K159" s="48"/>
+      <c r="K159" s="60"/>
       <c r="L159" s="48"/>
       <c r="M159" s="48"/>
       <c r="N159" s="48"/>
@@ -20731,7 +20751,7 @@
       <c r="D160" s="41"/>
       <c r="E160" s="41"/>
       <c r="F160" s="41"/>
-      <c r="G160" s="41">
+      <c r="G160" s="51">
         <v>1</v>
       </c>
       <c r="H160" s="41" t="s">
@@ -20743,7 +20763,7 @@
       <c r="J160" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K160" s="48"/>
+      <c r="K160" s="60"/>
       <c r="L160" s="48"/>
       <c r="M160" s="48"/>
       <c r="N160" s="48"/>
@@ -20778,7 +20798,7 @@
       <c r="D161" s="41"/>
       <c r="E161" s="41"/>
       <c r="F161" s="41"/>
-      <c r="G161" s="41">
+      <c r="G161" s="51">
         <v>1</v>
       </c>
       <c r="H161" s="41" t="s">
@@ -20790,7 +20810,7 @@
       <c r="J161" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K161" s="48"/>
+      <c r="K161" s="60"/>
       <c r="L161" s="48"/>
       <c r="M161" s="48"/>
       <c r="N161" s="48"/>
@@ -20825,7 +20845,7 @@
       <c r="D162" s="41"/>
       <c r="E162" s="41"/>
       <c r="F162" s="41"/>
-      <c r="G162" s="41">
+      <c r="G162" s="51">
         <v>1</v>
       </c>
       <c r="H162" s="41" t="s">
@@ -20837,7 +20857,7 @@
       <c r="J162" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K162" s="48"/>
+      <c r="K162" s="60"/>
       <c r="L162" s="48"/>
       <c r="M162" s="48"/>
       <c r="N162" s="48"/>
@@ -20872,7 +20892,7 @@
       <c r="D163" s="41"/>
       <c r="E163" s="41"/>
       <c r="F163" s="41"/>
-      <c r="G163" s="41">
+      <c r="G163" s="51">
         <v>1</v>
       </c>
       <c r="H163" s="41" t="s">
@@ -20884,7 +20904,7 @@
       <c r="J163" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K163" s="48"/>
+      <c r="K163" s="60"/>
       <c r="L163" s="48"/>
       <c r="M163" s="48"/>
       <c r="N163" s="48"/>
@@ -20919,7 +20939,7 @@
       <c r="D164" s="41"/>
       <c r="E164" s="41"/>
       <c r="F164" s="41"/>
-      <c r="G164" s="41">
+      <c r="G164" s="51">
         <v>1</v>
       </c>
       <c r="H164" s="41" t="s">
@@ -20931,7 +20951,7 @@
       <c r="J164" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="K164" s="48"/>
+      <c r="K164" s="60"/>
       <c r="L164" s="48"/>
       <c r="M164" s="48"/>
       <c r="N164" s="48"/>
@@ -20962,7 +20982,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>级别!$A$2</xm:f>
+            <xm:f>发动机级别!$A$2</xm:f>
           </x14:formula1>
           <xm:sqref>L108:L164</xm:sqref>
         </x14:dataValidation>
@@ -20974,19 +20994,19 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>部件!$A$3:$A$15</xm:f>
+            <xm:f>部件分组!$A$3:$A$15</xm:f>
           </x14:formula1>
           <xm:sqref>N108:N164</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>零件类型!$A$2:$A$999</xm:f>
+            <xm:f>零件分组!$A$2:$A$999</xm:f>
           </x14:formula1>
           <xm:sqref>P165:P1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>零件类型!$A$2:$A$21</xm:f>
+            <xm:f>零件分组!$A$2:$A$21</xm:f>
           </x14:formula1>
           <xm:sqref>P2:P164</xm:sqref>
         </x14:dataValidation>
@@ -21085,11 +21105,11 @@
       <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -21318,9 +21338,9 @@
       <c r="C2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
@@ -21329,9 +21349,9 @@
       <c r="C3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
@@ -21340,9 +21360,9 @@
       <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
@@ -21351,9 +21371,9 @@
       <c r="C5" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
@@ -21362,9 +21382,9 @@
       <c r="C6" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="11" t="s">
@@ -21374,8 +21394,8 @@
         <v>27</v>
       </c>
       <c r="D7" s="18"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="67"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
@@ -21385,8 +21405,8 @@
         <v>1</v>
       </c>
       <c r="D8" s="18"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
@@ -21397,7 +21417,7 @@
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="63"/>
+      <c r="F9" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -21869,7 +21889,7 @@
     </row>
     <row r="140" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H140" t="e">
-        <f>VLOOKUP($G140&amp;"*",零件类型!B2,COLUMN(B:B),)</f>
+        <f>VLOOKUP($G140&amp;"*",零件分组!B2,COLUMN(B:B),)</f>
         <v>#REF!</v>
       </c>
     </row>
@@ -21884,7 +21904,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/name_space.xlsx
+++ b/name_space.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="M01单元体" sheetId="15" r:id="rId1"/>
@@ -3089,10 +3089,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>英文材料</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>GJB 2294-1995</t>
   </si>
   <si>
@@ -3365,6 +3361,9 @@
   <si>
     <t>零件号</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料标准</t>
   </si>
 </sst>
 </file>
@@ -4121,9 +4120,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y172"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4161,16 +4160,16 @@
         <v>441</v>
       </c>
       <c r="B1" s="58" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>750</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>751</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>690</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>691</v>
+        <v>766</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>689</v>
@@ -4179,7 +4178,7 @@
         <v>442</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I1" s="44" t="s">
         <v>443</v>
@@ -4188,34 +4187,34 @@
         <v>628</v>
       </c>
       <c r="K1" s="45" t="s">
+        <v>764</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>751</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>759</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>753</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>760</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>754</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>762</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>763</v>
+      </c>
+      <c r="S1" s="45" t="s">
         <v>765</v>
       </c>
-      <c r="L1" s="45" t="s">
-        <v>752</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>760</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>754</v>
-      </c>
-      <c r="O1" s="45" t="s">
-        <v>761</v>
-      </c>
-      <c r="P1" s="45" t="s">
-        <v>755</v>
-      </c>
-      <c r="Q1" s="45" t="s">
-        <v>763</v>
-      </c>
-      <c r="R1" s="45" t="s">
-        <v>764</v>
-      </c>
-      <c r="S1" s="45" t="s">
-        <v>766</v>
-      </c>
       <c r="T1" s="47" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="U1" s="45" t="s">
         <v>620</v>
@@ -4224,13 +4223,13 @@
         <v>621</v>
       </c>
       <c r="W1" s="47" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="X1" s="45" t="s">
         <v>622</v>
       </c>
       <c r="Y1" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15" x14ac:dyDescent="0.2">
@@ -9571,10 +9570,10 @@
         <v>583</v>
       </c>
       <c r="D139" s="53" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E139" s="53" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F139" s="53"/>
       <c r="G139" s="54">
@@ -9655,10 +9654,10 @@
         <v>585</v>
       </c>
       <c r="D140" s="53" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E140" s="53" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F140" s="53"/>
       <c r="G140" s="54">
@@ -9739,10 +9738,10 @@
         <v>586</v>
       </c>
       <c r="D141" s="53" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E141" s="53" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F141" s="53"/>
       <c r="G141" s="54">
@@ -9823,10 +9822,10 @@
         <v>587</v>
       </c>
       <c r="D142" s="53" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E142" s="53" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F142" s="53"/>
       <c r="G142" s="54">
@@ -9907,13 +9906,13 @@
         <v>588</v>
       </c>
       <c r="D143" s="53" t="s">
+        <v>730</v>
+      </c>
+      <c r="E143" s="53" t="s">
         <v>731</v>
       </c>
-      <c r="E143" s="53" t="s">
-        <v>732</v>
-      </c>
       <c r="F143" s="53" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G143" s="54">
         <v>1</v>
@@ -9993,10 +9992,10 @@
         <v>589</v>
       </c>
       <c r="D144" s="53" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E144" s="53" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F144" s="53"/>
       <c r="G144" s="54">
@@ -10074,16 +10073,16 @@
         <v>97.305000000000007</v>
       </c>
       <c r="C145" s="23" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D145" s="53" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E145" s="53" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F145" s="53" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G145" s="54">
         <v>1</v>
@@ -10240,13 +10239,13 @@
         <v>97.307000000000002</v>
       </c>
       <c r="C147" s="57" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D147" s="53" t="s">
+        <v>736</v>
+      </c>
+      <c r="E147" s="53" t="s">
         <v>737</v>
-      </c>
-      <c r="E147" s="53" t="s">
-        <v>738</v>
       </c>
       <c r="F147" s="55"/>
       <c r="G147" s="54">
@@ -10406,7 +10405,7 @@
         <v>593</v>
       </c>
       <c r="D149" s="53" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E149" s="53"/>
       <c r="F149" s="53"/>
@@ -10488,10 +10487,10 @@
         <v>594</v>
       </c>
       <c r="D150" s="53" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E150" s="53" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F150" s="53"/>
       <c r="G150" s="54">
@@ -10572,10 +10571,10 @@
         <v>595</v>
       </c>
       <c r="D151" s="53" t="s">
+        <v>739</v>
+      </c>
+      <c r="E151" s="53" t="s">
         <v>740</v>
-      </c>
-      <c r="E151" s="53" t="s">
-        <v>741</v>
       </c>
       <c r="F151" s="53"/>
       <c r="G151" s="54">
@@ -10735,13 +10734,13 @@
         <v>597</v>
       </c>
       <c r="D153" s="53" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E153" s="53" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F153" s="53" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G153" s="54">
         <v>1</v>
@@ -12524,9 +12523,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12563,16 +12562,16 @@
         <v>441</v>
       </c>
       <c r="B1" s="58" t="s">
+        <v>749</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>750</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>751</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>690</v>
       </c>
       <c r="E1" s="43" t="s">
-        <v>691</v>
+        <v>766</v>
       </c>
       <c r="F1" s="43" t="s">
         <v>689</v>
@@ -12581,7 +12580,7 @@
         <v>442</v>
       </c>
       <c r="H1" s="59" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I1" s="44" t="s">
         <v>443</v>
@@ -12590,34 +12589,34 @@
         <v>628</v>
       </c>
       <c r="K1" s="45" t="s">
+        <v>758</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>751</v>
+      </c>
+      <c r="M1" s="45" t="s">
         <v>759</v>
       </c>
-      <c r="L1" s="45" t="s">
-        <v>752</v>
-      </c>
-      <c r="M1" s="45" t="s">
+      <c r="N1" s="45" t="s">
+        <v>753</v>
+      </c>
+      <c r="O1" s="45" t="s">
         <v>760</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="P1" s="45" t="s">
         <v>754</v>
       </c>
-      <c r="O1" s="45" t="s">
-        <v>761</v>
-      </c>
-      <c r="P1" s="45" t="s">
+      <c r="Q1" s="45" t="s">
+        <v>762</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>763</v>
+      </c>
+      <c r="S1" s="45" t="s">
         <v>755</v>
       </c>
-      <c r="Q1" s="45" t="s">
-        <v>763</v>
-      </c>
-      <c r="R1" s="45" t="s">
-        <v>764</v>
-      </c>
-      <c r="S1" s="45" t="s">
+      <c r="T1" s="47" t="s">
         <v>756</v>
-      </c>
-      <c r="T1" s="47" t="s">
-        <v>757</v>
       </c>
       <c r="U1" s="45" t="s">
         <v>620</v>
@@ -12626,13 +12625,13 @@
         <v>621</v>
       </c>
       <c r="W1" s="47" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="X1" s="45" t="s">
         <v>622</v>
       </c>
       <c r="Y1" s="46" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -16867,7 +16866,7 @@
         <v>653</v>
       </c>
       <c r="D110" s="41" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E110" s="41"/>
       <c r="F110" s="41"/>
@@ -17031,7 +17030,7 @@
         <v>654</v>
       </c>
       <c r="D113" s="41" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E113" s="41" t="s">
         <v>687</v>
@@ -17279,10 +17278,10 @@
         <v>146</v>
       </c>
       <c r="D116" s="41" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E116" s="41" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F116" s="41"/>
       <c r="G116" s="51">
@@ -17363,7 +17362,7 @@
         <v>228</v>
       </c>
       <c r="D117" s="41" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E117" s="41"/>
       <c r="F117" s="41"/>
@@ -17646,10 +17645,10 @@
         <v>224</v>
       </c>
       <c r="D121" s="41" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E121" s="41" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F121" s="41"/>
       <c r="G121" s="51">
@@ -17730,10 +17729,10 @@
         <v>657</v>
       </c>
       <c r="D122" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E122" s="41" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F122" s="41"/>
       <c r="G122" s="51">
@@ -17814,10 +17813,10 @@
         <v>221</v>
       </c>
       <c r="D123" s="41" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E123" s="41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F123" s="41"/>
       <c r="G123" s="51">
@@ -17976,10 +17975,10 @@
         <v>217</v>
       </c>
       <c r="D125" s="41" t="s">
+        <v>695</v>
+      </c>
+      <c r="E125" s="41" t="s">
         <v>696</v>
-      </c>
-      <c r="E125" s="41" t="s">
-        <v>697</v>
       </c>
       <c r="F125" s="41"/>
       <c r="G125" s="51">
@@ -18060,10 +18059,10 @@
         <v>215</v>
       </c>
       <c r="D126" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E126" s="41" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F126" s="41"/>
       <c r="G126" s="51">
@@ -18224,10 +18223,10 @@
         <v>212</v>
       </c>
       <c r="D128" s="41" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E128" s="41" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F128" s="41"/>
       <c r="G128" s="51">
@@ -18388,10 +18387,10 @@
         <v>208</v>
       </c>
       <c r="D130" s="41" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E130" s="41" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F130" s="41">
         <v>45.814999999999998</v>
@@ -18474,10 +18473,10 @@
         <v>206</v>
       </c>
       <c r="D131" s="41" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E131" s="41" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F131" s="41">
         <v>45.814999999999998</v>
@@ -18560,10 +18559,10 @@
         <v>204</v>
       </c>
       <c r="D132" s="41" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E132" s="41" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F132" s="41"/>
       <c r="G132" s="51">
@@ -18644,7 +18643,7 @@
         <v>202</v>
       </c>
       <c r="D133" s="41" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E133" s="41"/>
       <c r="F133" s="41"/>
@@ -18806,10 +18805,10 @@
         <v>197</v>
       </c>
       <c r="D135" s="41" t="s">
+        <v>703</v>
+      </c>
+      <c r="E135" s="41" t="s">
         <v>704</v>
-      </c>
-      <c r="E135" s="41" t="s">
-        <v>705</v>
       </c>
       <c r="F135" s="41"/>
       <c r="G135" s="51">
@@ -18890,10 +18889,10 @@
         <v>195</v>
       </c>
       <c r="D136" s="41" t="s">
+        <v>705</v>
+      </c>
+      <c r="E136" s="41" t="s">
         <v>706</v>
-      </c>
-      <c r="E136" s="41" t="s">
-        <v>707</v>
       </c>
       <c r="F136" s="41"/>
       <c r="G136" s="51">
@@ -18974,10 +18973,10 @@
         <v>193</v>
       </c>
       <c r="D137" s="41" t="s">
+        <v>707</v>
+      </c>
+      <c r="E137" s="41" t="s">
         <v>708</v>
-      </c>
-      <c r="E137" s="41" t="s">
-        <v>709</v>
       </c>
       <c r="F137" s="41"/>
       <c r="G137" s="51">
@@ -19218,10 +19217,10 @@
         <v>187</v>
       </c>
       <c r="D140" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E140" s="41" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F140" s="41"/>
       <c r="G140" s="51">
@@ -19302,10 +19301,10 @@
         <v>185</v>
       </c>
       <c r="D141" s="41" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E141" s="41" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F141" s="41"/>
       <c r="G141" s="51">
@@ -19546,10 +19545,10 @@
         <v>180</v>
       </c>
       <c r="D144" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="E144" s="41" t="s">
         <v>711</v>
-      </c>
-      <c r="E144" s="41" t="s">
-        <v>712</v>
       </c>
       <c r="F144" s="41"/>
       <c r="G144" s="51">
@@ -19630,10 +19629,10 @@
         <v>178</v>
       </c>
       <c r="D145" s="41" t="s">
+        <v>710</v>
+      </c>
+      <c r="E145" s="41" t="s">
         <v>711</v>
-      </c>
-      <c r="E145" s="41" t="s">
-        <v>712</v>
       </c>
       <c r="F145" s="41"/>
       <c r="G145" s="51">
@@ -19714,10 +19713,10 @@
         <v>686</v>
       </c>
       <c r="D146" s="41" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E146" s="41" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F146" s="41"/>
       <c r="G146" s="51">
@@ -19798,10 +19797,10 @@
         <v>175</v>
       </c>
       <c r="D147" s="41" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E147" s="51" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F147" s="41"/>
       <c r="G147" s="51">
@@ -19882,7 +19881,7 @@
         <v>173</v>
       </c>
       <c r="D148" s="41" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E148" s="41"/>
       <c r="F148" s="41"/>
@@ -19964,10 +19963,10 @@
         <v>171</v>
       </c>
       <c r="D149" s="41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E149" s="41" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F149" s="41"/>
       <c r="G149" s="51">
